--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -5,29 +5,31 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
     <sheet name="Data length" sheetId="16" state="hidden" r:id="rId2"/>
     <sheet name="gdb" sheetId="8" r:id="rId3"/>
     <sheet name="git" sheetId="19" r:id="rId4"/>
-    <sheet name="BackupNVRam_Investigate" sheetId="13" r:id="rId5"/>
-    <sheet name="BackupNVRam_Solution" sheetId="14" r:id="rId6"/>
-    <sheet name="No56_MediaMapFile" sheetId="15" r:id="rId7"/>
+    <sheet name="BackupNVRam_Investigate" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="BackupNVRam_Solution" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId7"/>
     <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId8"/>
-    <sheet name="No52_AirPressureSensor" sheetId="18" r:id="rId9"/>
-    <sheet name="ARM8Soc_Inves" sheetId="20" r:id="rId10"/>
-    <sheet name="RQ-475" sheetId="21" r:id="rId11"/>
-    <sheet name="RQ-571_UT" sheetId="22" r:id="rId12"/>
-    <sheet name="RQ-686_UT_SMB" sheetId="24" r:id="rId13"/>
-    <sheet name="No44_Dipsw_Inves" sheetId="23" r:id="rId14"/>
+    <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId9"/>
+    <sheet name="ARM8Soc_Inves" sheetId="20" state="hidden" r:id="rId10"/>
+    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId11"/>
+    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId12"/>
+    <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId13"/>
+    <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId14"/>
     <sheet name="Sparrow_No22_No23" sheetId="25" r:id="rId15"/>
     <sheet name="Eagle_No.103" sheetId="26" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId17"/>
+    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,18 +41,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1269">
   <si>
     <t>APIC_MailSendSetting</t>
   </si>
   <si>
     <t>Perform range check on NW 2 side.
 If "TYPE_SmtpCertificationBoth" and "TYPE_SmtpCertificationPopBeforeSMTP" are specified as arguments, call LOGF_debug_PutEventLog().</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>git clone git@192.168.106.17:/root/work/git/2PortLan.git</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>\\192.168.106.167\07_Personal\huy\000_Development\01_IT5_4.2_RQ-686_2portLAN\002_output\00_Meeting_20170814</t>
@@ -63,22 +65,22 @@
   </si>
   <si>
     <t xml:space="preserve">Branch: RQ686_Venus </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> // 2017/08/14 RQ-686 HIENG.</t>
   </si>
   <si>
     <t>void setSmtpCertification</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>TYPE_ServerLoadReduction getServerLoadReductionSetting</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>TYPE_SmtpCertificationMethodFunc getSmtpCertificationMethod</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>DEVICE=eth2</t>
@@ -139,23 +141,23 @@
   </si>
   <si>
     <t>setBasePortNumber()</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>MIO_OBJCLS_EXTEND_LAN_TCPIP</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>APIC_PrinterPortSetting</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Bool setPortNumberRaw1( ushort us_PortNumberRaw1, JLGE_InspectLogOperateNum e_InspectLogOpeNum, JLGE_InspectLogIF e_InspectLogIF, Bool b_NoInspectionLog = False )</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>TYPE_SmtpCertification getSmtpCertification</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>APIC_ScanJobSetting</t>
@@ -168,95 +170,95 @@
   </si>
   <si>
     <t>APIC_SmimeSetting</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Other3(Don't Rollback)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void getSmtpCertificationMethod( TYPE_SmtpCertificationMethod e_SmtpCertificationMethod, TYPE_SmtpCertificationMethodFunc e_MethodOnOff, JLGE_InspectLogOperateNum e_InspectLogOpeNum, JLGE_InspectLogIF e_InspectLogIF, Bool b_NoInspectionLog = False, TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void setSmimeEncryptionType(TYPE_SmimeEncryptionType e_SmimeSignature, JLGE_InspectLogIF e_InspectLogIF = JLGE_InspectLogIfNon, Bool b_NoInspectionLog = False, APIC_User* pc_User = NULL, short ss_AuthorityID = TYPD_NotSetting,  TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Other3(Implement)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Other3(Implement)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Added: -lgcov</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Z:\work\repository\IT5_42_2PortLan\mfp\Linux\main.cpp:3997</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Imple for UT</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Z:\work\KM3\KM\work\zse3\Makefile: 2902</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Z:\work\KM3\KM\pmake\make\Rule.makes :1241, 1242</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void getServerLoadReductionSetting( TYPE_ServerLoadReduction e_ServerLoadRed, long sl_SizeDesignation, JLGE_InspectLogIF e_InspectLogIF, Bool b_NoInspectionLog = False, APIC_User* pc_User = NULL, short ss_AuthorityID = TYPD_NotSetting , TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void setEnableScanToEmail( const Bool b_EnableScanToEmail, TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void setServerLoadReductionSetting( TYPE_ServerLoadReduction e_ServerLoadRed, long sl_SizeDesignation, JLGE_InspectLogIF e_InspectLogIF, Bool b_NoInspectionLog = False, APIC_User* pc_User = NULL, short ss_AuthorityID = TYPD_NotSetting , TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Coverage:</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>gdb debuger:</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>./start_mfp.sh server</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>gdb</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>file /km/fw/bin/mfp000_allQt</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>target remote 192.168.56.102:1234</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>killall -USR2 mfp000_allQt &amp;&amp;  gcov -o /root/work/KM3/KM/work/zse3/objects/allQt/nvd -s /root/work/KM3/KM/application/mfp/system/nvd/nvdg NVDC_Setting.cpp</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nho touch file NVDC_NetworkSetting.cpp</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>void setSmtpCertificationMethod( TYPE_SmtpCertificationMethod e_SmtpCertificationMethod, TYPE_SmtpCertificationMethodFunc e_MethodOnOff, JLGE_InspectLogOperateNum e_InspectLogOpeNum, JLGE_InspectLogIF e_InspectLogIF, Bool b_NoInspectionLog = False, TYPE_WiredLANSelect e_WiredLANSelect = TYPE_WiredLANSelect_1)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>BackUp Table Group 1 --------------------------------------</t>
@@ -686,7 +688,7 @@
   </si>
   <si>
     <t>c_NvramBackupGroup2.write</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>c_NvramBackup.writeBackupData</t>
@@ -699,7 +701,7 @@
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>dealWithNVStruct( e_CMD_GET_NVRAM_DATA_FROM_DRAM )</t>
@@ -713,15 +715,15 @@
 memcpy( ( uc_NVBackupStack2 + NVBK_TABLE_MAGIC_NO_OFFSET_GROUP2 ), &amp;ul_MagicNo, NVBK_TABLE_MAGIC_NO_SIZE );
 memset( uc_flashFake2, 0x00, sizeof(uc_flashFake2) );
 memcpy( uc_flashFake2, uc_NVBackupStack2, sizeof(uc_NVBackupStack2) );</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>True: called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>// NVRAM backup: group 1.</t>
@@ -738,11 +740,11 @@
 e_CMD_MAKE_BACKUP_DATA_TABLE - Create data table
 e_CMD_GET_NVRAM_DATA_FROM_ DRAM - Copy NV Data from DRAM
 e_CMD_RECOVER_NVRAM - NV DATA recovery</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>// Create Backup Data Table</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>e_CMD_GET_NVRAM_DATA_FROM_DRAM</t>
@@ -760,7 +762,7 @@
 + // Counter Data
 + // ISW Download Flag
 + // Backup Flag（おしりデータ）</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>e_CMD_RECOVER_NVRAM</t>
@@ -791,7 +793,7 @@
   </si>
   <si>
     <t>all cases: called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>e_CMD_RECOVER_ALL_NVRAM</t>
@@ -801,55 +803,55 @@
 memcpy( ( uc_NVBackupStack + NVBK_TABLE_OFFSET_GROUP1 ), s_BackupDataTable, sizeof(s_BackupDataTable) );
 memcpy( ( uc_NVBackupStack + NVBK_TABLE_MAGIC_NO_OFFSET_GROUP1 ), &amp;ul_MagicNo, NVBK_TABLE_MAGIC_NO_SIZE );
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>setupBackupData</t>
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>//Setup of backup data.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>setBackupAreaAddress</t>
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>// NVRAM Data restoration. For Group 1,2,3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>taskMessageLoop</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>setTargetBackupDataGroup</t>
   </si>
   <si>
     <t>//BackUp target group setting.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>e_NVBK_BACKUP_IF_BACKUP_TIME</t>
   </si>
   <si>
     <t>// Backup if specified time</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>// When running in line mode, make sure that the scheduled backup function does not work.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>// Regular backup.</t>
@@ -865,7 +867,7 @@
   </si>
   <si>
     <t>e_NVBK_BACKUP</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> 71 {</t>
@@ -935,11 +937,11 @@
   </si>
   <si>
     <t>Need to know:</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NVBK_TABLE_OFFSET_GROUP2</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NVBK_TABLE_OFFSET_GROUP2 &gt; (s_BackupDataTable2[ tableNum ].ul_flash_dataOffset + s_BackupDataTable2[ tableNum ].ul_dataSize)</t>
@@ -949,7 +951,7 @@
   </si>
   <si>
     <t xml:space="preserve"> 70 struct NVDS_Variable</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>223 typedef struct t_s_BACKUP_DATA_TABLE</t>
@@ -986,12 +988,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 108 s_BACKUP_DATA_TABLE  NVDC_NVBackup::s_BackupDataTable2[ NVBK_BACKUP_DATA_TABLE2 ];</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>//Copy data table to uc_NVBackupStack2
 643: memcpy( ( uc_NVBackupStack2 + NVBK_TABLE_OFFSET_GROUP2 ), s_BackupDataTable2, sizeof(s_BackupDataTable2) );</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>2720                 memcpy( reinterpret_cast&lt;void *&gt;(uc_NVBackupStack2 + s_BackupDataTable2[ tableNum ].ul_flash_dataOffset), p_NVDS_Vars-&gt;datap, p_NVDS_Vars-&gt;datasize );</t>
@@ -999,30 +1001,30 @@
   <si>
     <t>// Copy data area to uc_NVBackupStack2
 2720 memcpy( reinterpret_cast&lt;void *&gt;(uc_NVBackupStack2 + s_BackupDataTable2[ tableNum ].ul_flash_dataOffset), p_NVDS_Vars-&gt;datap, p_NVDS_Vars-&gt;datasize );</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> 93 #define NVBK_TABLE_MAGIC_NO_OFFSET_GROUP2       (NVBK_FLASH_MEMORY_SIZE_GROUP2 - NVBK_TABLE_MAGIC_NO_SIZE)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> 90 static const int32_t NVBK_TABLE_MAGIC_NO_SIZE =             (sizeof(uint32_t));</t>
   </si>
   <si>
     <t>How to fix:</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1. Backup data table</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Original source</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>New source</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> 643         memcpy( ( uc_NVBackupStack2 + NVBK_TABLE_OFFSET_GROUP2 ), s_BackupDataTable2, sizeof(s_BackupDataTable2) );</t>
@@ -1032,7 +1034,7 @@
   </si>
   <si>
     <t>2. Backup data area</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>2717             if ( NVBK_TABLE_OFFSET_GROUP2 &gt; (s_BackupDataTable2[ tableNum ].ul_flash_dataOffset + s_BackupDataTable2[ tableNum ].ul_dataSize) )</t>
@@ -1078,11 +1080,11 @@
       </rPr>
       <t xml:space="preserve"> &gt; (s_BackupDataTable2[ tableNum ].ul_flash_dataOffset + s_BackupDataTable2[ tableNum ].ul_dataSize) )</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>called</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve"> 691     if ( NVDE_BackupTargetGroup2 &amp; e_TargetBackupDataGroupLocal )</t>
@@ -1140,7 +1142,7 @@
       </rPr>
       <t>), s_BackupDataTable2, sizeof(s_BackupDataTable2) );</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -1168,22 +1170,22 @@
       </rPr>
       <t xml:space="preserve"> ), s_BackupDataTable2, sizeof(s_BackupDataTable2) );</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>called:  #if defined(TORNADO) &amp;&amp; !defined(FUM_LINUX)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>called #else</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>getNvramBackup( e_BackupDataGroup )</t>
   </si>
   <si>
     <t>called  #if defined(TORNADO) &amp;&amp; !defined(FUM_LINUX)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>static THRC_SPI_FlashCtrlBackup c_NvramBackupGroup2</t>
@@ -5000,6 +5002,174 @@
   <si>
     <t>DBG_GET_SoftDipSwBit 3 2</t>
   </si>
+  <si>
+    <t>LocalUI</t>
+  </si>
+  <si>
+    <t>CommonAPI</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::Req_HddDataBackup</t>
+  </si>
+  <si>
+    <t>HddDataBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startHddDataBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::checkCapacityLackOfUsbHdd</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::getDocList</t>
+  </si>
+  <si>
+    <t>APIC_Box::req_getDocList</t>
+  </si>
+  <si>
+    <t>&lt;-- callback</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startBoxImageBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::ans_getDocList</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execBoxImageBackup</t>
+  </si>
+  <si>
+    <t>// Backup(共通) DOS領域 バックアップ.</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execDosAreaBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startFatBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::ans_MfpSetDataBackupRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::checkCapacityLackOfMfpHdd</t>
+  </si>
+  <si>
+    <t>// Restore(内部) MFP HDD容量 事前チェック</t>
+  </si>
+  <si>
+    <t>// Backup(内部) USB HDD容量 事前チェック.</t>
+  </si>
+  <si>
+    <t>// Restore(共通) DOS領域 リストア.</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execDosAreaRestore</t>
+  </si>
+  <si>
+    <t>// Backup(内部) スレッド領域 Fatデータ バックアップ開始.</t>
+  </si>
+  <si>
+    <t>// Backup(内部) スレッド領域 クラスタデータ バックアップ開始.</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startClusterBackup</t>
+  </si>
+  <si>
+    <t>// Backup(内部) スレッド領域 Fatデータ バックアップ実行.</t>
+  </si>
+  <si>
+    <t>// Restore(内部) スレッド領域 Fatデータ リストア開始.</t>
+  </si>
+  <si>
+    <t>// Restore(汎用) BOX画像データ リストア開始.</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startFatRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startBoxImageRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execFatBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execClusterBackup</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startClusterRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execClusterRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execFatRestore</t>
+  </si>
+  <si>
+    <t>// Restore(共通) MFP設定データ リストア.</t>
+  </si>
+  <si>
+    <t>// Restore(汎用) BOX画像データ ディレクトリ リスト取得.</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::execMfpSetDataBackupRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::getBoxImageDirList</t>
+  </si>
+  <si>
+    <t>// Backup(汎用) BOX画像データ バックアップ開始.</t>
+  </si>
+  <si>
+    <t>APIC_UsbImportExportOperation::req_UsbImportExportStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--callback </t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::ans_LoggingTaskStop</t>
+  </si>
+  <si>
+    <t>// backup or restore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::stopLoggingTask</t>
+  </si>
+  <si>
+    <t>APIC_ApiLogging::suspendApiLoggingTask</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::getDosAreaInfomation</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::getThreadAreaInfomation</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::startHddDataRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::req_HddDataRestore</t>
+  </si>
+  <si>
+    <t>HddDataRestore</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::req_BackupFat</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::ans_BackupHDD</t>
+  </si>
+  <si>
+    <t>req_BackupCluster</t>
+  </si>
+  <si>
+    <t>SYSC_BackupColor::ans_ClusterBackup</t>
+  </si>
+  <si>
+    <t>if( ( 0xff == uc_NvramSwNum ) &amp;&amp; ( 0xff == uc_NvramBitNum ) )</t>
+  </si>
 </sst>
 </file>
 
@@ -5011,13 +5181,20 @@
     <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5495,7 +5672,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5548,8 +5725,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5661,95 +5844,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5758,161 +5950,161 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="25"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="24" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -5921,71 +6113,107 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -6571,7 +6799,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" display="git@192.168.106.17:/root/work/git/2PortLan.git"/>
   </hyperlinks>
@@ -9180,8 +9408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H31" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9199,14 +9427,14 @@
       <c r="B4" t="s">
         <v>1150</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="102" t="s">
         <v>1157</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95" t="s">
+      <c r="D4" s="102"/>
+      <c r="E4" s="102" t="s">
         <v>1158</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
@@ -9555,6 +9783,585 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="P1" s="82"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="P2" s="82"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="105" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="84" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="P4" s="82"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="20"/>
+      <c r="B5" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P5" s="82"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="20"/>
+      <c r="C6" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="P6" s="82"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="E7" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="P7" s="82"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="P8" s="82"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P9" s="82"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P10" s="82"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="P11" s="82"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="E12" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="P12" s="82"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="F13" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K13" s="79"/>
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="G14" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K14" s="79"/>
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="K15" s="79"/>
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="E16" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="P16" s="82"/>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="6:18">
+      <c r="F17" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L17" s="79"/>
+      <c r="P17" s="82"/>
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="6:18">
+      <c r="H18" s="85" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P18" s="82"/>
+      <c r="R18" s="32"/>
+    </row>
+    <row r="19" spans="6:18">
+      <c r="G19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="P19" s="82"/>
+      <c r="R19" s="32"/>
+    </row>
+    <row r="20" spans="6:18">
+      <c r="H20" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="P20" s="82"/>
+    </row>
+    <row r="21" spans="6:18">
+      <c r="H21" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P21" s="82"/>
+    </row>
+    <row r="22" spans="6:18">
+      <c r="I22" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P22" s="82"/>
+    </row>
+    <row r="23" spans="6:18">
+      <c r="K23" s="79" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P23" s="82"/>
+    </row>
+    <row r="24" spans="6:18">
+      <c r="J24" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K24" s="79"/>
+      <c r="P24" s="82"/>
+    </row>
+    <row r="25" spans="6:18">
+      <c r="J25" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P25" s="82"/>
+    </row>
+    <row r="26" spans="6:18">
+      <c r="K26" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P26" s="80"/>
+    </row>
+    <row r="27" spans="6:18">
+      <c r="K27" s="79"/>
+      <c r="L27" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P27" s="80"/>
+    </row>
+    <row r="28" spans="6:18">
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P28" s="80"/>
+    </row>
+    <row r="29" spans="6:18">
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P29" s="82"/>
+    </row>
+    <row r="30" spans="6:18">
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="P30" s="103" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18">
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="O31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P31" s="82"/>
+    </row>
+    <row r="32" spans="6:18">
+      <c r="K32" s="79"/>
+      <c r="L32" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P32" s="80"/>
+    </row>
+    <row r="33" spans="10:18">
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P33" s="80"/>
+    </row>
+    <row r="34" spans="10:18">
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="O34" s="103" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P34" s="80"/>
+    </row>
+    <row r="35" spans="10:18">
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="N35" t="s">
+        <v>1265</v>
+      </c>
+      <c r="P35" s="80"/>
+    </row>
+    <row r="36" spans="10:18">
+      <c r="K36" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1252</v>
+      </c>
+      <c r="P36" s="80"/>
+    </row>
+    <row r="37" spans="10:18">
+      <c r="K37" s="79"/>
+      <c r="L37" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+    </row>
+    <row r="38" spans="10:18">
+      <c r="K38" s="79"/>
+      <c r="M38" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N38" s="83" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P38" s="82"/>
+      <c r="R38" s="32"/>
+    </row>
+    <row r="39" spans="10:18">
+      <c r="K39" s="79"/>
+      <c r="O39" s="103" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="83"/>
+    </row>
+    <row r="40" spans="10:18">
+      <c r="K40" s="79"/>
+      <c r="N40" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O40" s="81"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
+    </row>
+    <row r="41" spans="10:18">
+      <c r="K41" s="79"/>
+      <c r="N41" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q41" s="80"/>
+    </row>
+    <row r="42" spans="10:18">
+      <c r="J42" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1231</v>
+      </c>
+      <c r="P42" s="82"/>
+    </row>
+    <row r="43" spans="10:18">
+      <c r="J43" s="79"/>
+      <c r="K43" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P43" s="82"/>
+    </row>
+    <row r="44" spans="10:18">
+      <c r="J44" s="79"/>
+      <c r="L44" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P44" s="82"/>
+    </row>
+    <row r="45" spans="10:18">
+      <c r="J45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P45" s="82"/>
+    </row>
+    <row r="46" spans="10:18">
+      <c r="J46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P46" s="82"/>
+    </row>
+    <row r="47" spans="10:18">
+      <c r="J47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P47" s="82"/>
+    </row>
+    <row r="48" spans="10:18">
+      <c r="J48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="P48" s="82"/>
+    </row>
+    <row r="49" spans="10:16">
+      <c r="J49" s="79"/>
+      <c r="L49" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P49" s="82"/>
+    </row>
+    <row r="50" spans="10:16">
+      <c r="J50" s="79"/>
+      <c r="M50" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P50" s="82"/>
+    </row>
+    <row r="51" spans="10:16">
+      <c r="J51" s="79"/>
+      <c r="M51" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P51" s="82"/>
+    </row>
+    <row r="52" spans="10:16">
+      <c r="J52" s="79"/>
+      <c r="P52" s="82"/>
+    </row>
+    <row r="53" spans="10:16">
+      <c r="J53" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P53" s="82"/>
+    </row>
+    <row r="54" spans="10:16">
+      <c r="K54" s="79" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9572,147 +10379,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="84" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="91" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="88" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="86">
-        <v>1</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86">
-        <v>1</v>
-      </c>
-      <c r="H3" s="86"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="93">
+        <v>1</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93">
+        <v>1</v>
+      </c>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="88" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="86">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="93">
         <v>2</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93">
         <v>2</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="88" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="86">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="93">
         <v>4</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93">
         <v>4</v>
       </c>
-      <c r="H5" s="86"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="88" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="87">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="94">
         <v>8</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="86">
+      <c r="F6" s="94"/>
+      <c r="G6" s="93">
         <v>4</v>
       </c>
-      <c r="H6" s="86"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="88" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="86">
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="93">
         <v>8</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86">
+      <c r="F7" s="93"/>
+      <c r="G7" s="93">
         <v>8</v>
       </c>
-      <c r="H7" s="86"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="88" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="86">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="93">
         <v>4</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86">
+      <c r="F8" s="93"/>
+      <c r="G8" s="93">
         <v>4</v>
       </c>
-      <c r="H8" s="86"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="88" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="86">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="93">
         <v>8</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93">
         <v>8</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="88" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="87">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="94">
         <v>8</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="86">
+      <c r="F10" s="94"/>
+      <c r="G10" s="93">
         <v>4</v>
       </c>
-      <c r="H10" s="86"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -10005,12 +10812,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -10033,500 +10840,500 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="84" t="s">
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="91" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="84" t="s">
+      <c r="I24" s="92"/>
+      <c r="J24" s="91" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="93" t="s">
+      <c r="K24" s="92"/>
+      <c r="L24" s="100" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="95" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="86">
-        <v>1</v>
-      </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86">
-        <v>1</v>
-      </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="88" t="s">
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="93">
+        <v>1</v>
+      </c>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93">
+        <v>1</v>
+      </c>
+      <c r="K25" s="93"/>
+      <c r="L25" s="95" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="95" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="86">
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="93">
         <v>2</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86">
+      <c r="I26" s="93"/>
+      <c r="J26" s="93">
         <v>2</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="88" t="s">
+      <c r="K26" s="93"/>
+      <c r="L26" s="95" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="95" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="86">
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="93">
         <v>4</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86">
+      <c r="I27" s="93"/>
+      <c r="J27" s="93">
         <v>4</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="88" t="s">
+      <c r="K27" s="93"/>
+      <c r="L27" s="95" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="95" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="86">
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="93">
         <v>4</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86">
+      <c r="I28" s="93"/>
+      <c r="J28" s="93">
         <v>4</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="88" t="s">
+      <c r="K28" s="93"/>
+      <c r="L28" s="95" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="95" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="86">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="93">
         <v>8</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86">
+      <c r="I29" s="93"/>
+      <c r="J29" s="93">
         <v>8</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="88" t="s">
+      <c r="K29" s="93"/>
+      <c r="L29" s="95" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="95" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="87">
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="94">
         <v>8</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87">
+      <c r="I30" s="94"/>
+      <c r="J30" s="94">
         <v>4</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88" t="s">
+      <c r="K30" s="94"/>
+      <c r="L30" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="87">
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="94">
         <v>8</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87">
+      <c r="I31" s="94"/>
+      <c r="J31" s="94">
         <v>4</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88" t="s">
+      <c r="K31" s="94"/>
+      <c r="L31" s="95" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="95" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="86">
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="93">
         <v>4</v>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86">
+      <c r="I32" s="93"/>
+      <c r="J32" s="93">
         <v>4</v>
       </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="88" t="s">
+      <c r="K32" s="93"/>
+      <c r="L32" s="95" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="88"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="95" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="86">
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="93">
         <v>8</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86">
+      <c r="I33" s="93"/>
+      <c r="J33" s="93">
         <v>8</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="88" t="s">
+      <c r="K33" s="93"/>
+      <c r="L33" s="95" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="88"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="95" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="86">
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="93">
         <v>8</v>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86">
+      <c r="I34" s="93"/>
+      <c r="J34" s="93">
         <v>8</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="88" t="s">
+      <c r="K34" s="93"/>
+      <c r="L34" s="95" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
-      <c r="AE34" s="88"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="95" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="87">
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="94">
         <v>8</v>
       </c>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94">
         <v>4</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88" t="s">
+      <c r="K35" s="94"/>
+      <c r="L35" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
@@ -10919,7 +11726,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11739,7 +12546,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13958,7 +14765,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14795,13 +15602,13 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="94" t="s">
+      <c r="A156" s="101" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="94"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="94"/>
-      <c r="E156" s="94"/>
+      <c r="B156" s="101"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="101"/>
+      <c r="E156" s="101"/>
       <c r="F156" s="36"/>
     </row>
     <row r="157" spans="1:6">
@@ -14928,13 +15735,13 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="94" t="s">
+      <c r="A187" s="101" t="s">
         <v>642</v>
       </c>
-      <c r="B187" s="94"/>
-      <c r="C187" s="94"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
+      <c r="B187" s="101"/>
+      <c r="C187" s="101"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="101"/>
       <c r="F187" s="36"/>
     </row>
     <row r="188" spans="1:6">

--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -28,8 +28,7 @@
     <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId14"/>
     <sheet name="Sparrow_No22_No23" sheetId="25" r:id="rId15"/>
     <sheet name="Eagle_No.103" sheetId="26" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="28" r:id="rId17"/>
-    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId18"/>
+    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -5168,7 +5167,7 @@
     <t>SYSC_BackupColor::ans_ClusterBackup</t>
   </si>
   <si>
-    <t>if( ( 0xff == uc_NvramSwNum ) &amp;&amp; ( 0xff == uc_NvramBitNum ) )</t>
+    <t>\\192.168.106.167\06_Output\05_Development\32_HDD_Backup</t>
   </si>
 </sst>
 </file>
@@ -6149,57 +6148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6214,6 +6162,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -9427,14 +9426,14 @@
       <c r="B4" t="s">
         <v>1150</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>1157</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107" t="s">
         <v>1158</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
@@ -9788,30 +9787,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:4">
-      <c r="D3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9826,34 +9805,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>1268</v>
+      </c>
       <c r="P1" s="82"/>
     </row>
     <row r="2" spans="1:19">
       <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="88" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="87" t="s">
         <v>1214</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="84" t="s">
@@ -10102,7 +10084,7 @@
       <c r="K30" s="79"/>
       <c r="L30" s="79"/>
       <c r="M30" s="79"/>
-      <c r="P30" s="103" t="s">
+      <c r="P30" s="86" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10142,7 +10124,7 @@
     <row r="34" spans="10:18">
       <c r="K34" s="79"/>
       <c r="L34" s="79"/>
-      <c r="O34" s="103" t="s">
+      <c r="O34" s="86" t="s">
         <v>1222</v>
       </c>
       <c r="P34" s="80"/>
@@ -10191,7 +10173,7 @@
     </row>
     <row r="39" spans="10:18">
       <c r="K39" s="79"/>
-      <c r="O39" s="103" t="s">
+      <c r="O39" s="86" t="s">
         <v>1222</v>
       </c>
       <c r="P39" s="82"/>
@@ -10379,147 +10361,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="103" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="101" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
-        <v>1</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93">
-        <v>1</v>
-      </c>
-      <c r="H3" s="93"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="91">
+        <v>1</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91">
+        <v>1</v>
+      </c>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="93">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="91">
         <v>2</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91">
         <v>2</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="101" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="93">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="91">
         <v>4</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91">
         <v>4</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="94">
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="96">
         <v>8</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="93">
+      <c r="F6" s="96"/>
+      <c r="G6" s="91">
         <v>4</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="101" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="93">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="91">
         <v>8</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91">
         <v>8</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="93">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="91">
         <v>4</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93">
+      <c r="F8" s="91"/>
+      <c r="G8" s="91">
         <v>4</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="101" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="93">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="91">
         <v>8</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91">
         <v>8</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="101" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="94">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="96">
         <v>8</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93">
+      <c r="F10" s="96"/>
+      <c r="G10" s="91">
         <v>4</v>
       </c>
-      <c r="H10" s="93"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -10812,12 +10794,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="96" t="s">
+      <c r="H23" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -10840,512 +10822,559 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="91" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="91" t="s">
+      <c r="I24" s="93"/>
+      <c r="J24" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="100" t="s">
+      <c r="K24" s="93"/>
+      <c r="L24" s="95" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="93">
-        <v>1</v>
-      </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93">
-        <v>1</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="95" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="91">
+        <v>1</v>
+      </c>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91">
+        <v>1</v>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="94" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="93">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="91">
         <v>2</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="91"/>
+      <c r="J26" s="91">
         <v>2</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="95" t="s">
+      <c r="K26" s="91"/>
+      <c r="L26" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="94" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="93">
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="91">
         <v>4</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93">
+      <c r="I27" s="91"/>
+      <c r="J27" s="91">
         <v>4</v>
       </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="95" t="s">
+      <c r="K27" s="91"/>
+      <c r="L27" s="94" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="93">
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="91">
         <v>4</v>
       </c>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93">
+      <c r="I28" s="91"/>
+      <c r="J28" s="91">
         <v>4</v>
       </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="95" t="s">
+      <c r="K28" s="91"/>
+      <c r="L28" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="93">
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="91">
         <v>8</v>
       </c>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93">
+      <c r="I29" s="91"/>
+      <c r="J29" s="91">
         <v>8</v>
       </c>
-      <c r="K29" s="93"/>
-      <c r="L29" s="95" t="s">
+      <c r="K29" s="91"/>
+      <c r="L29" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="94">
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="96">
         <v>8</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94">
+      <c r="I30" s="96"/>
+      <c r="J30" s="96">
         <v>4</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95" t="s">
+      <c r="K30" s="96"/>
+      <c r="L30" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="94">
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="96">
         <v>8</v>
       </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94">
+      <c r="I31" s="96"/>
+      <c r="J31" s="96">
         <v>4</v>
       </c>
-      <c r="K31" s="94"/>
-      <c r="L31" s="95" t="s">
+      <c r="K31" s="96"/>
+      <c r="L31" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="93">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="91">
         <v>4</v>
       </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93">
+      <c r="I32" s="91"/>
+      <c r="J32" s="91">
         <v>4</v>
       </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="95" t="s">
+      <c r="K32" s="91"/>
+      <c r="L32" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="94" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="93">
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="91">
         <v>8</v>
       </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93">
+      <c r="I33" s="91"/>
+      <c r="J33" s="91">
         <v>8</v>
       </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="95" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="93">
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="91">
         <v>8</v>
       </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93">
+      <c r="I34" s="91"/>
+      <c r="J34" s="91">
         <v>8</v>
       </c>
-      <c r="K34" s="93"/>
-      <c r="L34" s="95" t="s">
+      <c r="K34" s="91"/>
+      <c r="L34" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="94">
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="96">
         <v>8</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94">
+      <c r="I35" s="96"/>
+      <c r="J35" s="96">
         <v>4</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95" t="s">
+      <c r="K35" s="96"/>
+      <c r="L35" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L25:AE25"/>
-    <mergeCell ref="L24:AE24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L31:AE31"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L30:AE30"/>
+    <mergeCell ref="L32:AE32"/>
+    <mergeCell ref="L28:AE28"/>
+    <mergeCell ref="L33:AE33"/>
+    <mergeCell ref="L34:AE34"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="L29:AE29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="L35:AE35"/>
     <mergeCell ref="L27:AE27"/>
     <mergeCell ref="L26:AE26"/>
@@ -11362,60 +11391,13 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L31:AE31"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L30:AE30"/>
-    <mergeCell ref="L32:AE32"/>
-    <mergeCell ref="L28:AE28"/>
-    <mergeCell ref="L33:AE33"/>
-    <mergeCell ref="L34:AE34"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="L29:AE29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L25:AE25"/>
+    <mergeCell ref="L24:AE24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15602,13 +15584,13 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="101" t="s">
+      <c r="A156" s="106" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="101"/>
-      <c r="C156" s="101"/>
-      <c r="D156" s="101"/>
-      <c r="E156" s="101"/>
+      <c r="B156" s="106"/>
+      <c r="C156" s="106"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
       <c r="F156" s="36"/>
     </row>
     <row r="157" spans="1:6">
@@ -15735,13 +15717,13 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="101" t="s">
+      <c r="A187" s="106" t="s">
         <v>642</v>
       </c>
-      <c r="B187" s="101"/>
-      <c r="C187" s="101"/>
-      <c r="D187" s="101"/>
-      <c r="E187" s="101"/>
+      <c r="B187" s="106"/>
+      <c r="C187" s="106"/>
+      <c r="D187" s="106"/>
+      <c r="E187" s="106"/>
       <c r="F187" s="36"/>
     </row>
     <row r="188" spans="1:6">

--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
     <sheet name="Data length" sheetId="16" state="hidden" r:id="rId2"/>
     <sheet name="gdb" sheetId="8" r:id="rId3"/>
-    <sheet name="git" sheetId="19" r:id="rId4"/>
-    <sheet name="BackupNVRam_Investigate" sheetId="13" state="hidden" r:id="rId5"/>
-    <sheet name="BackupNVRam_Solution" sheetId="14" state="hidden" r:id="rId6"/>
-    <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId7"/>
-    <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId8"/>
-    <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId9"/>
-    <sheet name="ARM8Soc_Inves" sheetId="20" state="hidden" r:id="rId10"/>
-    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId11"/>
-    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId12"/>
-    <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId13"/>
-    <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId14"/>
-    <sheet name="Sparrow_No22_No23" sheetId="25" r:id="rId15"/>
-    <sheet name="Eagle_No.103" sheetId="26" r:id="rId16"/>
-    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId17"/>
+    <sheet name="Direction_MFP" sheetId="28" r:id="rId4"/>
+    <sheet name="git" sheetId="19" r:id="rId5"/>
+    <sheet name="BackupNVRam_Investigate" sheetId="13" state="hidden" r:id="rId6"/>
+    <sheet name="BackupNVRam_Solution" sheetId="14" state="hidden" r:id="rId7"/>
+    <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId8"/>
+    <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId9"/>
+    <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId10"/>
+    <sheet name="ARM8Soc_Inves" sheetId="20" state="hidden" r:id="rId11"/>
+    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId12"/>
+    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId13"/>
+    <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId14"/>
+    <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId15"/>
+    <sheet name="Sparrow_No22_No23" sheetId="25" r:id="rId16"/>
+    <sheet name="Eagle_No.103" sheetId="26" r:id="rId17"/>
+    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1313">
   <si>
     <t>APIC_MailSendSetting</t>
   </si>
@@ -5169,6 +5170,139 @@
   <si>
     <t>\\192.168.106.167\06_Output\05_Development\32_HDD_Backup</t>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Method test</t>
+  </si>
+  <si>
+    <t>HDD Data backup</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>It is an Allow about backup of a service screen to an HDD Data backup Function, and implementation of restoration.</t>
+  </si>
+  <si>
+    <t>Restrict</t>
+  </si>
+  <si>
+    <t>Backup of an HDD Data backup Function and implementation of restoration are forbidden from a service screen.</t>
+  </si>
+  <si>
+    <t>A Job Setting is the "HDD Data backup" and Synchronize of a "Security Setting" of an Administrator Setting.</t>
+  </si>
+  <si>
+    <t>[Reference]
+Existing Function: An "HDD Data backup Permission Setting" is collected to an USB Connection Permission Setting.</t>
+  </si>
+  <si>
+    <t>setSecurityLevelUpOn</t>
+  </si>
+  <si>
+    <t>mfp/panel/pcgserv/pcgservc/pcgservc.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4238             if( True == PnlComGetSystemSetting()-&gt;getSecurityLevelUpOn() ) {                    // セキュリティ強化モードがONの場合.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4239                 pc_SoftDipSw-&gt;setSoftDipSwBit( 16, 1, False );                                  // ソフトSW1bit目を0にする.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4240                 pc_SoftDipSw-&gt;setSoftDipSwBit( 16, 2, False );                                  // ソフトSW2bit目を0にする.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4241                 pc_SoftDipSw-&gt;setSoftDipSwBitForPanelSpecNo( ChangeUARTSettings, 2, False );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4242                 if( ( 0x04 &gt;= ( uc_value &amp; 0x07 ) ) &amp;&amp; ( 0x00 == ( uc_value &amp; ~( 0x01 | 0x02 | 0x04 | 0x80 ) ) ) ) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4243                     pc_SoftDipSw-&gt;setSoftDipSwBit( 4, 8, ( uc_value &amp; 0x80 ) ? True : False );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4244                 }</t>
+  </si>
+  <si>
+    <t>mfp/pcm/src/common/pcmCommonApiLib.cpp</t>
+  </si>
+  <si>
+    <t>15280 extern  "C"{</t>
+  </si>
+  <si>
+    <t>15281 IMPORT void pcmSetSecurityMode( struct _HTMLReqData *reqData, BOOL bSecMode)</t>
+  </si>
+  <si>
+    <t>15282 {</t>
+  </si>
+  <si>
+    <t>15283     PCM_TRC_INT_INF("pcmSetSecurityMode Called.", 0 ,0);</t>
+  </si>
+  <si>
+    <t>15285     int32_t LoginUserAuthNo = 0;</t>
+  </si>
+  <si>
+    <t>15286     APIC_User* pc_User = NULL;</t>
+  </si>
+  <si>
+    <t>15288     LoginUserAuthNo = pcmGetLoginUserAuthNo( reqData );</t>
+  </si>
+  <si>
+    <t>15289     pc_User = APIC_User::newInstanceAdmin( LoginUserAuthNo );</t>
+  </si>
+  <si>
+    <t>15291     /* システム設定インスタンス取得 */</t>
+  </si>
+  <si>
+    <t>15292     APIC_SystemSetting* pc_SystemSetting;</t>
+  </si>
+  <si>
+    <t>15293     pc_SystemSetting    = APIC_SystemSetting::newInstanceAdmin();</t>
+  </si>
+  <si>
+    <t>15295     /* CommonAPIロック */</t>
+  </si>
+  <si>
+    <t>15296     pc_SystemSetting-&gt;lock();</t>
+  </si>
+  <si>
+    <t>15298     pc_SystemSetting-&gt;setSecurityLevelUpOn( (char)bSecMode, pc_User,JLGE_InspectLogIfPSWConnection,False,(short)LoginUserAuthNo );</t>
+  </si>
+  <si>
+    <t>15300     /* CommonAPIアンロック*/</t>
+  </si>
+  <si>
+    <t>15301     pc_SystemSetting-&gt;unlock();</t>
+  </si>
+  <si>
+    <t>15303     return;</t>
+  </si>
+  <si>
+    <t>Service Mode</t>
+  </si>
+  <si>
+    <t>Counter &gt; Stop 0 0 &gt; Stop 0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Mode &gt; Enhanced Security Setting </t>
+  </si>
+  <si>
+    <t>Stop 0 Clear</t>
+  </si>
+  <si>
+    <t>Direction on MFP Simulator</t>
+  </si>
+  <si>
+    <t>pmake/make/instapp.sh</t>
+  </si>
+  <si>
+    <t>pmake/make/torVars.sh</t>
+  </si>
+  <si>
+    <t>Find machine_type QT_Version</t>
+  </si>
 </sst>
 </file>
 
@@ -5180,7 +5314,7 @@
     <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5664,12 +5798,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -5907,7 +6035,7 @@
     <xf numFmtId="0" fontId="59" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -6163,7 +6291,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6173,13 +6313,13 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6193,20 +6333,8 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6244,7 +6372,7 @@
     <cellStyle name="標準 2 3" xfId="27"/>
     <cellStyle name="標準 3" xfId="11"/>
     <cellStyle name="標準 9" xfId="26"/>
-    <cellStyle name="標準_コピア" xfId="28"/>
+    <cellStyle name="標準_(3-1) EED-070301 全体制御仕様_FAXのグループ転送機能改善_SSD岸_070522" xfId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6808,6 +6936,1692 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T168"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" t="s">
+        <v>855</v>
+      </c>
+      <c r="H1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40" t="s">
+        <v>743</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39">
+        <v>955</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="41" t="s">
+        <v>718</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39">
+        <v>960</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39">
+        <v>981</v>
+      </c>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39">
+        <v>3675</v>
+      </c>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="41" t="s">
+        <v>760</v>
+      </c>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="41" t="s">
+        <v>760</v>
+      </c>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="45">
+        <v>572</v>
+      </c>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+    </row>
+    <row r="113" spans="2:15">
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+    </row>
+    <row r="115" spans="2:15">
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+    </row>
+    <row r="117" spans="2:15">
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+    </row>
+    <row r="118" spans="2:15">
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="45">
+        <v>5158</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+    </row>
+    <row r="122" spans="2:15">
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+    </row>
+    <row r="124" spans="2:15">
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+    </row>
+    <row r="125" spans="2:15">
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+    </row>
+    <row r="126" spans="2:15">
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+    </row>
+    <row r="127" spans="2:15">
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="40" t="s">
+        <v>815</v>
+      </c>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="O127" s="48"/>
+    </row>
+    <row r="128" spans="2:15">
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+    </row>
+    <row r="129" spans="2:20">
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="F129" s="46"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+    </row>
+    <row r="130" spans="2:20">
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47" t="s">
+        <v>808</v>
+      </c>
+      <c r="F130" s="46"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+    </row>
+    <row r="131" spans="2:20">
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="F131" s="47"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+    </row>
+    <row r="132" spans="2:20">
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="F132" s="47"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="T132" s="48"/>
+    </row>
+    <row r="133" spans="2:20">
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+    </row>
+    <row r="134" spans="2:20">
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+    </row>
+    <row r="135" spans="2:20">
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="F135" s="47"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+    </row>
+    <row r="136" spans="2:20">
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="F136" s="47"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+    </row>
+    <row r="137" spans="2:20">
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="F137" s="47"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+    </row>
+    <row r="138" spans="2:20">
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="47" t="s">
+        <v>814</v>
+      </c>
+      <c r="F138" s="47"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+    </row>
+    <row r="139" spans="2:20">
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+    </row>
+    <row r="140" spans="2:20">
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+    </row>
+    <row r="141" spans="2:20">
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+    </row>
+    <row r="142" spans="2:20">
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+    </row>
+    <row r="143" spans="2:20">
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+    </row>
+    <row r="144" spans="2:20">
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+    </row>
+    <row r="145" spans="2:18">
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
+    </row>
+    <row r="146" spans="2:18">
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
+    </row>
+    <row r="147" spans="2:18">
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
+    </row>
+    <row r="148" spans="2:18">
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
+    </row>
+    <row r="149" spans="2:18">
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39"/>
+      <c r="J149" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18">
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="G150" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="39"/>
+      <c r="J150" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18">
+      <c r="E151" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18">
+      <c r="E153" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18">
+      <c r="E154" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18">
+      <c r="E155" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18">
+      <c r="F156" t="s">
+        <v>793</v>
+      </c>
+      <c r="R156" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="2:18">
+      <c r="F157" t="s">
+        <v>795</v>
+      </c>
+      <c r="N157" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18">
+      <c r="F158" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18">
+      <c r="F159" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="160" spans="2:18">
+      <c r="F160" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="162" spans="5:11">
+      <c r="F162" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="5:11">
+      <c r="F163" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="164" spans="5:11">
+      <c r="F164" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="166" spans="5:11">
+      <c r="E166" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="167" spans="5:11">
+      <c r="F167" t="s">
+        <v>804</v>
+      </c>
+      <c r="G167" t="s">
+        <v>805</v>
+      </c>
+      <c r="K167" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="168" spans="5:11">
+      <c r="E168" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +8671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -6964,7 +8778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
@@ -8661,7 +10475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J31"/>
   <sheetViews>
@@ -8796,7 +10610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L77"/>
   <sheetViews>
@@ -9172,12 +10986,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9397,18 +11211,23 @@
         <v>1149</v>
       </c>
     </row>
+    <row r="68" spans="12:12">
+      <c r="L68" t="s">
+        <v>1269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H31" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9785,12 +11604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10275,7 +12094,7 @@
       <c r="L48" s="79"/>
       <c r="P48" s="82"/>
     </row>
-    <row r="49" spans="10:16">
+    <row r="49" spans="1:16">
       <c r="J49" s="79"/>
       <c r="L49" s="79" t="s">
         <v>1215</v>
@@ -10288,7 +12107,7 @@
       </c>
       <c r="P49" s="82"/>
     </row>
-    <row r="50" spans="10:16">
+    <row r="50" spans="1:16">
       <c r="J50" s="79"/>
       <c r="M50" s="79" t="s">
         <v>1215</v>
@@ -10301,7 +12120,7 @@
       </c>
       <c r="P50" s="82"/>
     </row>
-    <row r="51" spans="10:16">
+    <row r="51" spans="1:16">
       <c r="J51" s="79"/>
       <c r="M51" s="79" t="s">
         <v>1215</v>
@@ -10314,11 +12133,11 @@
       </c>
       <c r="P51" s="82"/>
     </row>
-    <row r="52" spans="10:16">
+    <row r="52" spans="1:16">
       <c r="J52" s="79"/>
       <c r="P52" s="82"/>
     </row>
-    <row r="53" spans="10:16">
+    <row r="53" spans="1:16">
       <c r="J53" s="79" t="s">
         <v>1215</v>
       </c>
@@ -10330,7 +12149,7 @@
       </c>
       <c r="P53" s="82"/>
     </row>
-    <row r="54" spans="10:16">
+    <row r="54" spans="1:16">
       <c r="K54" s="79" t="s">
         <v>1215</v>
       </c>
@@ -10339,6 +12158,214 @@
       </c>
       <c r="M54" t="s">
         <v>1226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="C59" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="D60" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="E61" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="D62" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="E63" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="D64" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>15284</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>15287</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <v>15290</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>15294</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98">
+        <v>15297</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>15302</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -10361,147 +12388,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="91" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="91">
-        <v>1</v>
-      </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91">
-        <v>1</v>
-      </c>
-      <c r="H3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
+        <v>1</v>
+      </c>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98">
+        <v>1</v>
+      </c>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="93" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="91">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="98">
         <v>2</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91">
+      <c r="F4" s="98"/>
+      <c r="G4" s="98">
         <v>2</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="93" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="91">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="98">
         <v>4</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91">
+      <c r="F5" s="98"/>
+      <c r="G5" s="98">
         <v>4</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="93" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="96">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="99">
         <v>8</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="91">
+      <c r="F6" s="99"/>
+      <c r="G6" s="98">
         <v>4</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="91">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="98">
         <v>8</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="93" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="91">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="98">
         <v>4</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91">
+      <c r="F8" s="98"/>
+      <c r="G8" s="98">
         <v>4</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="91">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="98">
         <v>8</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91">
+      <c r="F9" s="98"/>
+      <c r="G9" s="98">
         <v>8</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="98"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="93" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="96">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="99">
         <v>8</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="91">
+      <c r="F10" s="99"/>
+      <c r="G10" s="98">
         <v>4</v>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -10794,12 +12821,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -10822,510 +12849,561 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="92" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="92" t="s">
+      <c r="I24" s="97"/>
+      <c r="J24" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="93"/>
-      <c r="L24" s="95" t="s">
+      <c r="K24" s="97"/>
+      <c r="L24" s="105" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="100" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="91">
-        <v>1</v>
-      </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91">
-        <v>1</v>
-      </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="94" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="98">
+        <v>1</v>
+      </c>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98">
+        <v>1</v>
+      </c>
+      <c r="K25" s="98"/>
+      <c r="L25" s="100" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="94"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="91">
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="98">
         <v>2</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91">
+      <c r="I26" s="98"/>
+      <c r="J26" s="98">
         <v>2</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="94" t="s">
+      <c r="K26" s="98"/>
+      <c r="L26" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="100" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="91">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="98">
         <v>4</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91">
+      <c r="I27" s="98"/>
+      <c r="J27" s="98">
         <v>4</v>
       </c>
-      <c r="K27" s="91"/>
-      <c r="L27" s="94" t="s">
+      <c r="K27" s="98"/>
+      <c r="L27" s="100" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="100" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="91">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="98">
         <v>4</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91">
+      <c r="I28" s="98"/>
+      <c r="J28" s="98">
         <v>4</v>
       </c>
-      <c r="K28" s="91"/>
-      <c r="L28" s="94" t="s">
+      <c r="K28" s="98"/>
+      <c r="L28" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="100" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="91">
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="98">
         <v>8</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91">
+      <c r="I29" s="98"/>
+      <c r="J29" s="98">
         <v>8</v>
       </c>
-      <c r="K29" s="91"/>
-      <c r="L29" s="94" t="s">
+      <c r="K29" s="98"/>
+      <c r="L29" s="100" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="96">
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="99">
         <v>8</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99">
         <v>4</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="94" t="s">
+      <c r="K30" s="99"/>
+      <c r="L30" s="100" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="94"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="100" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="96">
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="99">
         <v>8</v>
       </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96">
+      <c r="I31" s="99"/>
+      <c r="J31" s="99">
         <v>4</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="94" t="s">
+      <c r="K31" s="99"/>
+      <c r="L31" s="100" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="94"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="91">
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="98">
         <v>4</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91">
+      <c r="I32" s="98"/>
+      <c r="J32" s="98">
         <v>4</v>
       </c>
-      <c r="K32" s="91"/>
-      <c r="L32" s="94" t="s">
+      <c r="K32" s="98"/>
+      <c r="L32" s="100" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="100" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="91">
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="98">
         <v>8</v>
       </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91">
+      <c r="I33" s="98"/>
+      <c r="J33" s="98">
         <v>8</v>
       </c>
-      <c r="K33" s="91"/>
-      <c r="L33" s="94" t="s">
+      <c r="K33" s="98"/>
+      <c r="L33" s="100" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="100" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="91">
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="98">
         <v>8</v>
       </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91">
+      <c r="I34" s="98"/>
+      <c r="J34" s="98">
         <v>8</v>
       </c>
-      <c r="K34" s="91"/>
-      <c r="L34" s="94" t="s">
+      <c r="K34" s="98"/>
+      <c r="L34" s="100" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="100" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="96">
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="99">
         <v>8</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96">
+      <c r="I35" s="99"/>
+      <c r="J35" s="99">
         <v>4</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="94" t="s">
+      <c r="K35" s="99"/>
+      <c r="L35" s="100" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L25:AE25"/>
+    <mergeCell ref="L24:AE24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L35:AE35"/>
+    <mergeCell ref="L27:AE27"/>
+    <mergeCell ref="L26:AE26"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L31:AE31"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L30:AE30"/>
+    <mergeCell ref="L32:AE32"/>
+    <mergeCell ref="L28:AE28"/>
+    <mergeCell ref="L33:AE33"/>
+    <mergeCell ref="L34:AE34"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="L29:AE29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
@@ -11342,62 +13420,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L31:AE31"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L30:AE30"/>
-    <mergeCell ref="L32:AE32"/>
-    <mergeCell ref="L28:AE28"/>
-    <mergeCell ref="L33:AE33"/>
-    <mergeCell ref="L34:AE34"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="L29:AE29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L35:AE35"/>
-    <mergeCell ref="L27:AE27"/>
-    <mergeCell ref="L26:AE26"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L25:AE25"/>
-    <mergeCell ref="L24:AE24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11716,6 +13743,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="89" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="89" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11751,7 +13837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K146"/>
   <sheetViews>
@@ -12534,7 +14620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M180"/>
   <sheetViews>
@@ -14753,7 +16839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I197"/>
   <sheetViews>
@@ -15782,7 +17868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -15835,1690 +17921,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T168"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G1" t="s">
-        <v>855</v>
-      </c>
-      <c r="H1">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H2">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40" t="s">
-        <v>743</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41" t="s">
-        <v>705</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="41" t="s">
-        <v>707</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39" t="s">
-        <v>767</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
-        <v>765</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39" t="s">
-        <v>768</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39" t="s">
-        <v>766</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
-        <v>709</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39" t="s">
-        <v>710</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39" t="s">
-        <v>712</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39" t="s">
-        <v>713</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39" t="s">
-        <v>714</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="41" t="s">
-        <v>715</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39">
-        <v>955</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="41" t="s">
-        <v>718</v>
-      </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39">
-        <v>960</v>
-      </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39" t="s">
-        <v>721</v>
-      </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="41" t="s">
-        <v>722</v>
-      </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39" t="s">
-        <v>723</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39" t="s">
-        <v>724</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39" t="s">
-        <v>726</v>
-      </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39">
-        <v>981</v>
-      </c>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39" t="s">
-        <v>729</v>
-      </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39" t="s">
-        <v>732</v>
-      </c>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39" t="s">
-        <v>553</v>
-      </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="41" t="s">
-        <v>733</v>
-      </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39" t="s">
-        <v>738</v>
-      </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39" t="s">
-        <v>741</v>
-      </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="41" t="s">
-        <v>747</v>
-      </c>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39">
-        <v>3675</v>
-      </c>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="41" t="s">
-        <v>760</v>
-      </c>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39" t="s">
-        <v>761</v>
-      </c>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="41" t="s">
-        <v>760</v>
-      </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39" t="s">
-        <v>761</v>
-      </c>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="44" t="s">
-        <v>763</v>
-      </c>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="44" t="s">
-        <v>764</v>
-      </c>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="45">
-        <v>572</v>
-      </c>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="43" t="s">
-        <v>769</v>
-      </c>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-    </row>
-    <row r="113" spans="2:15">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-    </row>
-    <row r="114" spans="2:15">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="49" t="s">
-        <v>770</v>
-      </c>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-    </row>
-    <row r="115" spans="2:15">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39" t="s">
-        <v>771</v>
-      </c>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-    </row>
-    <row r="116" spans="2:15">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39" t="s">
-        <v>772</v>
-      </c>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-    </row>
-    <row r="117" spans="2:15">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39" t="s">
-        <v>773</v>
-      </c>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-    </row>
-    <row r="118" spans="2:15">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39" t="s">
-        <v>774</v>
-      </c>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-    </row>
-    <row r="119" spans="2:15">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="45">
-        <v>5158</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-    </row>
-    <row r="120" spans="2:15">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39" t="s">
-        <v>775</v>
-      </c>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-    </row>
-    <row r="121" spans="2:15">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-    </row>
-    <row r="122" spans="2:15">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-    </row>
-    <row r="123" spans="2:15">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-    </row>
-    <row r="124" spans="2:15">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-    </row>
-    <row r="125" spans="2:15">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-    </row>
-    <row r="126" spans="2:15">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-    </row>
-    <row r="127" spans="2:15">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="O127" s="48"/>
-    </row>
-    <row r="128" spans="2:15">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-    </row>
-    <row r="129" spans="2:20">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="F129" s="46"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-    </row>
-    <row r="130" spans="2:20">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="F130" s="46"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-    </row>
-    <row r="131" spans="2:20">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="47" t="s">
-        <v>809</v>
-      </c>
-      <c r="F131" s="47"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-    </row>
-    <row r="132" spans="2:20">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="47" t="s">
-        <v>810</v>
-      </c>
-      <c r="F132" s="47"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="T132" s="48"/>
-    </row>
-    <row r="133" spans="2:20">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-    </row>
-    <row r="134" spans="2:20">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
-    </row>
-    <row r="135" spans="2:20">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="F135" s="47"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="39"/>
-    </row>
-    <row r="136" spans="2:20">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="47" t="s">
-        <v>812</v>
-      </c>
-      <c r="F136" s="47"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-    </row>
-    <row r="137" spans="2:20">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="47" t="s">
-        <v>813</v>
-      </c>
-      <c r="F137" s="47"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
-    </row>
-    <row r="138" spans="2:20">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="47" t="s">
-        <v>814</v>
-      </c>
-      <c r="F138" s="47"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
-    </row>
-    <row r="139" spans="2:20">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
-    </row>
-    <row r="140" spans="2:20">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-    </row>
-    <row r="141" spans="2:20">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
-    </row>
-    <row r="142" spans="2:20">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39" t="s">
-        <v>779</v>
-      </c>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-    </row>
-    <row r="143" spans="2:20">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
-    </row>
-    <row r="144" spans="2:20">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39" t="s">
-        <v>781</v>
-      </c>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-    </row>
-    <row r="145" spans="2:18">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39" t="s">
-        <v>782</v>
-      </c>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
-    </row>
-    <row r="146" spans="2:18">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
-    </row>
-    <row r="147" spans="2:18">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39"/>
-    </row>
-    <row r="148" spans="2:18">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39" t="s">
-        <v>784</v>
-      </c>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
-    </row>
-    <row r="149" spans="2:18">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="G149" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="H149" s="39"/>
-      <c r="I149" s="39"/>
-      <c r="J149" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="150" spans="2:18">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="G150" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="H150" s="39"/>
-      <c r="I150" s="39"/>
-      <c r="J150" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="151" spans="2:18">
-      <c r="E151" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="153" spans="2:18">
-      <c r="E153" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="154" spans="2:18">
-      <c r="E154" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="155" spans="2:18">
-      <c r="E155" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="156" spans="2:18">
-      <c r="F156" t="s">
-        <v>793</v>
-      </c>
-      <c r="R156" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="157" spans="2:18">
-      <c r="F157" t="s">
-        <v>795</v>
-      </c>
-      <c r="N157" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="158" spans="2:18">
-      <c r="F158" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="159" spans="2:18">
-      <c r="F159" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="160" spans="2:18">
-      <c r="F160" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="162" spans="5:11">
-      <c r="F162" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="163" spans="5:11">
-      <c r="F163" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="164" spans="5:11">
-      <c r="F164" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="166" spans="5:11">
-      <c r="E166" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="167" spans="5:11">
-      <c r="F167" t="s">
-        <v>804</v>
-      </c>
-      <c r="G167" t="s">
-        <v>805</v>
-      </c>
-      <c r="K167" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="168" spans="5:11">
-      <c r="E168" t="s">
-        <v>790</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId8"/>
     <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId9"/>
     <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId10"/>
-    <sheet name="ARM8Soc_Inves" sheetId="20" state="hidden" r:id="rId11"/>
+    <sheet name="ARM8Soc_Inves" sheetId="20" r:id="rId11"/>
     <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId12"/>
     <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId13"/>
     <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId14"/>
     <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId15"/>
-    <sheet name="Sparrow_No22_No23" sheetId="25" r:id="rId16"/>
-    <sheet name="Eagle_No.103" sheetId="26" r:id="rId17"/>
+    <sheet name="Sparrow_No22_No23" sheetId="25" state="hidden" r:id="rId16"/>
+    <sheet name="Eagle_No.103" sheetId="26" state="hidden" r:id="rId17"/>
     <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1315">
   <si>
     <t>APIC_MailSendSetting</t>
   </si>
@@ -5302,6 +5302,20 @@
   </si>
   <si>
     <t>Find machine_type QT_Version</t>
+  </si>
+  <si>
+    <t>./api/jobspec/inc/typs_cpp_jobspec_common.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5023 // 2017.7.25 IT5_4.2 RQ-686 複合機の複数ネットワーク対応 s.yagi Start.
+ 5024 //概要　　：ネットワーク指定.
+ 5025 typedef uchar TYPE_NetworkSpecific;
+ 5026     #define TYPE_NetworkSpecific_NW1        0       ///&lt; ネットワーク1.
+ 5027     #define TYPE_NetworkSpecific_NW2        1       ///&lt; ネットワーク2.
+ 5028     #define TYPE_NetworkSpecific_MAX        2       ///&lt; 最大値.
+ 5029     #define TYPE_NetworkSpecific_ALL        254     ///&lt; 全ネットワーク指定.
+ 5030     #define TYPE_NetworkSpecific_NONE       255     ///&lt; 未指定.
+ 5031 // 2017.7.25 IT5_4.2 RQ-686 複合機の複数ネットワーク対応 s.yagi End.</t>
   </si>
 </sst>
 </file>
@@ -5653,6 +5667,8 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6291,19 +6307,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6313,13 +6317,13 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6333,8 +6337,20 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6650,10 +6666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6923,6 +6939,14 @@
       </c>
       <c r="C43" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="240">
+      <c r="A47" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -8625,7 +8649,7 @@
   <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8676,7 +8700,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11226,7 +11250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
@@ -11609,7 +11633,7 @@
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12388,147 +12412,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="103" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="96" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
-        <v>1</v>
-      </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98">
-        <v>1</v>
-      </c>
-      <c r="H3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="91">
+        <v>1</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91">
+        <v>1</v>
+      </c>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="98">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="91">
         <v>2</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91">
         <v>2</v>
       </c>
-      <c r="H4" s="98"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="101" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="98">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="91">
         <v>4</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91">
         <v>4</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="99">
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="96">
         <v>8</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="98">
+      <c r="F6" s="96"/>
+      <c r="G6" s="91">
         <v>4</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="101" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="98">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="91">
         <v>8</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91">
         <v>8</v>
       </c>
-      <c r="H7" s="98"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="98">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="91">
         <v>4</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98">
+      <c r="F8" s="91"/>
+      <c r="G8" s="91">
         <v>4</v>
       </c>
-      <c r="H8" s="98"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="101" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="98">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="91">
         <v>8</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91">
         <v>8</v>
       </c>
-      <c r="H9" s="98"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="101" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="99">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="96">
         <v>8</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98">
+      <c r="F10" s="96"/>
+      <c r="G10" s="91">
         <v>4</v>
       </c>
-      <c r="H10" s="98"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -12821,12 +12845,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="101" t="s">
+      <c r="H23" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -12849,512 +12873,559 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="96" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="96" t="s">
+      <c r="I24" s="93"/>
+      <c r="J24" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="105" t="s">
+      <c r="K24" s="93"/>
+      <c r="L24" s="95" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="98">
-        <v>1</v>
-      </c>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98">
-        <v>1</v>
-      </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="100" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="91">
+        <v>1</v>
+      </c>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91">
+        <v>1</v>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="94" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="100"/>
-      <c r="AE25" s="100"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="98">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="91">
         <v>2</v>
       </c>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98">
+      <c r="I26" s="91"/>
+      <c r="J26" s="91">
         <v>2</v>
       </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="100" t="s">
+      <c r="K26" s="91"/>
+      <c r="L26" s="94" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="100"/>
-      <c r="AE26" s="100"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="94" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="98">
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="91">
         <v>4</v>
       </c>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98">
+      <c r="I27" s="91"/>
+      <c r="J27" s="91">
         <v>4</v>
       </c>
-      <c r="K27" s="98"/>
-      <c r="L27" s="100" t="s">
+      <c r="K27" s="91"/>
+      <c r="L27" s="94" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="98">
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="91">
         <v>4</v>
       </c>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98">
+      <c r="I28" s="91"/>
+      <c r="J28" s="91">
         <v>4</v>
       </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="100" t="s">
+      <c r="K28" s="91"/>
+      <c r="L28" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="98">
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="91">
         <v>8</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98">
+      <c r="I29" s="91"/>
+      <c r="J29" s="91">
         <v>8</v>
       </c>
-      <c r="K29" s="98"/>
-      <c r="L29" s="100" t="s">
+      <c r="K29" s="91"/>
+      <c r="L29" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="100"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="99">
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="96">
         <v>8</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99">
+      <c r="I30" s="96"/>
+      <c r="J30" s="96">
         <v>4</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="100" t="s">
+      <c r="K30" s="96"/>
+      <c r="L30" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="99">
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="96">
         <v>8</v>
       </c>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99">
+      <c r="I31" s="96"/>
+      <c r="J31" s="96">
         <v>4</v>
       </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="100" t="s">
+      <c r="K31" s="96"/>
+      <c r="L31" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="98">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="91">
         <v>4</v>
       </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98">
+      <c r="I32" s="91"/>
+      <c r="J32" s="91">
         <v>4</v>
       </c>
-      <c r="K32" s="98"/>
-      <c r="L32" s="100" t="s">
+      <c r="K32" s="91"/>
+      <c r="L32" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="100"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="94" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="98">
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="91">
         <v>8</v>
       </c>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98">
+      <c r="I33" s="91"/>
+      <c r="J33" s="91">
         <v>8</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="100" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="98">
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="91">
         <v>8</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98">
+      <c r="I34" s="91"/>
+      <c r="J34" s="91">
         <v>8</v>
       </c>
-      <c r="K34" s="98"/>
-      <c r="L34" s="100" t="s">
+      <c r="K34" s="91"/>
+      <c r="L34" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="100"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="99">
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="96">
         <v>8</v>
       </c>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99">
+      <c r="I35" s="96"/>
+      <c r="J35" s="96">
         <v>4</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100" t="s">
+      <c r="K35" s="96"/>
+      <c r="L35" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L25:AE25"/>
-    <mergeCell ref="L24:AE24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L31:AE31"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L30:AE30"/>
+    <mergeCell ref="L32:AE32"/>
+    <mergeCell ref="L28:AE28"/>
+    <mergeCell ref="L33:AE33"/>
+    <mergeCell ref="L34:AE34"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="L29:AE29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="L35:AE35"/>
     <mergeCell ref="L27:AE27"/>
     <mergeCell ref="L26:AE26"/>
@@ -13371,60 +13442,13 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L31:AE31"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L30:AE30"/>
-    <mergeCell ref="L32:AE32"/>
-    <mergeCell ref="L28:AE28"/>
-    <mergeCell ref="L33:AE33"/>
-    <mergeCell ref="L34:AE34"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="L29:AE29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L25:AE25"/>
+    <mergeCell ref="L24:AE24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13745,8 +13769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -9,27 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
     <sheet name="Data length" sheetId="16" state="hidden" r:id="rId2"/>
     <sheet name="gdb" sheetId="8" r:id="rId3"/>
-    <sheet name="Direction_MFP" sheetId="28" r:id="rId4"/>
-    <sheet name="git" sheetId="19" r:id="rId5"/>
-    <sheet name="BackupNVRam_Investigate" sheetId="13" state="hidden" r:id="rId6"/>
-    <sheet name="BackupNVRam_Solution" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId8"/>
-    <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId9"/>
-    <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId10"/>
-    <sheet name="ARM8Soc_Inves" sheetId="20" r:id="rId11"/>
-    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId12"/>
-    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId13"/>
-    <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId14"/>
-    <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId15"/>
-    <sheet name="Sparrow_No22_No23" sheetId="25" state="hidden" r:id="rId16"/>
-    <sheet name="Eagle_No.103" sheetId="26" state="hidden" r:id="rId17"/>
-    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId18"/>
+    <sheet name="DEFINE_SIMULATOR" sheetId="30" r:id="rId4"/>
+    <sheet name="Direction_MFP" sheetId="28" r:id="rId5"/>
+    <sheet name="git" sheetId="19" r:id="rId6"/>
+    <sheet name="BackupNVRam_Investigate" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="BackupNVRam_Solution" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="No56_MediaMapFile" sheetId="15" state="hidden" r:id="rId9"/>
+    <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId10"/>
+    <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId11"/>
+    <sheet name="ARM8Soc_Inves" sheetId="20" r:id="rId12"/>
+    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId13"/>
+    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId14"/>
+    <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId15"/>
+    <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId16"/>
+    <sheet name="Sparrow_No22_No23" sheetId="25" state="hidden" r:id="rId17"/>
+    <sheet name="Eagle_No.103" sheetId="26" state="hidden" r:id="rId18"/>
+    <sheet name="HDD_Data_Backup" sheetId="27" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,8 +42,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Le Nam</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le Nam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Can swap each others.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1431">
   <si>
     <t>APIC_MailSendSetting</t>
   </si>
@@ -3298,13 +3334,7 @@
     <t>set sysroot</t>
   </si>
   <si>
-    <t>Create a new terminal</t>
-  </si>
-  <si>
     <t>pidof apf000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attach </t>
   </si>
   <si>
     <t>c&amp;</t>
@@ -5317,6 +5347,377 @@
  5030     #define TYPE_NetworkSpecific_NONE       255     ///&lt; 未指定.
  5031 // 2017.7.25 IT5_4.2 RQ-686 複合機の複数ネットワーク対応 s.yagi End.</t>
   </si>
+  <si>
+    <t>APIC_IWSAppInfo::getApplication()</t>
+  </si>
+  <si>
+    <t>APIC_IWSLicenseInfo::getSolutionKey()</t>
+  </si>
+  <si>
+    <t>APIC_SystemStatus::getAdminLoginMode()</t>
+  </si>
+  <si>
+    <t>APIC_DefaultPanelSetting::getDefaultPanelSetting()</t>
+  </si>
+  <si>
+    <t>APIC_ExtSetting::getBrowserAgent()</t>
+  </si>
+  <si>
+    <t>APIC_ExtSetting::getFuncLimitDataComEnable()</t>
+  </si>
+  <si>
+    <t>TYPC_ExtAplDetail::getAuthentication()</t>
+  </si>
+  <si>
+    <t>APIC_AppInfoSetting::getAppBasic()</t>
+  </si>
+  <si>
+    <t>APIC_SystemSetting::getWeeklyTimer()</t>
+  </si>
+  <si>
+    <t>NVDF_getHddExist</t>
+  </si>
+  <si>
+    <t>SYSF_NotifyWakeupCB</t>
+  </si>
+  <si>
+    <t>SYSF_WdCreateCB</t>
+  </si>
+  <si>
+    <t>NVDF_getNetworkErrorCnt</t>
+  </si>
+  <si>
+    <t>NVDF_getNetworkErrorCntMainCode</t>
+  </si>
+  <si>
+    <t>SYSF_getSerialNoPrinter</t>
+  </si>
+  <si>
+    <t>APIC_MachineSetting::setUsbKbdLED()</t>
+  </si>
+  <si>
+    <t>APIC_IWSLicenseInfo::getMacAddress()</t>
+  </si>
+  <si>
+    <t>APIC_IWSLicenseInfo::getSerialNo()</t>
+  </si>
+  <si>
+    <t>APIC_SystemSetting::getSystemTime().getTime()</t>
+  </si>
+  <si>
+    <t>APIC_SystemInfo::getFuncVer2</t>
+  </si>
+  <si>
+    <t>int SYSC_IWSAppInfo::getApplication(int index, TYPS_IwsAppInfo&amp; appInfo,TYPE_IWSMarketPlaceAppType* e_IWSMarketPlaceAppType) const</t>
+  </si>
+  <si>
+    <t>int SYSC_IWSAppInfo::getApplication(const char* appID, TYPS_IwsAppInfo&amp; appInfo,TYPE_IWSMarketPlaceAppType* e_IWSMarketPlaceAppType) const</t>
+  </si>
+  <si>
+    <t>int SYSC_IWSLicenseInfo::getMacAddress(char* address) const</t>
+  </si>
+  <si>
+    <t>int SYSC_IWSLicenseInfo::getSerialNo(char* serial) const</t>
+  </si>
+  <si>
+    <t>int SYSC_IWSLicenseInfo::getSolutionKey(const char* appID, char* key)</t>
+  </si>
+  <si>
+    <t>TYPC_WeeklyTimer NVDC_SystemSetting::getWeeklyTimer()</t>
+  </si>
+  <si>
+    <t>TYPE_AdminLoginMode SYSC_SystemStatus::getAdminLoginMode()</t>
+  </si>
+  <si>
+    <t>TYPE_DefaultPanelSetting NVDC_DefaultPanelSetting::getDefaultPanelSetting()</t>
+  </si>
+  <si>
+    <t>Bool NVDC_ExtSetting::getBrowserAgent(char* psc_BrowserAgent)</t>
+  </si>
+  <si>
+    <t>Bool NVDC_ExtSetting::getFuncLimitDataComEnable(short aplNo)</t>
+  </si>
+  <si>
+    <t>TYPS_ExtDetailAuthentication* TYPC_ExtAplDetail::getAuthentication()</t>
+  </si>
+  <si>
+    <t>TYPS_AppBasic NVDC_AppInfoSetting::getAppBasic()</t>
+  </si>
+  <si>
+    <t>int32_t NVDF_getHddExist()</t>
+  </si>
+  <si>
+    <t>TYPE_FuncVer SYSC_SystemInfo::getFuncVer2()</t>
+  </si>
+  <si>
+    <t>void NVDC_MachineSetting::setUsbKbdLED( TYPE_KEYBDLED_INFO e_KeyBdLED, Bool b_LEDSwitch )</t>
+  </si>
+  <si>
+    <t>TYPC_Time NVDC_SystemSetting::getSystemTime()</t>
+  </si>
+  <si>
+    <t>divlib/client/Proxy/system/nvd/nvdg/NVDC_Setting.cpp</t>
+  </si>
+  <si>
+    <t>divlib/client/Proxy/system/sys/sysg/SYSC_IWSAppInfo.cpp</t>
+  </si>
+  <si>
+    <t>Terminal 1</t>
+  </si>
+  <si>
+    <t>Terminal 3</t>
+  </si>
+  <si>
+    <t>Terminal 2</t>
+  </si>
+  <si>
+    <t>set unwindonsignal on</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>Spec of compile SW related to SimLin</t>
+  </si>
+  <si>
+    <t>Arrange for spec and way to use in IT5/IT6 and for compile SW related to Simlin.</t>
+  </si>
+  <si>
+    <t>Term explanation</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>SimWin</t>
+  </si>
+  <si>
+    <t>Simulator that is being used for IT3 period. It is simulating MFP only by Windows. IT5 or later is unused.</t>
+  </si>
+  <si>
+    <t>New SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator that was developed from IT4. For GUI part, it is performed by Windows side's peripheral SIM, and operation of machine FW is performed by Linux on virtual machine. </t>
+  </si>
+  <si>
+    <t>SimLin</t>
+  </si>
+  <si>
+    <t>Indicate new SIM. Common name was changed from IT5 generation because it is hard to understand with new SIM.</t>
+  </si>
+  <si>
+    <t>Type &amp; meaning</t>
+  </si>
+  <si>
+    <t>Representative items are listed. (There is similar SW other than this, but I want to unify as much as possible from now on )</t>
+  </si>
+  <si>
+    <t>Compile SW Name</t>
+  </si>
+  <si>
+    <t>Future plan</t>
+  </si>
+  <si>
+    <t>TORNADO</t>
+  </si>
+  <si>
+    <t>It is originally the processing specific to the actual machine at time of SimWin build.</t>
+  </si>
+  <si>
+    <t>Plan for abolition. In IT5/ IT6, it has NO meaning because it is valid in both SimLin and actual machine.</t>
+  </si>
+  <si>
+    <t>But in IT5/ IT6, it is valid in both actual machine and SimLin, so there is NO longer any meaning.</t>
+  </si>
+  <si>
+    <t>SIMULATOR</t>
+  </si>
+  <si>
+    <t>It is originally the processing specific to SimWin at time of SimWin build.</t>
+  </si>
+  <si>
+    <t>Plan: Abolish [SIMULATOR], and change to [FUM_LIUX] temporarily for SimLin-specific.</t>
+  </si>
+  <si>
+    <t>It should be abolished; but in IT5/ IT6, SimLin-specific processing is also surrounded by this.</t>
+  </si>
+  <si>
+    <t>FUM_LINUX</t>
+  </si>
+  <si>
+    <t>It is the processing specific to SimLin.</t>
+  </si>
+  <si>
+    <t>[FUM_LINUX] is hard to understand, so plan to review for another name in the future.</t>
+  </si>
+  <si>
+    <t>It was added when ported from SimWin to SimLin in the past.</t>
+  </si>
+  <si>
+    <t>Valid/ Invalid state by building environment</t>
+  </si>
+  <si>
+    <t>In IT5/ IT6, there is NO SimWin build, so NOT need to consider; and [TORNADO] is valid in both actual machine and SimLin, so it has NO meaning as SW.</t>
+  </si>
+  <si>
+    <t>Compile SW and building method</t>
+  </si>
+  <si>
+    <t>Actual machine</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Give applicable case, and explain meaning and usage of compile SW in IT5/IT6.</t>
+  </si>
+  <si>
+    <t>Applicable case list</t>
+  </si>
+  <si>
+    <t>Correct usage</t>
+  </si>
+  <si>
+    <t>It is correct when using [FUM_LINUX] and judging SimLin processing in IT5/ IT6.</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>The example of use</t>
+  </si>
+  <si>
+    <t>Supplementary explanation</t>
+  </si>
+  <si>
+    <t>OK1</t>
+  </si>
+  <si>
+    <t>SimLin specific (SimLin only)</t>
+  </si>
+  <si>
+    <t>#ifdef FUM_LINUX ～ #endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/F existing only in SimLin. Processing required for simulation.</t>
+  </si>
+  <si>
+    <t>OK2</t>
+  </si>
+  <si>
+    <t>Actual machine specific (NOT in SimLin)</t>
+  </si>
+  <si>
+    <t>#ifndef FUM_LINUX ～ #endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Processing which covers I/ F for actual machine which is NOT existing in SimLin. Even when that I/F is provided in SimLin, then it is possible to delete that I/F.</t>
+  </si>
+  <si>
+    <t>Wrong usage (example which needs to be improved)</t>
+  </si>
+  <si>
+    <t>In IT5/IT6, it may be wrong when using [TORNADO] or [SIMULATOR] and judging SimLin processing.</t>
+  </si>
+  <si>
+    <r>
+      <t>The example of use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (*1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Proposed amendment</t>
+  </si>
+  <si>
+    <t>NG1</t>
+  </si>
+  <si>
+    <t>Valid in SimWin only</t>
+  </si>
+  <si>
+    <t>#if (defined SIMULATOR) &amp;&amp; (!defined FUM_LINUX) ～ #endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Because there is NO SimWin build in IT5/IT6, it is needed to confirm dead code and delete for each surrounded processing.</t>
+  </si>
+  <si>
+    <t>NG2</t>
+  </si>
+  <si>
+    <t>Valid both in actual machine and SimLin</t>
+  </si>
+  <si>
+    <t>#ifdef TORNADO ～ #endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This condition alone is valid even in SimLin, it has NO meaning, so should delete only this compile SW line (#ifdef and #endif).</t>
+  </si>
+  <si>
+    <t>NG3</t>
+  </si>
+  <si>
+    <t>Valid in actual machine only</t>
+  </si>
+  <si>
+    <t>#if (defined TORNADO) &amp;&amp; (!defined FUM_LINUX) ～ #endif</t>
+  </si>
+  <si>
+    <t>AND of [TORNADO] has NO meaning, so should correct it to OK2.</t>
+  </si>
+  <si>
+    <t>NG4</t>
+  </si>
+  <si>
+    <t>Valid both in SimWin and SimLin</t>
+  </si>
+  <si>
+    <t>#ifdef SIMULATOR ～ #endif</t>
+  </si>
+  <si>
+    <t>Because it is valid even in SimLin, there is NO problem with condition; but because it is different from original meaning, so should correct it to OK1.</t>
+  </si>
+  <si>
+    <t>NG5</t>
+  </si>
+  <si>
+    <t>Actual machine specific in SimWin-specific file</t>
+  </si>
+  <si>
+    <t>#ifndef SIMULATOR ～ #endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Because it is invalid even in SimLin, there is NO problem with condition; but because it is different from original meaning, so should correct it to OK2.</t>
+  </si>
+  <si>
+    <t>*1) Because NG cases can be out of example, so when you are in doubt as to apply which NG case, then distinguish by content of column [条件] (Condition).</t>
+  </si>
 </sst>
 </file>
 
@@ -5328,7 +5729,7 @@
     <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5814,8 +6215,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5874,8 +6310,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -5996,6 +6444,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6053,7 +6637,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6307,6 +6891,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6357,6 +6971,153 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -6668,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -6943,10 +7704,10 @@
     </row>
     <row r="47" spans="1:10" ht="240">
       <c r="A47" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -6959,6 +7720,61 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
@@ -6980,7 +7796,7 @@
         <v>702</v>
       </c>
       <c r="G1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H1">
         <v>556</v>
@@ -6991,7 +7807,7 @@
         <v>704</v>
       </c>
       <c r="G2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H2">
         <v>605</v>
@@ -7004,107 +7820,107 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -8644,7 +9460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D12"/>
   <sheetViews>
@@ -8656,37 +9472,37 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +9511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -8711,31 +9527,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="I3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8745,55 +9561,55 @@
     </row>
     <row r="6" spans="1:9">
       <c r="C6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -8802,7 +9618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
@@ -8818,306 +9634,306 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="59" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="D21" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="D23" s="20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="D25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="D26" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="59" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C30" s="57"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="57"/>
       <c r="C31" s="57" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="57"/>
       <c r="C32" s="57" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="57"/>
       <c r="C33" s="57" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="57"/>
       <c r="C34" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="57"/>
       <c r="C36" s="58" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="57"/>
       <c r="C38" s="58" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="57"/>
       <c r="C39" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="57"/>
       <c r="C40" s="57" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="57"/>
       <c r="C42" s="58" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="57"/>
       <c r="C43" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="C44" s="57" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" s="57" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" s="57" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="60" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="58" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="57" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="57" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="60" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="58" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="57" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="57" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="61" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="60" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="58" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="57" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="57" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="60" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" s="58" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="C67" s="57" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" s="57" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="C69" s="57" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="C70" s="57" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="C71" s="57" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="C72" s="57" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" s="57" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="C74" s="60" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="C76" s="57" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -9127,52 +9943,52 @@
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="81" spans="2:12">
       <c r="C81" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="82" spans="2:12">
       <c r="C82" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="B84" s="59" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="85" spans="2:12">
       <c r="B85" s="20"/>
       <c r="C85" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="86" spans="2:12">
       <c r="B86" s="20"/>
       <c r="C86" s="70"/>
       <c r="D86" s="66" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E86" s="66" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F86" s="66" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="87" spans="2:12">
       <c r="B87" s="20"/>
       <c r="C87" s="66" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D87" s="67">
         <v>1</v>
@@ -9187,7 +10003,7 @@
     <row r="88" spans="2:12">
       <c r="B88" s="20"/>
       <c r="C88" s="66" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D88" s="67">
         <v>1</v>
@@ -9207,30 +10023,30 @@
         <v>1</v>
       </c>
       <c r="D90" s="71" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E90" s="72"/>
       <c r="F90" s="72"/>
     </row>
     <row r="91" spans="2:12">
       <c r="C91" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D91" s="62" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="C92" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D92" s="62" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="93" spans="2:12">
       <c r="E93" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F93" s="73"/>
       <c r="G93" s="73"/>
@@ -9242,7 +10058,7 @@
     </row>
     <row r="94" spans="2:12">
       <c r="E94" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F94" s="73"/>
       <c r="G94" s="73"/>
@@ -9254,7 +10070,7 @@
     </row>
     <row r="95" spans="2:12">
       <c r="E95" s="74" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F95" s="73"/>
       <c r="G95" s="73"/>
@@ -9266,7 +10082,7 @@
     </row>
     <row r="96" spans="2:12">
       <c r="E96" s="74" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F96" s="73"/>
       <c r="G96" s="73"/>
@@ -9278,7 +10094,7 @@
     </row>
     <row r="97" spans="3:12">
       <c r="E97" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F97" s="73"/>
       <c r="G97" s="73"/>
@@ -9293,7 +10109,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="71" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E99" s="72"/>
       <c r="F99" s="72"/>
@@ -9302,16 +10118,16 @@
     </row>
     <row r="100" spans="3:12">
       <c r="C100" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="101" spans="3:12">
       <c r="D101" s="62"/>
       <c r="E101" s="73" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F101" s="73"/>
       <c r="G101" s="73"/>
@@ -9324,7 +10140,7 @@
     <row r="102" spans="3:12">
       <c r="D102" s="62"/>
       <c r="E102" s="73" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F102" s="73"/>
       <c r="G102" s="73"/>
@@ -9337,7 +10153,7 @@
     <row r="103" spans="3:12">
       <c r="D103" s="62"/>
       <c r="E103" s="74" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F103" s="73"/>
       <c r="G103" s="73"/>
@@ -9350,7 +10166,7 @@
     <row r="104" spans="3:12">
       <c r="D104" s="62"/>
       <c r="E104" s="73" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F104" s="73"/>
       <c r="G104" s="73"/>
@@ -9362,16 +10178,16 @@
     </row>
     <row r="105" spans="3:12">
       <c r="C105" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D105" s="62" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="106" spans="3:12">
       <c r="D106" s="62"/>
       <c r="E106" s="73" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F106" s="73"/>
       <c r="G106" s="73"/>
@@ -9384,7 +10200,7 @@
     <row r="107" spans="3:12">
       <c r="D107" s="62"/>
       <c r="E107" s="73" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F107" s="73"/>
       <c r="G107" s="73"/>
@@ -9397,7 +10213,7 @@
     <row r="108" spans="3:12">
       <c r="D108" s="62"/>
       <c r="E108" s="74" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F108" s="73"/>
       <c r="G108" s="73"/>
@@ -9410,7 +10226,7 @@
     <row r="109" spans="3:12">
       <c r="D109" s="62"/>
       <c r="E109" s="74" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F109" s="73"/>
       <c r="G109" s="73"/>
@@ -9423,7 +10239,7 @@
     <row r="110" spans="3:12">
       <c r="D110" s="62"/>
       <c r="E110" s="73" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F110" s="73"/>
       <c r="G110" s="73"/>
@@ -9435,16 +10251,16 @@
     </row>
     <row r="111" spans="3:12">
       <c r="C111" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D111" s="62" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="112" spans="3:12">
       <c r="D112" s="62"/>
       <c r="E112" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F112" s="73"/>
       <c r="G112" s="73"/>
@@ -9457,7 +10273,7 @@
     <row r="113" spans="3:12">
       <c r="D113" s="62"/>
       <c r="E113" s="73" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F113" s="73"/>
       <c r="G113" s="73"/>
@@ -9470,7 +10286,7 @@
     <row r="114" spans="3:12">
       <c r="D114" s="62"/>
       <c r="E114" s="74" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F114" s="73"/>
       <c r="G114" s="73"/>
@@ -9483,7 +10299,7 @@
     <row r="115" spans="3:12">
       <c r="D115" s="62"/>
       <c r="E115" s="74" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F115" s="73"/>
       <c r="G115" s="73"/>
@@ -9496,7 +10312,7 @@
     <row r="116" spans="3:12">
       <c r="D116" s="62"/>
       <c r="E116" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F116" s="73"/>
       <c r="G116" s="73"/>
@@ -9508,16 +10324,16 @@
     </row>
     <row r="117" spans="3:12">
       <c r="C117" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D117" s="62" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="118" spans="3:12">
       <c r="D118" s="62"/>
       <c r="E118" s="73" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F118" s="73"/>
       <c r="G118" s="73"/>
@@ -9530,7 +10346,7 @@
     <row r="119" spans="3:12">
       <c r="D119" s="62"/>
       <c r="E119" s="74" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F119" s="74"/>
       <c r="G119" s="73"/>
@@ -9543,7 +10359,7 @@
     <row r="120" spans="3:12">
       <c r="D120" s="62"/>
       <c r="E120" s="74" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F120" s="74"/>
       <c r="G120" s="73"/>
@@ -9556,7 +10372,7 @@
     <row r="121" spans="3:12">
       <c r="D121" s="62"/>
       <c r="E121" s="74" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F121" s="74"/>
       <c r="G121" s="73"/>
@@ -9569,7 +10385,7 @@
     <row r="122" spans="3:12">
       <c r="D122" s="62"/>
       <c r="E122" s="74" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F122" s="74"/>
       <c r="G122" s="73"/>
@@ -9582,7 +10398,7 @@
     <row r="123" spans="3:12">
       <c r="D123" s="62"/>
       <c r="E123" s="74" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F123" s="74"/>
       <c r="G123" s="73"/>
@@ -9595,7 +10411,7 @@
     <row r="124" spans="3:12">
       <c r="D124" s="62"/>
       <c r="E124" s="74" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F124" s="74"/>
       <c r="G124" s="73"/>
@@ -9608,7 +10424,7 @@
     <row r="125" spans="3:12">
       <c r="D125" s="62"/>
       <c r="E125" s="73" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F125" s="73"/>
       <c r="G125" s="73"/>
@@ -9623,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="D126" s="71" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E126" s="72"/>
       <c r="F126" s="72"/>
@@ -9634,16 +10450,16 @@
     </row>
     <row r="127" spans="3:12">
       <c r="C127" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D127" s="62" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="128" spans="3:12">
       <c r="D128" s="62"/>
       <c r="E128" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F128" s="73"/>
       <c r="G128" s="73"/>
@@ -9656,7 +10472,7 @@
     <row r="129" spans="3:12">
       <c r="D129" s="62"/>
       <c r="E129" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F129" s="73"/>
       <c r="G129" s="73"/>
@@ -9669,7 +10485,7 @@
     <row r="130" spans="3:12">
       <c r="D130" s="62"/>
       <c r="E130" s="74" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F130" s="73"/>
       <c r="G130" s="73"/>
@@ -9682,7 +10498,7 @@
     <row r="131" spans="3:12">
       <c r="D131" s="62"/>
       <c r="E131" s="74" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F131" s="73"/>
       <c r="G131" s="73"/>
@@ -9695,7 +10511,7 @@
     <row r="132" spans="3:12">
       <c r="D132" s="62"/>
       <c r="E132" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F132" s="73"/>
       <c r="G132" s="73"/>
@@ -9707,16 +10523,16 @@
     </row>
     <row r="133" spans="3:12">
       <c r="C133" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D133" s="62" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="134" spans="3:12">
       <c r="D134" s="62"/>
       <c r="E134" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F134" s="73"/>
       <c r="G134" s="73"/>
@@ -9729,7 +10545,7 @@
     <row r="135" spans="3:12">
       <c r="D135" s="62"/>
       <c r="E135" s="73" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F135" s="73"/>
       <c r="G135" s="73"/>
@@ -9742,7 +10558,7 @@
     <row r="136" spans="3:12">
       <c r="D136" s="62"/>
       <c r="E136" s="74" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F136" s="73"/>
       <c r="G136" s="73"/>
@@ -9755,7 +10571,7 @@
     <row r="137" spans="3:12">
       <c r="D137" s="62"/>
       <c r="E137" s="74" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F137" s="73"/>
       <c r="G137" s="73"/>
@@ -9768,7 +10584,7 @@
     <row r="138" spans="3:12">
       <c r="D138" s="62"/>
       <c r="E138" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F138" s="73"/>
       <c r="G138" s="73"/>
@@ -9786,7 +10602,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="71" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E140" s="72"/>
       <c r="F140" s="72"/>
@@ -9796,24 +10612,24 @@
     </row>
     <row r="141" spans="3:12">
       <c r="C141" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D141" s="62" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="142" spans="3:12">
       <c r="C142" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D142" s="62" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="143" spans="3:12">
       <c r="D143" s="62"/>
       <c r="E143" s="73" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F143" s="73"/>
       <c r="G143" s="73"/>
@@ -9826,7 +10642,7 @@
     <row r="144" spans="3:12">
       <c r="D144" s="62"/>
       <c r="E144" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F144" s="73"/>
       <c r="G144" s="73"/>
@@ -9839,7 +10655,7 @@
     <row r="145" spans="3:12">
       <c r="D145" s="62"/>
       <c r="E145" s="74" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F145" s="73"/>
       <c r="G145" s="73"/>
@@ -9852,7 +10668,7 @@
     <row r="146" spans="3:12">
       <c r="D146" s="62"/>
       <c r="E146" s="73" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F146" s="73"/>
       <c r="G146" s="73"/>
@@ -9864,16 +10680,16 @@
     </row>
     <row r="147" spans="3:12">
       <c r="C147" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D147" s="62" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="148" spans="3:12">
       <c r="D148" s="62"/>
       <c r="E148" s="73" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F148" s="73"/>
       <c r="G148" s="73"/>
@@ -9886,7 +10702,7 @@
     <row r="149" spans="3:12">
       <c r="D149" s="62"/>
       <c r="E149" s="74" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F149" s="73"/>
       <c r="G149" s="73"/>
@@ -9899,7 +10715,7 @@
     <row r="150" spans="3:12">
       <c r="D150" s="62"/>
       <c r="E150" s="73" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F150" s="73"/>
       <c r="G150" s="73"/>
@@ -9925,7 +10741,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="71" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E152" s="72"/>
       <c r="F152" s="72"/>
@@ -9933,16 +10749,16 @@
     </row>
     <row r="153" spans="3:12">
       <c r="C153" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D153" s="62" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="154" spans="3:12">
       <c r="D154" s="62"/>
       <c r="E154" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F154" s="73"/>
       <c r="G154" s="73"/>
@@ -9955,7 +10771,7 @@
     <row r="155" spans="3:12">
       <c r="D155" s="62"/>
       <c r="E155" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F155" s="73"/>
       <c r="G155" s="73"/>
@@ -9968,7 +10784,7 @@
     <row r="156" spans="3:12">
       <c r="D156" s="62"/>
       <c r="E156" s="74" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F156" s="73"/>
       <c r="G156" s="73"/>
@@ -9981,7 +10797,7 @@
     <row r="157" spans="3:12">
       <c r="D157" s="62"/>
       <c r="E157" s="74" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F157" s="73"/>
       <c r="G157" s="73"/>
@@ -9994,7 +10810,7 @@
     <row r="158" spans="3:12">
       <c r="D158" s="62"/>
       <c r="E158" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F158" s="73"/>
       <c r="G158" s="73"/>
@@ -10006,16 +10822,16 @@
     </row>
     <row r="159" spans="3:12">
       <c r="C159" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="160" spans="3:12">
       <c r="D160" s="62"/>
       <c r="E160" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F160" s="73"/>
       <c r="G160" s="73"/>
@@ -10028,7 +10844,7 @@
     <row r="161" spans="3:12">
       <c r="D161" s="62"/>
       <c r="E161" s="73" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F161" s="73"/>
       <c r="G161" s="73"/>
@@ -10041,7 +10857,7 @@
     <row r="162" spans="3:12">
       <c r="D162" s="62"/>
       <c r="E162" s="74" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F162" s="73"/>
       <c r="G162" s="73"/>
@@ -10054,7 +10870,7 @@
     <row r="163" spans="3:12">
       <c r="D163" s="62"/>
       <c r="E163" s="74" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F163" s="73"/>
       <c r="G163" s="73"/>
@@ -10067,7 +10883,7 @@
     <row r="164" spans="3:12">
       <c r="D164" s="62"/>
       <c r="E164" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F164" s="73"/>
       <c r="G164" s="73"/>
@@ -10082,7 +10898,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="71" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E165" s="72"/>
       <c r="F165" s="72"/>
@@ -10092,24 +10908,24 @@
     </row>
     <row r="166" spans="3:12">
       <c r="C166" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D166" s="62" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="167" spans="3:12">
       <c r="C167" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D167" s="62" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="168" spans="3:12">
       <c r="D168" s="62"/>
       <c r="E168" s="73" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F168" s="73"/>
       <c r="G168" s="73"/>
@@ -10122,7 +10938,7 @@
     <row r="169" spans="3:12">
       <c r="D169" s="62"/>
       <c r="E169" s="73" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F169" s="73"/>
       <c r="G169" s="73"/>
@@ -10135,7 +10951,7 @@
     <row r="170" spans="3:12">
       <c r="D170" s="62"/>
       <c r="E170" s="74" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F170" s="73"/>
       <c r="G170" s="73"/>
@@ -10148,7 +10964,7 @@
     <row r="171" spans="3:12">
       <c r="D171" s="62"/>
       <c r="E171" s="74" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F171" s="73"/>
       <c r="G171" s="73"/>
@@ -10161,7 +10977,7 @@
     <row r="172" spans="3:12">
       <c r="D172" s="62"/>
       <c r="E172" s="73" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F172" s="73"/>
       <c r="G172" s="73"/>
@@ -10173,24 +10989,24 @@
     </row>
     <row r="173" spans="3:12">
       <c r="C173" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D173" s="62" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="174" spans="3:12">
       <c r="C174" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D174" s="62" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="175" spans="3:12">
       <c r="D175" s="62"/>
       <c r="E175" s="73" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F175" s="73"/>
       <c r="G175" s="73"/>
@@ -10203,7 +11019,7 @@
     <row r="176" spans="3:12">
       <c r="D176" s="62"/>
       <c r="E176" s="74" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F176" s="74"/>
       <c r="G176" s="74"/>
@@ -10216,7 +11032,7 @@
     <row r="177" spans="3:12">
       <c r="D177" s="62"/>
       <c r="E177" s="74" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F177" s="74"/>
       <c r="G177" s="74"/>
@@ -10229,7 +11045,7 @@
     <row r="178" spans="3:12">
       <c r="D178" s="62"/>
       <c r="E178" s="74" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F178" s="74"/>
       <c r="G178" s="74"/>
@@ -10242,7 +11058,7 @@
     <row r="179" spans="3:12">
       <c r="D179" s="62"/>
       <c r="E179" s="74" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F179" s="74"/>
       <c r="G179" s="74"/>
@@ -10255,7 +11071,7 @@
     <row r="180" spans="3:12">
       <c r="D180" s="62"/>
       <c r="E180" s="74" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F180" s="74"/>
       <c r="G180" s="74"/>
@@ -10268,7 +11084,7 @@
     <row r="181" spans="3:12">
       <c r="D181" s="62"/>
       <c r="E181" s="74" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F181" s="74"/>
       <c r="G181" s="74"/>
@@ -10281,7 +11097,7 @@
     <row r="182" spans="3:12">
       <c r="D182" s="62"/>
       <c r="E182" s="73" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F182" s="73"/>
       <c r="G182" s="73"/>
@@ -10293,16 +11109,16 @@
     </row>
     <row r="183" spans="3:12">
       <c r="C183" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D183" s="62" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="184" spans="3:12">
       <c r="D184" s="62"/>
       <c r="E184" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F184" s="73"/>
       <c r="G184" s="73"/>
@@ -10315,7 +11131,7 @@
     <row r="185" spans="3:12">
       <c r="D185" s="62"/>
       <c r="E185" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F185" s="73"/>
       <c r="G185" s="73"/>
@@ -10328,7 +11144,7 @@
     <row r="186" spans="3:12">
       <c r="D186" s="62"/>
       <c r="E186" s="74" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F186" s="74"/>
       <c r="G186" s="73"/>
@@ -10341,7 +11157,7 @@
     <row r="187" spans="3:12">
       <c r="D187" s="62"/>
       <c r="E187" s="74" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F187" s="74"/>
       <c r="G187" s="73"/>
@@ -10354,7 +11170,7 @@
     <row r="188" spans="3:12">
       <c r="D188" s="62"/>
       <c r="E188" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F188" s="73"/>
       <c r="G188" s="73"/>
@@ -10369,24 +11185,24 @@
     </row>
     <row r="190" spans="3:12">
       <c r="C190" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D190" s="75" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="191" spans="3:12">
       <c r="C191" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="192" spans="3:12">
       <c r="D192" s="62"/>
       <c r="E192" s="73" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F192" s="73"/>
       <c r="G192" s="73"/>
@@ -10399,7 +11215,7 @@
     <row r="193" spans="3:12">
       <c r="D193" s="62"/>
       <c r="E193" s="74" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F193" s="73"/>
       <c r="G193" s="73"/>
@@ -10412,7 +11228,7 @@
     <row r="194" spans="3:12">
       <c r="D194" s="62"/>
       <c r="E194" s="73" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F194" s="73"/>
       <c r="G194" s="73"/>
@@ -10427,15 +11243,15 @@
     </row>
     <row r="196" spans="3:12">
       <c r="C196" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D196" s="62" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="197" spans="3:12">
       <c r="E197" s="73" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F197" s="73"/>
       <c r="G197" s="73"/>
@@ -10447,7 +11263,7 @@
     </row>
     <row r="198" spans="3:12">
       <c r="E198" s="73" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F198" s="73"/>
       <c r="G198" s="73"/>
@@ -10459,7 +11275,7 @@
     </row>
     <row r="199" spans="3:12">
       <c r="E199" s="74" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F199" s="73"/>
       <c r="G199" s="73"/>
@@ -10471,7 +11287,7 @@
     </row>
     <row r="200" spans="3:12">
       <c r="E200" s="74" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F200" s="73"/>
       <c r="G200" s="73"/>
@@ -10483,7 +11299,7 @@
     </row>
     <row r="201" spans="3:12">
       <c r="E201" s="73" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F201" s="73"/>
       <c r="G201" s="73"/>
@@ -10499,7 +11315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J31"/>
   <sheetViews>
@@ -10511,46 +11327,46 @@
   <sheetData>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -10560,7 +11376,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -10570,32 +11386,32 @@
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -10605,27 +11421,27 @@
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -10634,7 +11450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L77"/>
   <sheetViews>
@@ -10651,7 +11467,7 @@
   <sheetData>
     <row r="1" spans="3:12">
       <c r="E1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="3:12">
@@ -10661,66 +11477,66 @@
     </row>
     <row r="5" spans="3:12">
       <c r="E5" s="55" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="21" customHeight="1">
       <c r="E6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="30">
       <c r="E7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="24.75" customHeight="1">
       <c r="E8" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="30">
       <c r="D9" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="E10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="3:12">
       <c r="E11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="E12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="3:12">
       <c r="E13" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="3:12">
       <c r="E14" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="E15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J15" s="29">
         <v>5.2999999999999999E-2</v>
@@ -10732,7 +11548,7 @@
     </row>
     <row r="16" spans="3:12">
       <c r="E16" s="20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J16">
         <f>15000*J15/12</f>
@@ -10741,217 +11557,217 @@
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="E39" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="E41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="E42" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="E43" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="E44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="E45" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="E46" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="E49" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="E50" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="4:5">
       <c r="E51" s="54" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="52" spans="4:5">
       <c r="E52" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="55" spans="4:5">
       <c r="E55" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="E56" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="E57" s="53" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="E58" s="53" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="4:5">
       <c r="E59" s="54" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="54" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="E61" s="54" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="62" spans="4:5">
       <c r="E62" s="54" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="E63" s="54" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="64" spans="4:5">
       <c r="E64" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="66" spans="4:5">
@@ -10961,47 +11777,47 @@
     </row>
     <row r="67" spans="4:5">
       <c r="E67" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68" spans="4:5">
       <c r="E68" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="E69" s="63" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="E71" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="E72" s="63" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="75" spans="4:5">
       <c r="E75" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="76" spans="4:5">
       <c r="E76" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="E77" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -11010,7 +11826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
@@ -11022,222 +11838,222 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="77" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="20" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="18" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="20" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="D18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="D19" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="D20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="D22" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="D23" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="77" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="D34" s="20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="D35" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="D36" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="D37" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="D39" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="D40" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="D41" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="D42" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="D44" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="D45" s="18" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="D46" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="D47" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="D48" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="4:5">
       <c r="D51" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="52" spans="4:5">
       <c r="D52" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="55" spans="4:5">
       <c r="E55" s="18" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="E56" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="E57" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="E58" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="59" spans="4:5">
       <c r="E59" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="68" spans="12:12">
       <c r="L68" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -11246,7 +12062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J68"/>
   <sheetViews>
@@ -11262,195 +12078,195 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="J1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>1148</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F4" s="117"/>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D7" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E7" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F7" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="C10" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="C11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="C15" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="D17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="D19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="D20" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="D21" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="D23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="D25" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="D26" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="C36" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="D37" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="D38" s="18" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F38" s="78" t="s">
         <v>1167</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="D39" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="C41" s="63" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
@@ -11458,7 +12274,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="C42" s="63" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
@@ -11466,7 +12282,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="C43" s="63" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
@@ -11474,7 +12290,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="C44" s="63" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
@@ -11482,7 +12298,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="C45" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
@@ -11490,7 +12306,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="C46" s="63" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
@@ -11498,7 +12314,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="C47" s="63" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
@@ -11506,7 +12322,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="C48" s="63" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
@@ -11514,7 +12330,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="C49" s="63" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
@@ -11522,7 +12338,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="C50" s="63" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
@@ -11530,7 +12346,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="C51" s="63" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
@@ -11538,7 +12354,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="C52" s="63" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
@@ -11546,7 +12362,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="C53" s="63" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
@@ -11554,7 +12370,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="C54" s="63" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
@@ -11562,61 +12378,61 @@
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="D60" s="18" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="C64" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D65" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D66" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D67" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -11628,7 +12444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
@@ -11649,7 +12465,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="P1" s="82"/>
     </row>
@@ -11658,10 +12474,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="88" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -11682,7 +12498,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="84" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="20"/>
       <c r="P4" s="82"/>
@@ -11690,20 +12506,20 @@
     <row r="5" spans="1:19">
       <c r="A5" s="20"/>
       <c r="B5" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="20"/>
       <c r="C6" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="P6" s="82"/>
     </row>
@@ -11711,10 +12527,10 @@
       <c r="A7" s="20"/>
       <c r="C7" s="20"/>
       <c r="E7" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="P7" s="82"/>
     </row>
@@ -11725,55 +12541,55 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="P9" s="82"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="P10" s="82"/>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K11" s="79"/>
       <c r="P11" s="82"/>
     </row>
     <row r="12" spans="1:19">
       <c r="E12" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F12" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="K12" s="79"/>
       <c r="P12" s="82"/>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G13" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="K13" s="79"/>
       <c r="P13" s="82"/>
     </row>
     <row r="14" spans="1:19">
       <c r="G14" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K14" s="79"/>
       <c r="P14" s="82"/>
@@ -11784,10 +12600,10 @@
     </row>
     <row r="16" spans="1:19">
       <c r="E16" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F16" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="L16" s="79"/>
       <c r="P16" s="82"/>
@@ -11795,10 +12611,10 @@
     </row>
     <row r="17" spans="6:18">
       <c r="F17" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G17" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="L17" s="79"/>
       <c r="P17" s="82"/>
@@ -11806,14 +12622,14 @@
     </row>
     <row r="18" spans="6:18">
       <c r="H18" s="85" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="P18" s="82"/>
       <c r="R18" s="32"/>
     </row>
     <row r="19" spans="6:18">
       <c r="G19" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H19" s="85"/>
       <c r="P19" s="82"/>
@@ -11821,82 +12637,82 @@
     </row>
     <row r="20" spans="6:18">
       <c r="H20" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I20" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="L20" s="79"/>
       <c r="P20" s="82"/>
     </row>
     <row r="21" spans="6:18">
       <c r="H21" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I21" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="J21" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="P21" s="82"/>
     </row>
     <row r="22" spans="6:18">
       <c r="I22" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="P22" s="82"/>
     </row>
     <row r="23" spans="6:18">
       <c r="K23" s="79" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="P23" s="82"/>
     </row>
     <row r="24" spans="6:18">
       <c r="J24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K24" s="79"/>
       <c r="P24" s="82"/>
     </row>
     <row r="25" spans="6:18">
       <c r="J25" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="L25" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="P25" s="82"/>
     </row>
     <row r="26" spans="6:18">
       <c r="K26" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="M26" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="P26" s="80"/>
     </row>
     <row r="27" spans="6:18">
       <c r="K27" s="79"/>
       <c r="L27" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M27" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="N27" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="P27" s="80"/>
     </row>
@@ -11904,10 +12720,10 @@
       <c r="K28" s="79"/>
       <c r="L28" s="79"/>
       <c r="M28" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N28" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="P28" s="80"/>
     </row>
@@ -11916,10 +12732,10 @@
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
       <c r="N29" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="O29" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="P29" s="82"/>
     </row>
@@ -11928,7 +12744,7 @@
       <c r="L30" s="79"/>
       <c r="M30" s="79"/>
       <c r="P30" s="86" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="31" spans="6:18">
@@ -11936,20 +12752,20 @@
       <c r="L31" s="79"/>
       <c r="M31" s="79"/>
       <c r="O31" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="P31" s="82"/>
     </row>
     <row r="32" spans="6:18">
       <c r="K32" s="79"/>
       <c r="L32" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M32" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="N32" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="P32" s="80"/>
     </row>
@@ -11957,10 +12773,10 @@
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
       <c r="M33" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N33" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="P33" s="80"/>
     </row>
@@ -11968,7 +12784,7 @@
       <c r="K34" s="79"/>
       <c r="L34" s="79"/>
       <c r="O34" s="86" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="P34" s="80"/>
     </row>
@@ -11976,29 +12792,29 @@
       <c r="K35" s="79"/>
       <c r="L35" s="79"/>
       <c r="N35" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="P35" s="80"/>
     </row>
     <row r="36" spans="10:18">
       <c r="K36" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="M36" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="P36" s="80"/>
     </row>
     <row r="37" spans="10:18">
       <c r="K37" s="79"/>
       <c r="L37" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M37" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="P37" s="82"/>
       <c r="Q37" s="82"/>
@@ -12006,10 +12822,10 @@
     <row r="38" spans="10:18">
       <c r="K38" s="79"/>
       <c r="M38" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="P38" s="82"/>
       <c r="R38" s="32"/>
@@ -12017,7 +12833,7 @@
     <row r="39" spans="10:18">
       <c r="K39" s="79"/>
       <c r="O39" s="86" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="P39" s="82"/>
       <c r="Q39" s="83"/>
@@ -12025,7 +12841,7 @@
     <row r="40" spans="10:18">
       <c r="K40" s="79"/>
       <c r="N40" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="O40" s="81"/>
       <c r="P40" s="82"/>
@@ -12034,48 +12850,48 @@
     <row r="41" spans="10:18">
       <c r="K41" s="79"/>
       <c r="N41" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="O41" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q41" s="80"/>
     </row>
     <row r="42" spans="10:18">
       <c r="J42" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K42" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L42" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="P42" s="82"/>
     </row>
     <row r="43" spans="10:18">
       <c r="J43" s="79"/>
       <c r="K43" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L43" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="M43" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="P43" s="82"/>
     </row>
     <row r="44" spans="10:18">
       <c r="J44" s="79"/>
       <c r="L44" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="N44" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="P44" s="82"/>
     </row>
@@ -12083,10 +12899,10 @@
       <c r="J45" s="79"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N45" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P45" s="82"/>
     </row>
@@ -12095,10 +12911,10 @@
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
       <c r="N46" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="O46" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="P46" s="82"/>
     </row>
@@ -12106,10 +12922,10 @@
       <c r="J47" s="79"/>
       <c r="L47" s="79"/>
       <c r="M47" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N47" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="P47" s="82"/>
     </row>
@@ -12121,39 +12937,39 @@
     <row r="49" spans="1:16">
       <c r="J49" s="79"/>
       <c r="L49" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="N49" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="P49" s="82"/>
     </row>
     <row r="50" spans="1:16">
       <c r="J50" s="79"/>
       <c r="M50" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N50" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O50" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="P50" s="82"/>
     </row>
     <row r="51" spans="1:16">
       <c r="J51" s="79"/>
       <c r="M51" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N51" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O51" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="P51" s="82"/>
     </row>
@@ -12163,133 +12979,133 @@
     </row>
     <row r="53" spans="1:16">
       <c r="J53" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K53" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L53" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="P53" s="82"/>
     </row>
     <row r="54" spans="1:16">
       <c r="K54" s="79" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L54" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="M54" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="C59" s="20" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E59" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="D60" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="E61" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="D62" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="E63" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="D64" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="B75" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="85" spans="2:2">
@@ -12299,12 +13115,12 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -12314,12 +13130,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -12329,17 +13145,17 @@
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -12349,12 +13165,12 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="98" spans="2:2">
@@ -12364,7 +13180,7 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -12374,12 +13190,12 @@
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="103" spans="2:2">
@@ -12389,7 +13205,7 @@
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -12412,147 +13228,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="113" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="114" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="102" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="111" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="91">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="101">
         <v>1</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101">
         <v>1</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="111" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="91">
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="101">
         <v>2</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101">
         <v>2</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="111" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="91">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="101">
         <v>4</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91">
+      <c r="F5" s="101"/>
+      <c r="G5" s="101">
         <v>4</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="111" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="96">
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="106">
         <v>8</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="91">
+      <c r="F6" s="106"/>
+      <c r="G6" s="101">
         <v>4</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="111" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="91">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="101">
         <v>8</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91">
+      <c r="F7" s="101"/>
+      <c r="G7" s="101">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="111" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="91">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="101">
         <v>4</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91">
+      <c r="F8" s="101"/>
+      <c r="G8" s="101">
         <v>4</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="111" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="91">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="101">
         <v>8</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91">
+      <c r="F9" s="101"/>
+      <c r="G9" s="101">
         <v>8</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="111" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="96">
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="106">
         <v>8</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="91">
+      <c r="F10" s="106"/>
+      <c r="G10" s="101">
         <v>4</v>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -12845,12 +13661,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -12873,500 +13689,500 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="110" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="92" t="s">
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="102" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="92" t="s">
+      <c r="I24" s="103"/>
+      <c r="J24" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="93"/>
-      <c r="L24" s="95" t="s">
+      <c r="K24" s="103"/>
+      <c r="L24" s="105" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="104" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="91">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="101">
         <v>1</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91">
+      <c r="I25" s="101"/>
+      <c r="J25" s="101">
         <v>1</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="94" t="s">
+      <c r="K25" s="101"/>
+      <c r="L25" s="104" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="94"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="91">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="101">
         <v>2</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91">
+      <c r="I26" s="101"/>
+      <c r="J26" s="101">
         <v>2</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="94" t="s">
+      <c r="K26" s="101"/>
+      <c r="L26" s="104" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="91">
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="101">
         <v>4</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91">
+      <c r="I27" s="101"/>
+      <c r="J27" s="101">
         <v>4</v>
       </c>
-      <c r="K27" s="91"/>
-      <c r="L27" s="94" t="s">
+      <c r="K27" s="101"/>
+      <c r="L27" s="104" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="91">
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="101">
         <v>4</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91">
+      <c r="I28" s="101"/>
+      <c r="J28" s="101">
         <v>4</v>
       </c>
-      <c r="K28" s="91"/>
-      <c r="L28" s="94" t="s">
+      <c r="K28" s="101"/>
+      <c r="L28" s="104" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="104" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="91">
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="101">
         <v>8</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91">
+      <c r="I29" s="101"/>
+      <c r="J29" s="101">
         <v>8</v>
       </c>
-      <c r="K29" s="91"/>
-      <c r="L29" s="94" t="s">
+      <c r="K29" s="101"/>
+      <c r="L29" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="104" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="96">
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="106">
         <v>8</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96">
+      <c r="I30" s="106"/>
+      <c r="J30" s="106">
         <v>4</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="94" t="s">
+      <c r="K30" s="106"/>
+      <c r="L30" s="104" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="94"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="104" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="96">
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="106">
         <v>8</v>
       </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96">
+      <c r="I31" s="106"/>
+      <c r="J31" s="106">
         <v>4</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="94" t="s">
+      <c r="K31" s="106"/>
+      <c r="L31" s="104" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="94"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="104"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="104" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="91">
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="101">
         <v>4</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91">
+      <c r="I32" s="101"/>
+      <c r="J32" s="101">
         <v>4</v>
       </c>
-      <c r="K32" s="91"/>
-      <c r="L32" s="94" t="s">
+      <c r="K32" s="101"/>
+      <c r="L32" s="104" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="91">
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="101">
         <v>8</v>
       </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91">
+      <c r="I33" s="101"/>
+      <c r="J33" s="101">
         <v>8</v>
       </c>
-      <c r="K33" s="91"/>
-      <c r="L33" s="94" t="s">
+      <c r="K33" s="101"/>
+      <c r="L33" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="104" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="91">
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="101">
         <v>8</v>
       </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91">
+      <c r="I34" s="101"/>
+      <c r="J34" s="101">
         <v>8</v>
       </c>
-      <c r="K34" s="91"/>
-      <c r="L34" s="94" t="s">
+      <c r="K34" s="101"/>
+      <c r="L34" s="104" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="104" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="96">
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="106">
         <v>8</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96">
+      <c r="I35" s="106"/>
+      <c r="J35" s="106">
         <v>4</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="94" t="s">
+      <c r="K35" s="106"/>
+      <c r="L35" s="104" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
@@ -13454,23 +14270,251 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="20"/>
+      <c r="C3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="20"/>
+      <c r="C4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="20" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="20"/>
+      <c r="C6" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="20" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="20"/>
+      <c r="C8" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="20" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="20"/>
+      <c r="C10" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="20"/>
+      <c r="C12" s="18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="20" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="20"/>
+      <c r="C14" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="20" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="20"/>
+      <c r="C16" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="20" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="20"/>
+      <c r="C18" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="20"/>
+      <c r="C20" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="20" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="20"/>
+      <c r="C22" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="20" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="20"/>
+      <c r="C24" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="20" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="20"/>
+      <c r="C26" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="20" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="20" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="20"/>
+      <c r="C29" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="53" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="53" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="53" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="53" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="53" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="20" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="20"/>
+      <c r="C36" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="20" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -13478,7 +14522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -13486,7 +14530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -13494,267 +14538,284 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="91" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="80" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B9" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B10" s="82" t="s">
+        <v>816</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>816</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="80"/>
+      <c r="B11" s="82" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="80"/>
+      <c r="B12" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="80"/>
+      <c r="B13" s="99" t="s">
+        <v>819</v>
+      </c>
+      <c r="C13" s="94"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="80"/>
+      <c r="B14" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="80"/>
+      <c r="B15" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="94"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="95"/>
+      <c r="B16" s="96" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>817</v>
-      </c>
-      <c r="B13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C16" s="97"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75">
+      <c r="A21" s="51" t="s">
         <v>822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75">
-      <c r="A20" s="51" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="B21" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="50" t="s">
-        <v>832</v>
+        <v>823</v>
+      </c>
+      <c r="B22" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50"/>
-      <c r="B23" t="s">
-        <v>827</v>
+      <c r="A23" s="50" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="50"/>
       <c r="B24" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="50"/>
       <c r="B25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="50"/>
       <c r="B26" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="50"/>
       <c r="B27" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="50" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75">
-      <c r="A29" s="50"/>
-      <c r="B29" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="A28" s="50"/>
+      <c r="B28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="50" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75">
       <c r="A30" s="50"/>
       <c r="B30" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="50" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75">
-      <c r="A32" s="50"/>
-      <c r="B32" t="s">
-        <v>836</v>
+      <c r="A31" s="50"/>
+      <c r="B31" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="50" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75">
       <c r="A33" s="50"/>
       <c r="B33" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75">
       <c r="A34" s="50"/>
-      <c r="C34" t="s">
-        <v>838</v>
-      </c>
-      <c r="D34" t="s">
-        <v>839</v>
+      <c r="B34" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="50"/>
       <c r="C35" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D35" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="50"/>
       <c r="C36" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D36" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="50"/>
       <c r="C37" t="s">
+        <v>840</v>
+      </c>
+      <c r="D37" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="50"/>
+      <c r="C38" t="s">
+        <v>842</v>
+      </c>
+      <c r="D38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="50" t="s">
         <v>844</v>
-      </c>
-      <c r="D37" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="50" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="50"/>
-      <c r="B39" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="50"/>
       <c r="B40" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="50"/>
       <c r="B41" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="50"/>
       <c r="B42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="50"/>
+      <c r="B43" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="50" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75">
+      <c r="A45" s="50"/>
+      <c r="B45" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="50" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75">
-      <c r="A44" s="50"/>
-      <c r="B44" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21">
-      <c r="A48" s="76" t="s">
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
+      <c r="A49" s="76" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D50" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50">
+    <row r="51" spans="1:4">
+      <c r="B51">
         <v>2</v>
       </c>
     </row>
@@ -13762,10 +14823,1554 @@
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BR53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="119" customWidth="1"/>
+    <col min="2" max="3" width="2.5703125" style="119"/>
+    <col min="4" max="4" width="5.28515625" style="119" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="119" customWidth="1"/>
+    <col min="6" max="9" width="2.5703125" style="119"/>
+    <col min="10" max="10" width="2.5703125" style="119" customWidth="1"/>
+    <col min="11" max="16384" width="2.5703125" style="119"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52">
+      <c r="A2" s="118" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="B4" s="120" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="B6" s="121" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15" thickBot="1">
+      <c r="B7" s="122"/>
+      <c r="C7" s="123" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D7" s="124"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="123" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="124"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="125"/>
+    </row>
+    <row r="8" spans="1:52" ht="15" thickTop="1">
+      <c r="C8" s="126" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="127"/>
+      <c r="AN8" s="127"/>
+      <c r="AO8" s="127"/>
+      <c r="AP8" s="127"/>
+      <c r="AQ8" s="127"/>
+      <c r="AR8" s="127"/>
+      <c r="AS8" s="127"/>
+      <c r="AT8" s="127"/>
+      <c r="AU8" s="127"/>
+      <c r="AV8" s="127"/>
+      <c r="AW8" s="128"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="C9" s="130" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="131"/>
+      <c r="AJ9" s="131"/>
+      <c r="AK9" s="131"/>
+      <c r="AL9" s="131"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="131"/>
+      <c r="AT9" s="131"/>
+      <c r="AU9" s="131"/>
+      <c r="AV9" s="131"/>
+      <c r="AW9" s="132"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="C10" s="134" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D10" s="135"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="135"/>
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="135"/>
+      <c r="AP10" s="135"/>
+      <c r="AQ10" s="135"/>
+      <c r="AR10" s="135"/>
+      <c r="AS10" s="135"/>
+      <c r="AT10" s="135"/>
+      <c r="AU10" s="135"/>
+      <c r="AV10" s="135"/>
+      <c r="AW10" s="136"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="B12" s="121" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="C13" s="138" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="15" thickBot="1">
+      <c r="C15" s="139" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="123" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="140" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="124"/>
+      <c r="AZ15" s="125"/>
+    </row>
+    <row r="16" spans="1:52" ht="15" thickTop="1">
+      <c r="A16" s="141"/>
+      <c r="C16" s="126" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="120" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="142" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="127"/>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="127"/>
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="127"/>
+      <c r="AP16" s="127"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="128"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="141"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="143" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="135"/>
+      <c r="AJ17" s="135"/>
+      <c r="AK17" s="135"/>
+      <c r="AL17" s="135"/>
+      <c r="AM17" s="135"/>
+      <c r="AN17" s="135"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="135"/>
+      <c r="AS17" s="135"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="135"/>
+      <c r="AX17" s="135"/>
+      <c r="AY17" s="135"/>
+      <c r="AZ17" s="136"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="141"/>
+      <c r="C18" s="144" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="120" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="147" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="145"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="145"/>
+      <c r="AT18" s="145"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="145"/>
+      <c r="AW18" s="145"/>
+      <c r="AX18" s="145"/>
+      <c r="AY18" s="145"/>
+      <c r="AZ18" s="146"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="141"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="148" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="135"/>
+      <c r="AK19" s="135"/>
+      <c r="AL19" s="135"/>
+      <c r="AM19" s="135"/>
+      <c r="AN19" s="135"/>
+      <c r="AO19" s="135"/>
+      <c r="AP19" s="135"/>
+      <c r="AQ19" s="135"/>
+      <c r="AR19" s="135"/>
+      <c r="AS19" s="135"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="135"/>
+      <c r="AX19" s="135"/>
+      <c r="AY19" s="135"/>
+      <c r="AZ19" s="136"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="141"/>
+      <c r="C20" s="126" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="120" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="142" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="127"/>
+      <c r="AT20" s="127"/>
+      <c r="AU20" s="127"/>
+      <c r="AV20" s="127"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="128"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="141"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="137" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="135"/>
+      <c r="AJ21" s="135"/>
+      <c r="AK21" s="135"/>
+      <c r="AL21" s="135"/>
+      <c r="AM21" s="135"/>
+      <c r="AN21" s="135"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="135"/>
+      <c r="AS21" s="135"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="135"/>
+      <c r="AX21" s="135"/>
+      <c r="AY21" s="135"/>
+      <c r="AZ21" s="136"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="141"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="141"/>
+      <c r="B23" s="118" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="C24" s="138" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="15" thickBot="1">
+      <c r="C26" s="139" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="140" t="s">
+        <v>1386</v>
+      </c>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="153" t="s">
+        <v>1365</v>
+      </c>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="125"/>
+    </row>
+    <row r="27" spans="1:52" ht="15" thickTop="1">
+      <c r="C27" s="134" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="155" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="135" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="134" t="s">
+        <v>1388</v>
+      </c>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="136"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="C28" s="134" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="155" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="135" t="s">
+        <v>1387</v>
+      </c>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="134" t="s">
+        <v>1388</v>
+      </c>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="136"/>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="C29" s="134" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="155" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="135" t="s">
+        <v>1387</v>
+      </c>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="134" t="s">
+        <v>1388</v>
+      </c>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="136"/>
+      <c r="AC29" s="158"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="B31" s="121" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="C32" s="138" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:70">
+      <c r="C34" s="121" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+    </row>
+    <row r="36" spans="1:70">
+      <c r="D36" s="118" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:70">
+      <c r="D37" s="122"/>
+      <c r="E37" s="120" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:70">
+      <c r="D38" s="122"/>
+    </row>
+    <row r="39" spans="1:70" ht="15" thickBot="1">
+      <c r="E39" s="123" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="123" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="159" t="s">
+        <v>1396</v>
+      </c>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="124"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="124"/>
+      <c r="AA39" s="124"/>
+      <c r="AB39" s="124"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="124"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="124"/>
+      <c r="AG39" s="124"/>
+      <c r="AH39" s="124"/>
+      <c r="AI39" s="124"/>
+      <c r="AJ39" s="124"/>
+      <c r="AK39" s="124"/>
+      <c r="AL39" s="124"/>
+      <c r="AM39" s="123" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AN39" s="124"/>
+      <c r="AO39" s="124"/>
+      <c r="AP39" s="124"/>
+      <c r="AQ39" s="124"/>
+      <c r="AR39" s="124"/>
+      <c r="AS39" s="124"/>
+      <c r="AT39" s="124"/>
+      <c r="AU39" s="124"/>
+      <c r="AV39" s="124"/>
+      <c r="AW39" s="124"/>
+      <c r="AX39" s="124"/>
+      <c r="AY39" s="124"/>
+      <c r="AZ39" s="124"/>
+      <c r="BA39" s="124"/>
+      <c r="BB39" s="124"/>
+      <c r="BC39" s="124"/>
+      <c r="BD39" s="124"/>
+      <c r="BE39" s="124"/>
+      <c r="BF39" s="124"/>
+      <c r="BG39" s="124"/>
+      <c r="BH39" s="124"/>
+      <c r="BI39" s="124"/>
+      <c r="BJ39" s="124"/>
+      <c r="BK39" s="124"/>
+      <c r="BL39" s="124"/>
+      <c r="BM39" s="124"/>
+      <c r="BN39" s="124"/>
+      <c r="BO39" s="124"/>
+      <c r="BP39" s="124"/>
+      <c r="BQ39" s="124"/>
+      <c r="BR39" s="125"/>
+    </row>
+    <row r="40" spans="1:70" ht="15" thickTop="1">
+      <c r="A40" s="141"/>
+      <c r="E40" s="134" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="137" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="136"/>
+      <c r="S40" s="160" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T40" s="135"/>
+      <c r="U40" s="135"/>
+      <c r="V40" s="135"/>
+      <c r="W40" s="135"/>
+      <c r="X40" s="135"/>
+      <c r="Y40" s="135"/>
+      <c r="Z40" s="135"/>
+      <c r="AA40" s="135"/>
+      <c r="AB40" s="135"/>
+      <c r="AC40" s="135"/>
+      <c r="AD40" s="135"/>
+      <c r="AE40" s="135"/>
+      <c r="AF40" s="135"/>
+      <c r="AG40" s="135"/>
+      <c r="AH40" s="135"/>
+      <c r="AI40" s="135"/>
+      <c r="AJ40" s="135"/>
+      <c r="AK40" s="135"/>
+      <c r="AL40" s="135"/>
+      <c r="AM40" s="137" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AN40" s="135"/>
+      <c r="AO40" s="135"/>
+      <c r="AP40" s="135"/>
+      <c r="AQ40" s="135"/>
+      <c r="AR40" s="135"/>
+      <c r="AS40" s="135"/>
+      <c r="AT40" s="135"/>
+      <c r="AU40" s="135"/>
+      <c r="AV40" s="135"/>
+      <c r="AW40" s="135"/>
+      <c r="AX40" s="135"/>
+      <c r="AY40" s="135"/>
+      <c r="AZ40" s="135"/>
+      <c r="BA40" s="135"/>
+      <c r="BB40" s="135"/>
+      <c r="BC40" s="135"/>
+      <c r="BD40" s="135"/>
+      <c r="BE40" s="135"/>
+      <c r="BF40" s="135"/>
+      <c r="BG40" s="135"/>
+      <c r="BH40" s="135"/>
+      <c r="BI40" s="135"/>
+      <c r="BJ40" s="135"/>
+      <c r="BK40" s="135"/>
+      <c r="BL40" s="135"/>
+      <c r="BM40" s="135"/>
+      <c r="BN40" s="135"/>
+      <c r="BO40" s="135"/>
+      <c r="BP40" s="135"/>
+      <c r="BQ40" s="135"/>
+      <c r="BR40" s="136"/>
+    </row>
+    <row r="41" spans="1:70">
+      <c r="A41" s="141"/>
+      <c r="E41" s="134" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="137" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="160" t="s">
+        <v>1404</v>
+      </c>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="135"/>
+      <c r="Y41" s="135"/>
+      <c r="Z41" s="135"/>
+      <c r="AA41" s="135"/>
+      <c r="AB41" s="135"/>
+      <c r="AC41" s="135"/>
+      <c r="AD41" s="135"/>
+      <c r="AE41" s="135"/>
+      <c r="AF41" s="135"/>
+      <c r="AG41" s="135"/>
+      <c r="AH41" s="135"/>
+      <c r="AI41" s="135"/>
+      <c r="AJ41" s="135"/>
+      <c r="AK41" s="135"/>
+      <c r="AL41" s="135"/>
+      <c r="AM41" s="137" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AN41" s="135"/>
+      <c r="AO41" s="135"/>
+      <c r="AP41" s="135"/>
+      <c r="AQ41" s="135"/>
+      <c r="AR41" s="135"/>
+      <c r="AS41" s="135"/>
+      <c r="AT41" s="135"/>
+      <c r="AU41" s="135"/>
+      <c r="AV41" s="135"/>
+      <c r="AW41" s="135"/>
+      <c r="AX41" s="135"/>
+      <c r="AY41" s="135"/>
+      <c r="AZ41" s="135"/>
+      <c r="BA41" s="135"/>
+      <c r="BB41" s="135"/>
+      <c r="BC41" s="135"/>
+      <c r="BD41" s="135"/>
+      <c r="BE41" s="135"/>
+      <c r="BF41" s="135"/>
+      <c r="BG41" s="135"/>
+      <c r="BH41" s="135"/>
+      <c r="BI41" s="135"/>
+      <c r="BJ41" s="135"/>
+      <c r="BK41" s="135"/>
+      <c r="BL41" s="135"/>
+      <c r="BM41" s="135"/>
+      <c r="BN41" s="135"/>
+      <c r="BO41" s="135"/>
+      <c r="BP41" s="135"/>
+      <c r="BQ41" s="135"/>
+      <c r="BR41" s="136"/>
+    </row>
+    <row r="42" spans="1:70">
+      <c r="A42" s="141"/>
+    </row>
+    <row r="43" spans="1:70">
+      <c r="A43" s="141"/>
+      <c r="D43" s="118" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:70">
+      <c r="A44" s="141"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="120" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70">
+      <c r="A45" s="141"/>
+      <c r="D45" s="122"/>
+    </row>
+    <row r="46" spans="1:70" ht="15" thickBot="1">
+      <c r="A46" s="141"/>
+      <c r="E46" s="123" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="123" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="159" t="s">
+        <v>1408</v>
+      </c>
+      <c r="T46" s="124"/>
+      <c r="U46" s="124"/>
+      <c r="V46" s="124"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="124"/>
+      <c r="Y46" s="124"/>
+      <c r="Z46" s="124"/>
+      <c r="AA46" s="124"/>
+      <c r="AB46" s="124"/>
+      <c r="AC46" s="124"/>
+      <c r="AD46" s="124"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="124"/>
+      <c r="AG46" s="124"/>
+      <c r="AH46" s="124"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="124"/>
+      <c r="AK46" s="124"/>
+      <c r="AL46" s="124"/>
+      <c r="AM46" s="139" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AN46" s="124"/>
+      <c r="AO46" s="124"/>
+      <c r="AP46" s="124"/>
+      <c r="AQ46" s="124"/>
+      <c r="AR46" s="124"/>
+      <c r="AS46" s="124"/>
+      <c r="AT46" s="124"/>
+      <c r="AU46" s="124"/>
+      <c r="AV46" s="124"/>
+      <c r="AW46" s="124"/>
+      <c r="AX46" s="124"/>
+      <c r="AY46" s="124"/>
+      <c r="AZ46" s="124"/>
+      <c r="BA46" s="124"/>
+      <c r="BB46" s="124"/>
+      <c r="BC46" s="124"/>
+      <c r="BD46" s="124"/>
+      <c r="BE46" s="124"/>
+      <c r="BF46" s="124"/>
+      <c r="BG46" s="124"/>
+      <c r="BH46" s="124"/>
+      <c r="BI46" s="124"/>
+      <c r="BJ46" s="124"/>
+      <c r="BK46" s="124"/>
+      <c r="BL46" s="124"/>
+      <c r="BM46" s="124"/>
+      <c r="BN46" s="124"/>
+      <c r="BO46" s="124"/>
+      <c r="BP46" s="124"/>
+      <c r="BQ46" s="124"/>
+      <c r="BR46" s="125"/>
+    </row>
+    <row r="47" spans="1:70" ht="15" thickTop="1">
+      <c r="A47" s="141"/>
+      <c r="E47" s="134" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="137" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="136"/>
+      <c r="S47" s="160" t="s">
+        <v>1412</v>
+      </c>
+      <c r="T47" s="135"/>
+      <c r="U47" s="135"/>
+      <c r="V47" s="135"/>
+      <c r="W47" s="135"/>
+      <c r="X47" s="135"/>
+      <c r="Y47" s="135"/>
+      <c r="Z47" s="135"/>
+      <c r="AA47" s="135"/>
+      <c r="AB47" s="135"/>
+      <c r="AC47" s="135"/>
+      <c r="AD47" s="135"/>
+      <c r="AE47" s="135"/>
+      <c r="AF47" s="135"/>
+      <c r="AG47" s="135"/>
+      <c r="AH47" s="135"/>
+      <c r="AI47" s="135"/>
+      <c r="AJ47" s="135"/>
+      <c r="AK47" s="135"/>
+      <c r="AL47" s="135"/>
+      <c r="AM47" s="161" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AN47" s="135"/>
+      <c r="AO47" s="135"/>
+      <c r="AP47" s="135"/>
+      <c r="AQ47" s="135"/>
+      <c r="AR47" s="135"/>
+      <c r="AS47" s="135"/>
+      <c r="AT47" s="135"/>
+      <c r="AU47" s="135"/>
+      <c r="AV47" s="135"/>
+      <c r="AW47" s="135"/>
+      <c r="AX47" s="135"/>
+      <c r="AY47" s="135"/>
+      <c r="AZ47" s="135"/>
+      <c r="BA47" s="135"/>
+      <c r="BB47" s="135"/>
+      <c r="BC47" s="135"/>
+      <c r="BD47" s="135"/>
+      <c r="BE47" s="135"/>
+      <c r="BF47" s="135"/>
+      <c r="BG47" s="135"/>
+      <c r="BH47" s="135"/>
+      <c r="BI47" s="135"/>
+      <c r="BJ47" s="135"/>
+      <c r="BK47" s="135"/>
+      <c r="BL47" s="135"/>
+      <c r="BM47" s="135"/>
+      <c r="BN47" s="135"/>
+      <c r="BO47" s="135"/>
+      <c r="BP47" s="135"/>
+      <c r="BQ47" s="135"/>
+      <c r="BR47" s="136"/>
+    </row>
+    <row r="48" spans="1:70">
+      <c r="A48" s="141"/>
+      <c r="E48" s="126" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="129" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="127"/>
+      <c r="P48" s="127"/>
+      <c r="Q48" s="127"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="162" t="s">
+        <v>1416</v>
+      </c>
+      <c r="T48" s="127"/>
+      <c r="U48" s="127"/>
+      <c r="V48" s="127"/>
+      <c r="W48" s="127"/>
+      <c r="X48" s="127"/>
+      <c r="Y48" s="127"/>
+      <c r="Z48" s="127"/>
+      <c r="AA48" s="127"/>
+      <c r="AB48" s="127"/>
+      <c r="AC48" s="127"/>
+      <c r="AD48" s="127"/>
+      <c r="AE48" s="127"/>
+      <c r="AF48" s="127"/>
+      <c r="AG48" s="127"/>
+      <c r="AH48" s="127"/>
+      <c r="AI48" s="127"/>
+      <c r="AJ48" s="127"/>
+      <c r="AK48" s="127"/>
+      <c r="AL48" s="127"/>
+      <c r="AM48" s="138" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AN48" s="127"/>
+      <c r="AO48" s="127"/>
+      <c r="AP48" s="127"/>
+      <c r="AQ48" s="127"/>
+      <c r="AR48" s="127"/>
+      <c r="AS48" s="127"/>
+      <c r="AT48" s="127"/>
+      <c r="AU48" s="127"/>
+      <c r="AV48" s="127"/>
+      <c r="AW48" s="127"/>
+      <c r="AX48" s="127"/>
+      <c r="AY48" s="127"/>
+      <c r="AZ48" s="127"/>
+      <c r="BA48" s="127"/>
+      <c r="BB48" s="127"/>
+      <c r="BC48" s="127"/>
+      <c r="BD48" s="127"/>
+      <c r="BE48" s="127"/>
+      <c r="BF48" s="127"/>
+      <c r="BG48" s="127"/>
+      <c r="BH48" s="127"/>
+      <c r="BI48" s="127"/>
+      <c r="BJ48" s="127"/>
+      <c r="BK48" s="127"/>
+      <c r="BL48" s="127"/>
+      <c r="BM48" s="127"/>
+      <c r="BN48" s="127"/>
+      <c r="BO48" s="127"/>
+      <c r="BP48" s="127"/>
+      <c r="BQ48" s="127"/>
+      <c r="BR48" s="128"/>
+    </row>
+    <row r="49" spans="1:70">
+      <c r="A49" s="141"/>
+      <c r="E49" s="163" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="133" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="164" t="s">
+        <v>1420</v>
+      </c>
+      <c r="T49" s="131"/>
+      <c r="U49" s="131"/>
+      <c r="V49" s="131"/>
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="131"/>
+      <c r="AC49" s="131"/>
+      <c r="AD49" s="131"/>
+      <c r="AE49" s="131"/>
+      <c r="AF49" s="131"/>
+      <c r="AG49" s="131"/>
+      <c r="AH49" s="131"/>
+      <c r="AI49" s="131"/>
+      <c r="AJ49" s="131"/>
+      <c r="AK49" s="131"/>
+      <c r="AL49" s="131"/>
+      <c r="AM49" s="165" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AN49" s="131"/>
+      <c r="AO49" s="131"/>
+      <c r="AP49" s="131"/>
+      <c r="AQ49" s="131"/>
+      <c r="AR49" s="131"/>
+      <c r="AS49" s="131"/>
+      <c r="AT49" s="131"/>
+      <c r="AU49" s="131"/>
+      <c r="AV49" s="131"/>
+      <c r="AW49" s="131"/>
+      <c r="AX49" s="131"/>
+      <c r="AY49" s="131"/>
+      <c r="AZ49" s="131"/>
+      <c r="BA49" s="131"/>
+      <c r="BB49" s="131"/>
+      <c r="BC49" s="131"/>
+      <c r="BD49" s="131"/>
+      <c r="BE49" s="131"/>
+      <c r="BF49" s="131"/>
+      <c r="BG49" s="131"/>
+      <c r="BH49" s="131"/>
+      <c r="BI49" s="131"/>
+      <c r="BJ49" s="131"/>
+      <c r="BK49" s="131"/>
+      <c r="BL49" s="131"/>
+      <c r="BM49" s="131"/>
+      <c r="BN49" s="131"/>
+      <c r="BO49" s="131"/>
+      <c r="BP49" s="131"/>
+      <c r="BQ49" s="131"/>
+      <c r="BR49" s="132"/>
+    </row>
+    <row r="50" spans="1:70">
+      <c r="A50" s="141"/>
+      <c r="E50" s="126" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="129" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="128"/>
+      <c r="S50" s="162" t="s">
+        <v>1424</v>
+      </c>
+      <c r="T50" s="127"/>
+      <c r="U50" s="127"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="127"/>
+      <c r="X50" s="127"/>
+      <c r="Y50" s="127"/>
+      <c r="Z50" s="127"/>
+      <c r="AA50" s="127"/>
+      <c r="AB50" s="127"/>
+      <c r="AC50" s="127"/>
+      <c r="AD50" s="127"/>
+      <c r="AE50" s="127"/>
+      <c r="AF50" s="127"/>
+      <c r="AG50" s="127"/>
+      <c r="AH50" s="127"/>
+      <c r="AI50" s="127"/>
+      <c r="AJ50" s="127"/>
+      <c r="AK50" s="127"/>
+      <c r="AL50" s="127"/>
+      <c r="AM50" s="166" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AN50" s="127"/>
+      <c r="AO50" s="127"/>
+      <c r="AP50" s="127"/>
+      <c r="AQ50" s="127"/>
+      <c r="AR50" s="127"/>
+      <c r="AS50" s="127"/>
+      <c r="AT50" s="127"/>
+      <c r="AU50" s="127"/>
+      <c r="AV50" s="127"/>
+      <c r="AW50" s="127"/>
+      <c r="AX50" s="127"/>
+      <c r="AY50" s="127"/>
+      <c r="AZ50" s="127"/>
+      <c r="BA50" s="127"/>
+      <c r="BB50" s="127"/>
+      <c r="BC50" s="127"/>
+      <c r="BD50" s="127"/>
+      <c r="BE50" s="127"/>
+      <c r="BF50" s="127"/>
+      <c r="BG50" s="127"/>
+      <c r="BH50" s="127"/>
+      <c r="BI50" s="127"/>
+      <c r="BJ50" s="127"/>
+      <c r="BK50" s="127"/>
+      <c r="BL50" s="127"/>
+      <c r="BM50" s="127"/>
+      <c r="BN50" s="127"/>
+      <c r="BO50" s="127"/>
+      <c r="BP50" s="127"/>
+      <c r="BQ50" s="127"/>
+      <c r="BR50" s="128"/>
+    </row>
+    <row r="51" spans="1:70">
+      <c r="A51" s="141"/>
+      <c r="E51" s="163" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="133" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="131"/>
+      <c r="Q51" s="131"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="164" t="s">
+        <v>1428</v>
+      </c>
+      <c r="T51" s="131"/>
+      <c r="U51" s="131"/>
+      <c r="V51" s="131"/>
+      <c r="W51" s="131"/>
+      <c r="X51" s="131"/>
+      <c r="Y51" s="131"/>
+      <c r="Z51" s="131"/>
+      <c r="AA51" s="131"/>
+      <c r="AB51" s="131"/>
+      <c r="AC51" s="131"/>
+      <c r="AD51" s="131"/>
+      <c r="AE51" s="131"/>
+      <c r="AF51" s="131"/>
+      <c r="AG51" s="131"/>
+      <c r="AH51" s="131"/>
+      <c r="AI51" s="131"/>
+      <c r="AJ51" s="131"/>
+      <c r="AK51" s="131"/>
+      <c r="AL51" s="131"/>
+      <c r="AM51" s="165" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AN51" s="131"/>
+      <c r="AO51" s="131"/>
+      <c r="AP51" s="131"/>
+      <c r="AQ51" s="131"/>
+      <c r="AR51" s="131"/>
+      <c r="AS51" s="131"/>
+      <c r="AT51" s="131"/>
+      <c r="AU51" s="131"/>
+      <c r="AV51" s="131"/>
+      <c r="AW51" s="131"/>
+      <c r="AX51" s="131"/>
+      <c r="AY51" s="131"/>
+      <c r="AZ51" s="131"/>
+      <c r="BA51" s="131"/>
+      <c r="BB51" s="131"/>
+      <c r="BC51" s="131"/>
+      <c r="BD51" s="131"/>
+      <c r="BE51" s="131"/>
+      <c r="BF51" s="131"/>
+      <c r="BG51" s="131"/>
+      <c r="BH51" s="131"/>
+      <c r="BI51" s="131"/>
+      <c r="BJ51" s="131"/>
+      <c r="BK51" s="131"/>
+      <c r="BL51" s="131"/>
+      <c r="BM51" s="131"/>
+      <c r="BN51" s="131"/>
+      <c r="BO51" s="131"/>
+      <c r="BP51" s="131"/>
+      <c r="BQ51" s="131"/>
+      <c r="BR51" s="132"/>
+    </row>
+    <row r="53" spans="1:70">
+      <c r="E53" s="148" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -13777,7 +16382,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="89" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -13785,25 +16390,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="89" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
@@ -13811,12 +16416,12 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -13824,7 +16429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C5"/>
   <sheetViews>
@@ -13839,20 +16444,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="52" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -13861,7 +16466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K146"/>
   <sheetViews>
@@ -13880,22 +16485,22 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="C2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14644,7 +17249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M180"/>
   <sheetViews>
@@ -16863,7 +19468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I197"/>
   <sheetViews>
@@ -17694,13 +20299,13 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="106" t="s">
+      <c r="A156" s="116" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="106"/>
-      <c r="C156" s="106"/>
-      <c r="D156" s="106"/>
-      <c r="E156" s="106"/>
+      <c r="B156" s="116"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="116"/>
       <c r="F156" s="36"/>
     </row>
     <row r="157" spans="1:6">
@@ -17827,13 +20432,13 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="106" t="s">
+      <c r="A187" s="116" t="s">
         <v>642</v>
       </c>
-      <c r="B187" s="106"/>
-      <c r="C187" s="106"/>
-      <c r="D187" s="106"/>
-      <c r="E187" s="106"/>
+      <c r="B187" s="116"/>
+      <c r="C187" s="116"/>
+      <c r="D187" s="116"/>
+      <c r="E187" s="116"/>
       <c r="F187" s="36"/>
     </row>
     <row r="188" spans="1:6">
@@ -17890,59 +20495,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="No81_SipSDK" sheetId="17" state="hidden" r:id="rId10"/>
     <sheet name="No52_AirPressureSensor" sheetId="18" state="hidden" r:id="rId11"/>
     <sheet name="ARM8Soc_Inves" sheetId="20" r:id="rId12"/>
-    <sheet name="RQ-475" sheetId="21" state="hidden" r:id="rId13"/>
-    <sheet name="RQ-571_UT" sheetId="22" state="hidden" r:id="rId14"/>
+    <sheet name="RQ-475" sheetId="21" r:id="rId13"/>
+    <sheet name="RQ-571_UT" sheetId="22" r:id="rId14"/>
     <sheet name="RQ-686_UT_SMB" sheetId="24" state="hidden" r:id="rId15"/>
     <sheet name="No44_Dipsw_Inves" sheetId="23" state="hidden" r:id="rId16"/>
     <sheet name="Sparrow_No22_No23" sheetId="25" state="hidden" r:id="rId17"/>
@@ -6921,57 +6921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7118,6 +7067,57 @@
     </xf>
     <xf numFmtId="0" fontId="69" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -9623,7 +9623,7 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12085,14 +12085,14 @@
       <c r="B4" t="s">
         <v>1148</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="166" t="s">
         <v>1155</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166" t="s">
         <v>1156</v>
       </c>
-      <c r="F4" s="117"/>
+      <c r="F4" s="166"/>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
@@ -12448,7 +12448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
@@ -13228,147 +13228,147 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="154" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="150" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="155" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="102" t="s">
+      <c r="F2" s="156"/>
+      <c r="G2" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="103"/>
+      <c r="H2" s="156"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="101">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="157">
         <v>1</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101">
+      <c r="F3" s="157"/>
+      <c r="G3" s="157">
         <v>1</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="152" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="101">
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="157">
         <v>2</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101">
+      <c r="F4" s="157"/>
+      <c r="G4" s="157">
         <v>2</v>
       </c>
-      <c r="H4" s="101"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="101">
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="157">
         <v>4</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101">
+      <c r="F5" s="157"/>
+      <c r="G5" s="157">
         <v>4</v>
       </c>
-      <c r="H5" s="101"/>
+      <c r="H5" s="157"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="152" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="106">
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="158">
         <v>8</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="101">
+      <c r="F6" s="158"/>
+      <c r="G6" s="157">
         <v>4</v>
       </c>
-      <c r="H6" s="101"/>
+      <c r="H6" s="157"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="101">
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="157">
         <v>8</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101">
+      <c r="F7" s="157"/>
+      <c r="G7" s="157">
         <v>8</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="157"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="152" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="101">
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="157">
         <v>4</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101">
+      <c r="F8" s="157"/>
+      <c r="G8" s="157">
         <v>4</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="101">
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="157">
         <v>8</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101">
+      <c r="F9" s="157"/>
+      <c r="G9" s="157">
         <v>8</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="157"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="106">
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="158">
         <v>8</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="101">
+      <c r="F10" s="158"/>
+      <c r="G10" s="157">
         <v>4</v>
       </c>
-      <c r="H10" s="101"/>
+      <c r="H10" s="157"/>
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="28" t="s">
@@ -13661,12 +13661,12 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="107" t="s">
+      <c r="H23" s="160" t="s">
         <v>474</v>
       </c>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -13689,510 +13689,561 @@
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="163" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="102" t="s">
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="155" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="102" t="s">
+      <c r="I24" s="156"/>
+      <c r="J24" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="103"/>
-      <c r="L24" s="105" t="s">
+      <c r="K24" s="156"/>
+      <c r="L24" s="164" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="164"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="159" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="101">
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="157">
         <v>1</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101">
+      <c r="I25" s="157"/>
+      <c r="J25" s="157">
         <v>1</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="104" t="s">
+      <c r="K25" s="157"/>
+      <c r="L25" s="159" t="s">
         <v>497</v>
       </c>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="104"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="159"/>
+      <c r="S25" s="159"/>
+      <c r="T25" s="159"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="159"/>
+      <c r="X25" s="159"/>
+      <c r="Y25" s="159"/>
+      <c r="Z25" s="159"/>
+      <c r="AA25" s="159"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="159"/>
+      <c r="AE25" s="159"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="159" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="101">
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="157">
         <v>2</v>
       </c>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101">
+      <c r="I26" s="157"/>
+      <c r="J26" s="157">
         <v>2</v>
       </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="104" t="s">
+      <c r="K26" s="157"/>
+      <c r="L26" s="159" t="s">
         <v>499</v>
       </c>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="159"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="159"/>
+      <c r="AE26" s="159"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="159" t="s">
         <v>500</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="101">
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="157">
         <v>4</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101">
+      <c r="I27" s="157"/>
+      <c r="J27" s="157">
         <v>4</v>
       </c>
-      <c r="K27" s="101"/>
-      <c r="L27" s="104" t="s">
+      <c r="K27" s="157"/>
+      <c r="L27" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="159"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="159"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="159"/>
+      <c r="AD27" s="159"/>
+      <c r="AE27" s="159"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="159" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="101">
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="157">
         <v>4</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101">
+      <c r="I28" s="157"/>
+      <c r="J28" s="157">
         <v>4</v>
       </c>
-      <c r="K28" s="101"/>
-      <c r="L28" s="104" t="s">
+      <c r="K28" s="157"/>
+      <c r="L28" s="159" t="s">
         <v>503</v>
       </c>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="159" t="s">
         <v>504</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="101">
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="157">
         <v>8</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101">
+      <c r="I29" s="157"/>
+      <c r="J29" s="157">
         <v>8</v>
       </c>
-      <c r="K29" s="101"/>
-      <c r="L29" s="104" t="s">
+      <c r="K29" s="157"/>
+      <c r="L29" s="159" t="s">
         <v>505</v>
       </c>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
+      <c r="X29" s="159"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="159"/>
+      <c r="AB29" s="159"/>
+      <c r="AC29" s="159"/>
+      <c r="AD29" s="159"/>
+      <c r="AE29" s="159"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="26"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="159" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="106">
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="158">
         <v>8</v>
       </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106">
+      <c r="I30" s="158"/>
+      <c r="J30" s="158">
         <v>4</v>
       </c>
-      <c r="K30" s="106"/>
-      <c r="L30" s="104" t="s">
+      <c r="K30" s="158"/>
+      <c r="L30" s="159" t="s">
         <v>507</v>
       </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="159"/>
+      <c r="X30" s="159"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="159"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="159"/>
+      <c r="AD30" s="159"/>
+      <c r="AE30" s="159"/>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="26"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="159" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="106">
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="158">
         <v>8</v>
       </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106">
+      <c r="I31" s="158"/>
+      <c r="J31" s="158">
         <v>4</v>
       </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="104" t="s">
+      <c r="K31" s="158"/>
+      <c r="L31" s="159" t="s">
         <v>509</v>
       </c>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="104"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="159"/>
+      <c r="X31" s="159"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="159"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="159"/>
+      <c r="AD31" s="159"/>
+      <c r="AE31" s="159"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="26"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="159" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="101">
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="157">
         <v>4</v>
       </c>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101">
+      <c r="I32" s="157"/>
+      <c r="J32" s="157">
         <v>4</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="104" t="s">
+      <c r="K32" s="157"/>
+      <c r="L32" s="159" t="s">
         <v>510</v>
       </c>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="159"/>
+      <c r="Y32" s="159"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="159"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="159"/>
+      <c r="AD32" s="159"/>
+      <c r="AE32" s="159"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="26"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="159" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="101">
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="157">
         <v>8</v>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101">
+      <c r="I33" s="157"/>
+      <c r="J33" s="157">
         <v>8</v>
       </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="104" t="s">
+      <c r="K33" s="157"/>
+      <c r="L33" s="159" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="159"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="159"/>
+      <c r="Z33" s="159"/>
+      <c r="AA33" s="159"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="159"/>
+      <c r="AE33" s="159"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="26"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="159" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="101">
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="157">
         <v>8</v>
       </c>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101">
+      <c r="I34" s="157"/>
+      <c r="J34" s="157">
         <v>8</v>
       </c>
-      <c r="K34" s="101"/>
-      <c r="L34" s="104" t="s">
+      <c r="K34" s="157"/>
+      <c r="L34" s="159" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="159"/>
+      <c r="X34" s="159"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="159"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="159"/>
+      <c r="AD34" s="159"/>
+      <c r="AE34" s="159"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="26"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="159" t="s">
         <v>513</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="106">
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="158">
         <v>8</v>
       </c>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106">
+      <c r="I35" s="158"/>
+      <c r="J35" s="158">
         <v>4</v>
       </c>
-      <c r="K35" s="106"/>
-      <c r="L35" s="104" t="s">
+      <c r="K35" s="158"/>
+      <c r="L35" s="159" t="s">
         <v>514</v>
       </c>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="159"/>
+      <c r="S35" s="159"/>
+      <c r="T35" s="159"/>
+      <c r="U35" s="159"/>
+      <c r="V35" s="159"/>
+      <c r="W35" s="159"/>
+      <c r="X35" s="159"/>
+      <c r="Y35" s="159"/>
+      <c r="Z35" s="159"/>
+      <c r="AA35" s="159"/>
+      <c r="AB35" s="159"/>
+      <c r="AC35" s="159"/>
+      <c r="AD35" s="159"/>
+      <c r="AE35" s="159"/>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L25:AE25"/>
+    <mergeCell ref="L24:AE24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L35:AE35"/>
+    <mergeCell ref="L27:AE27"/>
+    <mergeCell ref="L26:AE26"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L31:AE31"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L30:AE30"/>
+    <mergeCell ref="L32:AE32"/>
+    <mergeCell ref="L28:AE28"/>
+    <mergeCell ref="L33:AE33"/>
+    <mergeCell ref="L34:AE34"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="L29:AE29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
@@ -14209,62 +14260,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L31:AE31"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L30:AE30"/>
-    <mergeCell ref="L32:AE32"/>
-    <mergeCell ref="L28:AE28"/>
-    <mergeCell ref="L33:AE33"/>
-    <mergeCell ref="L34:AE34"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="L29:AE29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L35:AE35"/>
-    <mergeCell ref="L27:AE27"/>
-    <mergeCell ref="L26:AE26"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L25:AE25"/>
-    <mergeCell ref="L24:AE24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14831,1537 +14831,1537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="119" customWidth="1"/>
-    <col min="2" max="3" width="2.5703125" style="119"/>
-    <col min="4" max="4" width="5.28515625" style="119" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="119" customWidth="1"/>
-    <col min="6" max="9" width="2.5703125" style="119"/>
-    <col min="10" max="10" width="2.5703125" style="119" customWidth="1"/>
-    <col min="11" max="16384" width="2.5703125" style="119"/>
+    <col min="1" max="1" width="2.7109375" style="102" customWidth="1"/>
+    <col min="2" max="3" width="2.5703125" style="102"/>
+    <col min="4" max="4" width="5.28515625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="102" customWidth="1"/>
+    <col min="6" max="9" width="2.5703125" style="102"/>
+    <col min="10" max="10" width="2.5703125" style="102" customWidth="1"/>
+    <col min="11" max="16384" width="2.5703125" style="102"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:52">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="101" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:52">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="103" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:52">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="104" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="15" thickBot="1">
-      <c r="B7" s="122"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106" t="s">
         <v>1359</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="123" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="106" t="s">
         <v>1360</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="125"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="108"/>
     </row>
     <row r="8" spans="1:52" ht="15" thickTop="1">
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="109" t="s">
         <v>1361</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112" t="s">
         <v>1362</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="127"/>
-      <c r="AB8" s="127"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="127"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="127"/>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="127"/>
-      <c r="AK8" s="127"/>
-      <c r="AL8" s="127"/>
-      <c r="AM8" s="127"/>
-      <c r="AN8" s="127"/>
-      <c r="AO8" s="127"/>
-      <c r="AP8" s="127"/>
-      <c r="AQ8" s="127"/>
-      <c r="AR8" s="127"/>
-      <c r="AS8" s="127"/>
-      <c r="AT8" s="127"/>
-      <c r="AU8" s="127"/>
-      <c r="AV8" s="127"/>
-      <c r="AW8" s="128"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="111"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="113" t="s">
         <v>1363</v>
       </c>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
         <v>1364</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
-      <c r="AQ9" s="131"/>
-      <c r="AR9" s="131"/>
-      <c r="AS9" s="131"/>
-      <c r="AT9" s="131"/>
-      <c r="AU9" s="131"/>
-      <c r="AV9" s="131"/>
-      <c r="AW9" s="132"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="114"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="115"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="117" t="s">
         <v>1365</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120" t="s">
         <v>1366</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="135"/>
-      <c r="AK10" s="135"/>
-      <c r="AL10" s="135"/>
-      <c r="AM10" s="135"/>
-      <c r="AN10" s="135"/>
-      <c r="AO10" s="135"/>
-      <c r="AP10" s="135"/>
-      <c r="AQ10" s="135"/>
-      <c r="AR10" s="135"/>
-      <c r="AS10" s="135"/>
-      <c r="AT10" s="135"/>
-      <c r="AU10" s="135"/>
-      <c r="AV10" s="135"/>
-      <c r="AW10" s="136"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="118"/>
+      <c r="AU10" s="118"/>
+      <c r="AV10" s="118"/>
+      <c r="AW10" s="119"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="104" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="121" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="15" spans="1:52" ht="15" thickBot="1">
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="122" t="s">
         <v>1369</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="106" t="s">
         <v>1360</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="140" t="s">
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="123" t="s">
         <v>1370</v>
       </c>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="124"/>
-      <c r="AZ15" s="125"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="108"/>
     </row>
     <row r="16" spans="1:52" ht="15" thickTop="1">
-      <c r="A16" s="141"/>
-      <c r="C16" s="126" t="s">
+      <c r="A16" s="124"/>
+      <c r="C16" s="109" t="s">
         <v>1371</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="120" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="103" t="s">
         <v>1372</v>
       </c>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="142" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="125" t="s">
         <v>1373</v>
       </c>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="127"/>
-      <c r="AM16" s="127"/>
-      <c r="AN16" s="127"/>
-      <c r="AO16" s="127"/>
-      <c r="AP16" s="127"/>
-      <c r="AQ16" s="127"/>
-      <c r="AR16" s="127"/>
-      <c r="AS16" s="127"/>
-      <c r="AT16" s="127"/>
-      <c r="AU16" s="127"/>
-      <c r="AV16" s="127"/>
-      <c r="AW16" s="127"/>
-      <c r="AX16" s="127"/>
-      <c r="AY16" s="127"/>
-      <c r="AZ16" s="128"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AN16" s="110"/>
+      <c r="AO16" s="110"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="110"/>
+      <c r="AS16" s="110"/>
+      <c r="AT16" s="110"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="110"/>
+      <c r="AW16" s="110"/>
+      <c r="AX16" s="110"/>
+      <c r="AY16" s="110"/>
+      <c r="AZ16" s="111"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="141"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="143" t="s">
+      <c r="A17" s="124"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="126" t="s">
         <v>1374</v>
       </c>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="135"/>
-      <c r="AJ17" s="135"/>
-      <c r="AK17" s="135"/>
-      <c r="AL17" s="135"/>
-      <c r="AM17" s="135"/>
-      <c r="AN17" s="135"/>
-      <c r="AO17" s="135"/>
-      <c r="AP17" s="135"/>
-      <c r="AQ17" s="135"/>
-      <c r="AR17" s="135"/>
-      <c r="AS17" s="135"/>
-      <c r="AT17" s="135"/>
-      <c r="AU17" s="135"/>
-      <c r="AV17" s="135"/>
-      <c r="AW17" s="135"/>
-      <c r="AX17" s="135"/>
-      <c r="AY17" s="135"/>
-      <c r="AZ17" s="136"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="119"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="141"/>
-      <c r="C18" s="144" t="s">
+      <c r="A18" s="124"/>
+      <c r="C18" s="127" t="s">
         <v>1375</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="120" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="103" t="s">
         <v>1376</v>
       </c>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="147" t="s">
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="130" t="s">
         <v>1377</v>
       </c>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="145"/>
-      <c r="AN18" s="145"/>
-      <c r="AO18" s="145"/>
-      <c r="AP18" s="145"/>
-      <c r="AQ18" s="145"/>
-      <c r="AR18" s="145"/>
-      <c r="AS18" s="145"/>
-      <c r="AT18" s="145"/>
-      <c r="AU18" s="145"/>
-      <c r="AV18" s="145"/>
-      <c r="AW18" s="145"/>
-      <c r="AX18" s="145"/>
-      <c r="AY18" s="145"/>
-      <c r="AZ18" s="146"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="128"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128"/>
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="128"/>
+      <c r="AO18" s="128"/>
+      <c r="AP18" s="128"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128"/>
+      <c r="AV18" s="128"/>
+      <c r="AW18" s="128"/>
+      <c r="AX18" s="128"/>
+      <c r="AY18" s="128"/>
+      <c r="AZ18" s="129"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="141"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="148" t="s">
+      <c r="A19" s="124"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="131" t="s">
         <v>1378</v>
       </c>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="135"/>
-      <c r="AK19" s="135"/>
-      <c r="AL19" s="135"/>
-      <c r="AM19" s="135"/>
-      <c r="AN19" s="135"/>
-      <c r="AO19" s="135"/>
-      <c r="AP19" s="135"/>
-      <c r="AQ19" s="135"/>
-      <c r="AR19" s="135"/>
-      <c r="AS19" s="135"/>
-      <c r="AT19" s="135"/>
-      <c r="AU19" s="135"/>
-      <c r="AV19" s="135"/>
-      <c r="AW19" s="135"/>
-      <c r="AX19" s="135"/>
-      <c r="AY19" s="135"/>
-      <c r="AZ19" s="136"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
+      <c r="AY19" s="118"/>
+      <c r="AZ19" s="119"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="141"/>
-      <c r="C20" s="126" t="s">
+      <c r="A20" s="124"/>
+      <c r="C20" s="109" t="s">
         <v>1379</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="120" t="s">
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="103" t="s">
         <v>1380</v>
       </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="142" t="s">
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="125" t="s">
         <v>1381</v>
       </c>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-      <c r="AP20" s="127"/>
-      <c r="AQ20" s="127"/>
-      <c r="AR20" s="127"/>
-      <c r="AS20" s="127"/>
-      <c r="AT20" s="127"/>
-      <c r="AU20" s="127"/>
-      <c r="AV20" s="127"/>
-      <c r="AW20" s="127"/>
-      <c r="AX20" s="127"/>
-      <c r="AY20" s="127"/>
-      <c r="AZ20" s="128"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AN20" s="110"/>
+      <c r="AO20" s="110"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="110"/>
+      <c r="AR20" s="110"/>
+      <c r="AS20" s="110"/>
+      <c r="AT20" s="110"/>
+      <c r="AU20" s="110"/>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="111"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="141"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="137" t="s">
+      <c r="A21" s="124"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="120" t="s">
         <v>1382</v>
       </c>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="135"/>
-      <c r="AJ21" s="135"/>
-      <c r="AK21" s="135"/>
-      <c r="AL21" s="135"/>
-      <c r="AM21" s="135"/>
-      <c r="AN21" s="135"/>
-      <c r="AO21" s="135"/>
-      <c r="AP21" s="135"/>
-      <c r="AQ21" s="135"/>
-      <c r="AR21" s="135"/>
-      <c r="AS21" s="135"/>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="135"/>
-      <c r="AX21" s="135"/>
-      <c r="AY21" s="135"/>
-      <c r="AZ21" s="136"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="118"/>
+      <c r="AU21" s="118"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
+      <c r="AY21" s="118"/>
+      <c r="AZ21" s="119"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="141"/>
+      <c r="A22" s="124"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="141"/>
-      <c r="B23" s="118" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="101" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="121" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="26" spans="1:52" ht="15" thickBot="1">
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="122" t="s">
         <v>1385</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150" t="s">
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133" t="s">
         <v>1361</v>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="140" t="s">
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="123" t="s">
         <v>1386</v>
       </c>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="153" t="s">
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="136" t="s">
         <v>1365</v>
       </c>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="125"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="108"/>
     </row>
     <row r="27" spans="1:52" ht="15" thickTop="1">
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="117" t="s">
         <v>1371</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155" t="s">
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138" t="s">
         <v>1387</v>
       </c>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="135" t="s">
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="118" t="s">
         <v>1388</v>
       </c>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="134" t="s">
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="117" t="s">
         <v>1388</v>
       </c>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="136"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="119"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="117" t="s">
         <v>1375</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="155" t="s">
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="138" t="s">
         <v>1388</v>
       </c>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="135" t="s">
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="118" t="s">
         <v>1387</v>
       </c>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="134" t="s">
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="117" t="s">
         <v>1388</v>
       </c>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="136"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="119"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="117" t="s">
         <v>1379</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="155" t="s">
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="138" t="s">
         <v>1387</v>
       </c>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="135" t="s">
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="118" t="s">
         <v>1387</v>
       </c>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="134" t="s">
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="117" t="s">
         <v>1388</v>
       </c>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="136"/>
-      <c r="AC29" s="158"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="119"/>
+      <c r="AC29" s="141"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="104" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="121" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="34" spans="1:70">
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="104" t="s">
         <v>1391</v>
       </c>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
     </row>
     <row r="36" spans="1:70">
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="101" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="37" spans="1:70">
-      <c r="D37" s="122"/>
-      <c r="E37" s="120" t="s">
+      <c r="D37" s="105"/>
+      <c r="E37" s="103" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="38" spans="1:70">
-      <c r="D38" s="122"/>
+      <c r="D38" s="105"/>
     </row>
     <row r="39" spans="1:70" ht="15" thickBot="1">
-      <c r="E39" s="123" t="s">
+      <c r="E39" s="106" t="s">
         <v>1394</v>
       </c>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="123" t="s">
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="159" t="s">
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="142" t="s">
         <v>1396</v>
       </c>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
-      <c r="AD39" s="124"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="124"/>
-      <c r="AH39" s="124"/>
-      <c r="AI39" s="124"/>
-      <c r="AJ39" s="124"/>
-      <c r="AK39" s="124"/>
-      <c r="AL39" s="124"/>
-      <c r="AM39" s="123" t="s">
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="107"/>
+      <c r="AJ39" s="107"/>
+      <c r="AK39" s="107"/>
+      <c r="AL39" s="107"/>
+      <c r="AM39" s="106" t="s">
         <v>1397</v>
       </c>
-      <c r="AN39" s="124"/>
-      <c r="AO39" s="124"/>
-      <c r="AP39" s="124"/>
-      <c r="AQ39" s="124"/>
-      <c r="AR39" s="124"/>
-      <c r="AS39" s="124"/>
-      <c r="AT39" s="124"/>
-      <c r="AU39" s="124"/>
-      <c r="AV39" s="124"/>
-      <c r="AW39" s="124"/>
-      <c r="AX39" s="124"/>
-      <c r="AY39" s="124"/>
-      <c r="AZ39" s="124"/>
-      <c r="BA39" s="124"/>
-      <c r="BB39" s="124"/>
-      <c r="BC39" s="124"/>
-      <c r="BD39" s="124"/>
-      <c r="BE39" s="124"/>
-      <c r="BF39" s="124"/>
-      <c r="BG39" s="124"/>
-      <c r="BH39" s="124"/>
-      <c r="BI39" s="124"/>
-      <c r="BJ39" s="124"/>
-      <c r="BK39" s="124"/>
-      <c r="BL39" s="124"/>
-      <c r="BM39" s="124"/>
-      <c r="BN39" s="124"/>
-      <c r="BO39" s="124"/>
-      <c r="BP39" s="124"/>
-      <c r="BQ39" s="124"/>
-      <c r="BR39" s="125"/>
+      <c r="AN39" s="107"/>
+      <c r="AO39" s="107"/>
+      <c r="AP39" s="107"/>
+      <c r="AQ39" s="107"/>
+      <c r="AR39" s="107"/>
+      <c r="AS39" s="107"/>
+      <c r="AT39" s="107"/>
+      <c r="AU39" s="107"/>
+      <c r="AV39" s="107"/>
+      <c r="AW39" s="107"/>
+      <c r="AX39" s="107"/>
+      <c r="AY39" s="107"/>
+      <c r="AZ39" s="107"/>
+      <c r="BA39" s="107"/>
+      <c r="BB39" s="107"/>
+      <c r="BC39" s="107"/>
+      <c r="BD39" s="107"/>
+      <c r="BE39" s="107"/>
+      <c r="BF39" s="107"/>
+      <c r="BG39" s="107"/>
+      <c r="BH39" s="107"/>
+      <c r="BI39" s="107"/>
+      <c r="BJ39" s="107"/>
+      <c r="BK39" s="107"/>
+      <c r="BL39" s="107"/>
+      <c r="BM39" s="107"/>
+      <c r="BN39" s="107"/>
+      <c r="BO39" s="107"/>
+      <c r="BP39" s="107"/>
+      <c r="BQ39" s="107"/>
+      <c r="BR39" s="108"/>
     </row>
     <row r="40" spans="1:70" ht="15" thickTop="1">
-      <c r="A40" s="141"/>
-      <c r="E40" s="134" t="s">
+      <c r="A40" s="124"/>
+      <c r="E40" s="117" t="s">
         <v>1398</v>
       </c>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="137" t="s">
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="120" t="s">
         <v>1399</v>
       </c>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="160" t="s">
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="143" t="s">
         <v>1400</v>
       </c>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="135"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="135"/>
-      <c r="AD40" s="135"/>
-      <c r="AE40" s="135"/>
-      <c r="AF40" s="135"/>
-      <c r="AG40" s="135"/>
-      <c r="AH40" s="135"/>
-      <c r="AI40" s="135"/>
-      <c r="AJ40" s="135"/>
-      <c r="AK40" s="135"/>
-      <c r="AL40" s="135"/>
-      <c r="AM40" s="137" t="s">
+      <c r="T40" s="118"/>
+      <c r="U40" s="118"/>
+      <c r="V40" s="118"/>
+      <c r="W40" s="118"/>
+      <c r="X40" s="118"/>
+      <c r="Y40" s="118"/>
+      <c r="Z40" s="118"/>
+      <c r="AA40" s="118"/>
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="118"/>
+      <c r="AD40" s="118"/>
+      <c r="AE40" s="118"/>
+      <c r="AF40" s="118"/>
+      <c r="AG40" s="118"/>
+      <c r="AH40" s="118"/>
+      <c r="AI40" s="118"/>
+      <c r="AJ40" s="118"/>
+      <c r="AK40" s="118"/>
+      <c r="AL40" s="118"/>
+      <c r="AM40" s="120" t="s">
         <v>1401</v>
       </c>
-      <c r="AN40" s="135"/>
-      <c r="AO40" s="135"/>
-      <c r="AP40" s="135"/>
-      <c r="AQ40" s="135"/>
-      <c r="AR40" s="135"/>
-      <c r="AS40" s="135"/>
-      <c r="AT40" s="135"/>
-      <c r="AU40" s="135"/>
-      <c r="AV40" s="135"/>
-      <c r="AW40" s="135"/>
-      <c r="AX40" s="135"/>
-      <c r="AY40" s="135"/>
-      <c r="AZ40" s="135"/>
-      <c r="BA40" s="135"/>
-      <c r="BB40" s="135"/>
-      <c r="BC40" s="135"/>
-      <c r="BD40" s="135"/>
-      <c r="BE40" s="135"/>
-      <c r="BF40" s="135"/>
-      <c r="BG40" s="135"/>
-      <c r="BH40" s="135"/>
-      <c r="BI40" s="135"/>
-      <c r="BJ40" s="135"/>
-      <c r="BK40" s="135"/>
-      <c r="BL40" s="135"/>
-      <c r="BM40" s="135"/>
-      <c r="BN40" s="135"/>
-      <c r="BO40" s="135"/>
-      <c r="BP40" s="135"/>
-      <c r="BQ40" s="135"/>
-      <c r="BR40" s="136"/>
+      <c r="AN40" s="118"/>
+      <c r="AO40" s="118"/>
+      <c r="AP40" s="118"/>
+      <c r="AQ40" s="118"/>
+      <c r="AR40" s="118"/>
+      <c r="AS40" s="118"/>
+      <c r="AT40" s="118"/>
+      <c r="AU40" s="118"/>
+      <c r="AV40" s="118"/>
+      <c r="AW40" s="118"/>
+      <c r="AX40" s="118"/>
+      <c r="AY40" s="118"/>
+      <c r="AZ40" s="118"/>
+      <c r="BA40" s="118"/>
+      <c r="BB40" s="118"/>
+      <c r="BC40" s="118"/>
+      <c r="BD40" s="118"/>
+      <c r="BE40" s="118"/>
+      <c r="BF40" s="118"/>
+      <c r="BG40" s="118"/>
+      <c r="BH40" s="118"/>
+      <c r="BI40" s="118"/>
+      <c r="BJ40" s="118"/>
+      <c r="BK40" s="118"/>
+      <c r="BL40" s="118"/>
+      <c r="BM40" s="118"/>
+      <c r="BN40" s="118"/>
+      <c r="BO40" s="118"/>
+      <c r="BP40" s="118"/>
+      <c r="BQ40" s="118"/>
+      <c r="BR40" s="119"/>
     </row>
     <row r="41" spans="1:70">
-      <c r="A41" s="141"/>
-      <c r="E41" s="134" t="s">
+      <c r="A41" s="124"/>
+      <c r="E41" s="117" t="s">
         <v>1402</v>
       </c>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="137" t="s">
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="120" t="s">
         <v>1403</v>
       </c>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="160" t="s">
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="143" t="s">
         <v>1404</v>
       </c>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="135"/>
-      <c r="AA41" s="135"/>
-      <c r="AB41" s="135"/>
-      <c r="AC41" s="135"/>
-      <c r="AD41" s="135"/>
-      <c r="AE41" s="135"/>
-      <c r="AF41" s="135"/>
-      <c r="AG41" s="135"/>
-      <c r="AH41" s="135"/>
-      <c r="AI41" s="135"/>
-      <c r="AJ41" s="135"/>
-      <c r="AK41" s="135"/>
-      <c r="AL41" s="135"/>
-      <c r="AM41" s="137" t="s">
+      <c r="T41" s="118"/>
+      <c r="U41" s="118"/>
+      <c r="V41" s="118"/>
+      <c r="W41" s="118"/>
+      <c r="X41" s="118"/>
+      <c r="Y41" s="118"/>
+      <c r="Z41" s="118"/>
+      <c r="AA41" s="118"/>
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="118"/>
+      <c r="AD41" s="118"/>
+      <c r="AE41" s="118"/>
+      <c r="AF41" s="118"/>
+      <c r="AG41" s="118"/>
+      <c r="AH41" s="118"/>
+      <c r="AI41" s="118"/>
+      <c r="AJ41" s="118"/>
+      <c r="AK41" s="118"/>
+      <c r="AL41" s="118"/>
+      <c r="AM41" s="120" t="s">
         <v>1405</v>
       </c>
-      <c r="AN41" s="135"/>
-      <c r="AO41" s="135"/>
-      <c r="AP41" s="135"/>
-      <c r="AQ41" s="135"/>
-      <c r="AR41" s="135"/>
-      <c r="AS41" s="135"/>
-      <c r="AT41" s="135"/>
-      <c r="AU41" s="135"/>
-      <c r="AV41" s="135"/>
-      <c r="AW41" s="135"/>
-      <c r="AX41" s="135"/>
-      <c r="AY41" s="135"/>
-      <c r="AZ41" s="135"/>
-      <c r="BA41" s="135"/>
-      <c r="BB41" s="135"/>
-      <c r="BC41" s="135"/>
-      <c r="BD41" s="135"/>
-      <c r="BE41" s="135"/>
-      <c r="BF41" s="135"/>
-      <c r="BG41" s="135"/>
-      <c r="BH41" s="135"/>
-      <c r="BI41" s="135"/>
-      <c r="BJ41" s="135"/>
-      <c r="BK41" s="135"/>
-      <c r="BL41" s="135"/>
-      <c r="BM41" s="135"/>
-      <c r="BN41" s="135"/>
-      <c r="BO41" s="135"/>
-      <c r="BP41" s="135"/>
-      <c r="BQ41" s="135"/>
-      <c r="BR41" s="136"/>
+      <c r="AN41" s="118"/>
+      <c r="AO41" s="118"/>
+      <c r="AP41" s="118"/>
+      <c r="AQ41" s="118"/>
+      <c r="AR41" s="118"/>
+      <c r="AS41" s="118"/>
+      <c r="AT41" s="118"/>
+      <c r="AU41" s="118"/>
+      <c r="AV41" s="118"/>
+      <c r="AW41" s="118"/>
+      <c r="AX41" s="118"/>
+      <c r="AY41" s="118"/>
+      <c r="AZ41" s="118"/>
+      <c r="BA41" s="118"/>
+      <c r="BB41" s="118"/>
+      <c r="BC41" s="118"/>
+      <c r="BD41" s="118"/>
+      <c r="BE41" s="118"/>
+      <c r="BF41" s="118"/>
+      <c r="BG41" s="118"/>
+      <c r="BH41" s="118"/>
+      <c r="BI41" s="118"/>
+      <c r="BJ41" s="118"/>
+      <c r="BK41" s="118"/>
+      <c r="BL41" s="118"/>
+      <c r="BM41" s="118"/>
+      <c r="BN41" s="118"/>
+      <c r="BO41" s="118"/>
+      <c r="BP41" s="118"/>
+      <c r="BQ41" s="118"/>
+      <c r="BR41" s="119"/>
     </row>
     <row r="42" spans="1:70">
-      <c r="A42" s="141"/>
+      <c r="A42" s="124"/>
     </row>
     <row r="43" spans="1:70">
-      <c r="A43" s="141"/>
-      <c r="D43" s="118" t="s">
+      <c r="A43" s="124"/>
+      <c r="D43" s="101" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="44" spans="1:70">
-      <c r="A44" s="141"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="120" t="s">
+      <c r="A44" s="124"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="103" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="45" spans="1:70">
-      <c r="A45" s="141"/>
-      <c r="D45" s="122"/>
+      <c r="A45" s="124"/>
+      <c r="D45" s="105"/>
     </row>
     <row r="46" spans="1:70" ht="15" thickBot="1">
-      <c r="A46" s="141"/>
-      <c r="E46" s="123" t="s">
+      <c r="A46" s="124"/>
+      <c r="E46" s="106" t="s">
         <v>1394</v>
       </c>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="123" t="s">
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="159" t="s">
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="142" t="s">
         <v>1408</v>
       </c>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="124"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="124"/>
-      <c r="AH46" s="124"/>
-      <c r="AI46" s="124"/>
-      <c r="AJ46" s="124"/>
-      <c r="AK46" s="124"/>
-      <c r="AL46" s="124"/>
-      <c r="AM46" s="139" t="s">
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="107"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="107"/>
+      <c r="AG46" s="107"/>
+      <c r="AH46" s="107"/>
+      <c r="AI46" s="107"/>
+      <c r="AJ46" s="107"/>
+      <c r="AK46" s="107"/>
+      <c r="AL46" s="107"/>
+      <c r="AM46" s="122" t="s">
         <v>1409</v>
       </c>
-      <c r="AN46" s="124"/>
-      <c r="AO46" s="124"/>
-      <c r="AP46" s="124"/>
-      <c r="AQ46" s="124"/>
-      <c r="AR46" s="124"/>
-      <c r="AS46" s="124"/>
-      <c r="AT46" s="124"/>
-      <c r="AU46" s="124"/>
-      <c r="AV46" s="124"/>
-      <c r="AW46" s="124"/>
-      <c r="AX46" s="124"/>
-      <c r="AY46" s="124"/>
-      <c r="AZ46" s="124"/>
-      <c r="BA46" s="124"/>
-      <c r="BB46" s="124"/>
-      <c r="BC46" s="124"/>
-      <c r="BD46" s="124"/>
-      <c r="BE46" s="124"/>
-      <c r="BF46" s="124"/>
-      <c r="BG46" s="124"/>
-      <c r="BH46" s="124"/>
-      <c r="BI46" s="124"/>
-      <c r="BJ46" s="124"/>
-      <c r="BK46" s="124"/>
-      <c r="BL46" s="124"/>
-      <c r="BM46" s="124"/>
-      <c r="BN46" s="124"/>
-      <c r="BO46" s="124"/>
-      <c r="BP46" s="124"/>
-      <c r="BQ46" s="124"/>
-      <c r="BR46" s="125"/>
+      <c r="AN46" s="107"/>
+      <c r="AO46" s="107"/>
+      <c r="AP46" s="107"/>
+      <c r="AQ46" s="107"/>
+      <c r="AR46" s="107"/>
+      <c r="AS46" s="107"/>
+      <c r="AT46" s="107"/>
+      <c r="AU46" s="107"/>
+      <c r="AV46" s="107"/>
+      <c r="AW46" s="107"/>
+      <c r="AX46" s="107"/>
+      <c r="AY46" s="107"/>
+      <c r="AZ46" s="107"/>
+      <c r="BA46" s="107"/>
+      <c r="BB46" s="107"/>
+      <c r="BC46" s="107"/>
+      <c r="BD46" s="107"/>
+      <c r="BE46" s="107"/>
+      <c r="BF46" s="107"/>
+      <c r="BG46" s="107"/>
+      <c r="BH46" s="107"/>
+      <c r="BI46" s="107"/>
+      <c r="BJ46" s="107"/>
+      <c r="BK46" s="107"/>
+      <c r="BL46" s="107"/>
+      <c r="BM46" s="107"/>
+      <c r="BN46" s="107"/>
+      <c r="BO46" s="107"/>
+      <c r="BP46" s="107"/>
+      <c r="BQ46" s="107"/>
+      <c r="BR46" s="108"/>
     </row>
     <row r="47" spans="1:70" ht="15" thickTop="1">
-      <c r="A47" s="141"/>
-      <c r="E47" s="134" t="s">
+      <c r="A47" s="124"/>
+      <c r="E47" s="117" t="s">
         <v>1410</v>
       </c>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="137" t="s">
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="120" t="s">
         <v>1411</v>
       </c>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="135"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="136"/>
-      <c r="S47" s="160" t="s">
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="143" t="s">
         <v>1412</v>
       </c>
-      <c r="T47" s="135"/>
-      <c r="U47" s="135"/>
-      <c r="V47" s="135"/>
-      <c r="W47" s="135"/>
-      <c r="X47" s="135"/>
-      <c r="Y47" s="135"/>
-      <c r="Z47" s="135"/>
-      <c r="AA47" s="135"/>
-      <c r="AB47" s="135"/>
-      <c r="AC47" s="135"/>
-      <c r="AD47" s="135"/>
-      <c r="AE47" s="135"/>
-      <c r="AF47" s="135"/>
-      <c r="AG47" s="135"/>
-      <c r="AH47" s="135"/>
-      <c r="AI47" s="135"/>
-      <c r="AJ47" s="135"/>
-      <c r="AK47" s="135"/>
-      <c r="AL47" s="135"/>
-      <c r="AM47" s="161" t="s">
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="118"/>
+      <c r="AB47" s="118"/>
+      <c r="AC47" s="118"/>
+      <c r="AD47" s="118"/>
+      <c r="AE47" s="118"/>
+      <c r="AF47" s="118"/>
+      <c r="AG47" s="118"/>
+      <c r="AH47" s="118"/>
+      <c r="AI47" s="118"/>
+      <c r="AJ47" s="118"/>
+      <c r="AK47" s="118"/>
+      <c r="AL47" s="118"/>
+      <c r="AM47" s="144" t="s">
         <v>1413</v>
       </c>
-      <c r="AN47" s="135"/>
-      <c r="AO47" s="135"/>
-      <c r="AP47" s="135"/>
-      <c r="AQ47" s="135"/>
-      <c r="AR47" s="135"/>
-      <c r="AS47" s="135"/>
-      <c r="AT47" s="135"/>
-      <c r="AU47" s="135"/>
-      <c r="AV47" s="135"/>
-      <c r="AW47" s="135"/>
-      <c r="AX47" s="135"/>
-      <c r="AY47" s="135"/>
-      <c r="AZ47" s="135"/>
-      <c r="BA47" s="135"/>
-      <c r="BB47" s="135"/>
-      <c r="BC47" s="135"/>
-      <c r="BD47" s="135"/>
-      <c r="BE47" s="135"/>
-      <c r="BF47" s="135"/>
-      <c r="BG47" s="135"/>
-      <c r="BH47" s="135"/>
-      <c r="BI47" s="135"/>
-      <c r="BJ47" s="135"/>
-      <c r="BK47" s="135"/>
-      <c r="BL47" s="135"/>
-      <c r="BM47" s="135"/>
-      <c r="BN47" s="135"/>
-      <c r="BO47" s="135"/>
-      <c r="BP47" s="135"/>
-      <c r="BQ47" s="135"/>
-      <c r="BR47" s="136"/>
+      <c r="AN47" s="118"/>
+      <c r="AO47" s="118"/>
+      <c r="AP47" s="118"/>
+      <c r="AQ47" s="118"/>
+      <c r="AR47" s="118"/>
+      <c r="AS47" s="118"/>
+      <c r="AT47" s="118"/>
+      <c r="AU47" s="118"/>
+      <c r="AV47" s="118"/>
+      <c r="AW47" s="118"/>
+      <c r="AX47" s="118"/>
+      <c r="AY47" s="118"/>
+      <c r="AZ47" s="118"/>
+      <c r="BA47" s="118"/>
+      <c r="BB47" s="118"/>
+      <c r="BC47" s="118"/>
+      <c r="BD47" s="118"/>
+      <c r="BE47" s="118"/>
+      <c r="BF47" s="118"/>
+      <c r="BG47" s="118"/>
+      <c r="BH47" s="118"/>
+      <c r="BI47" s="118"/>
+      <c r="BJ47" s="118"/>
+      <c r="BK47" s="118"/>
+      <c r="BL47" s="118"/>
+      <c r="BM47" s="118"/>
+      <c r="BN47" s="118"/>
+      <c r="BO47" s="118"/>
+      <c r="BP47" s="118"/>
+      <c r="BQ47" s="118"/>
+      <c r="BR47" s="119"/>
     </row>
     <row r="48" spans="1:70">
-      <c r="A48" s="141"/>
-      <c r="E48" s="126" t="s">
+      <c r="A48" s="124"/>
+      <c r="E48" s="109" t="s">
         <v>1414</v>
       </c>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="129" t="s">
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="112" t="s">
         <v>1415</v>
       </c>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="127"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="128"/>
-      <c r="S48" s="162" t="s">
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="145" t="s">
         <v>1416</v>
       </c>
-      <c r="T48" s="127"/>
-      <c r="U48" s="127"/>
-      <c r="V48" s="127"/>
-      <c r="W48" s="127"/>
-      <c r="X48" s="127"/>
-      <c r="Y48" s="127"/>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
-      <c r="AC48" s="127"/>
-      <c r="AD48" s="127"/>
-      <c r="AE48" s="127"/>
-      <c r="AF48" s="127"/>
-      <c r="AG48" s="127"/>
-      <c r="AH48" s="127"/>
-      <c r="AI48" s="127"/>
-      <c r="AJ48" s="127"/>
-      <c r="AK48" s="127"/>
-      <c r="AL48" s="127"/>
-      <c r="AM48" s="138" t="s">
+      <c r="T48" s="110"/>
+      <c r="U48" s="110"/>
+      <c r="V48" s="110"/>
+      <c r="W48" s="110"/>
+      <c r="X48" s="110"/>
+      <c r="Y48" s="110"/>
+      <c r="Z48" s="110"/>
+      <c r="AA48" s="110"/>
+      <c r="AB48" s="110"/>
+      <c r="AC48" s="110"/>
+      <c r="AD48" s="110"/>
+      <c r="AE48" s="110"/>
+      <c r="AF48" s="110"/>
+      <c r="AG48" s="110"/>
+      <c r="AH48" s="110"/>
+      <c r="AI48" s="110"/>
+      <c r="AJ48" s="110"/>
+      <c r="AK48" s="110"/>
+      <c r="AL48" s="110"/>
+      <c r="AM48" s="121" t="s">
         <v>1417</v>
       </c>
-      <c r="AN48" s="127"/>
-      <c r="AO48" s="127"/>
-      <c r="AP48" s="127"/>
-      <c r="AQ48" s="127"/>
-      <c r="AR48" s="127"/>
-      <c r="AS48" s="127"/>
-      <c r="AT48" s="127"/>
-      <c r="AU48" s="127"/>
-      <c r="AV48" s="127"/>
-      <c r="AW48" s="127"/>
-      <c r="AX48" s="127"/>
-      <c r="AY48" s="127"/>
-      <c r="AZ48" s="127"/>
-      <c r="BA48" s="127"/>
-      <c r="BB48" s="127"/>
-      <c r="BC48" s="127"/>
-      <c r="BD48" s="127"/>
-      <c r="BE48" s="127"/>
-      <c r="BF48" s="127"/>
-      <c r="BG48" s="127"/>
-      <c r="BH48" s="127"/>
-      <c r="BI48" s="127"/>
-      <c r="BJ48" s="127"/>
-      <c r="BK48" s="127"/>
-      <c r="BL48" s="127"/>
-      <c r="BM48" s="127"/>
-      <c r="BN48" s="127"/>
-      <c r="BO48" s="127"/>
-      <c r="BP48" s="127"/>
-      <c r="BQ48" s="127"/>
-      <c r="BR48" s="128"/>
+      <c r="AN48" s="110"/>
+      <c r="AO48" s="110"/>
+      <c r="AP48" s="110"/>
+      <c r="AQ48" s="110"/>
+      <c r="AR48" s="110"/>
+      <c r="AS48" s="110"/>
+      <c r="AT48" s="110"/>
+      <c r="AU48" s="110"/>
+      <c r="AV48" s="110"/>
+      <c r="AW48" s="110"/>
+      <c r="AX48" s="110"/>
+      <c r="AY48" s="110"/>
+      <c r="AZ48" s="110"/>
+      <c r="BA48" s="110"/>
+      <c r="BB48" s="110"/>
+      <c r="BC48" s="110"/>
+      <c r="BD48" s="110"/>
+      <c r="BE48" s="110"/>
+      <c r="BF48" s="110"/>
+      <c r="BG48" s="110"/>
+      <c r="BH48" s="110"/>
+      <c r="BI48" s="110"/>
+      <c r="BJ48" s="110"/>
+      <c r="BK48" s="110"/>
+      <c r="BL48" s="110"/>
+      <c r="BM48" s="110"/>
+      <c r="BN48" s="110"/>
+      <c r="BO48" s="110"/>
+      <c r="BP48" s="110"/>
+      <c r="BQ48" s="110"/>
+      <c r="BR48" s="111"/>
     </row>
     <row r="49" spans="1:70">
-      <c r="A49" s="141"/>
-      <c r="E49" s="163" t="s">
+      <c r="A49" s="124"/>
+      <c r="E49" s="146" t="s">
         <v>1418</v>
       </c>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="133" t="s">
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="116" t="s">
         <v>1419</v>
       </c>
-      <c r="I49" s="131"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="131"/>
-      <c r="P49" s="131"/>
-      <c r="Q49" s="131"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="164" t="s">
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="147" t="s">
         <v>1420</v>
       </c>
-      <c r="T49" s="131"/>
-      <c r="U49" s="131"/>
-      <c r="V49" s="131"/>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="131"/>
-      <c r="AB49" s="131"/>
-      <c r="AC49" s="131"/>
-      <c r="AD49" s="131"/>
-      <c r="AE49" s="131"/>
-      <c r="AF49" s="131"/>
-      <c r="AG49" s="131"/>
-      <c r="AH49" s="131"/>
-      <c r="AI49" s="131"/>
-      <c r="AJ49" s="131"/>
-      <c r="AK49" s="131"/>
-      <c r="AL49" s="131"/>
-      <c r="AM49" s="165" t="s">
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114"/>
+      <c r="AB49" s="114"/>
+      <c r="AC49" s="114"/>
+      <c r="AD49" s="114"/>
+      <c r="AE49" s="114"/>
+      <c r="AF49" s="114"/>
+      <c r="AG49" s="114"/>
+      <c r="AH49" s="114"/>
+      <c r="AI49" s="114"/>
+      <c r="AJ49" s="114"/>
+      <c r="AK49" s="114"/>
+      <c r="AL49" s="114"/>
+      <c r="AM49" s="148" t="s">
         <v>1421</v>
       </c>
-      <c r="AN49" s="131"/>
-      <c r="AO49" s="131"/>
-      <c r="AP49" s="131"/>
-      <c r="AQ49" s="131"/>
-      <c r="AR49" s="131"/>
-      <c r="AS49" s="131"/>
-      <c r="AT49" s="131"/>
-      <c r="AU49" s="131"/>
-      <c r="AV49" s="131"/>
-      <c r="AW49" s="131"/>
-      <c r="AX49" s="131"/>
-      <c r="AY49" s="131"/>
-      <c r="AZ49" s="131"/>
-      <c r="BA49" s="131"/>
-      <c r="BB49" s="131"/>
-      <c r="BC49" s="131"/>
-      <c r="BD49" s="131"/>
-      <c r="BE49" s="131"/>
-      <c r="BF49" s="131"/>
-      <c r="BG49" s="131"/>
-      <c r="BH49" s="131"/>
-      <c r="BI49" s="131"/>
-      <c r="BJ49" s="131"/>
-      <c r="BK49" s="131"/>
-      <c r="BL49" s="131"/>
-      <c r="BM49" s="131"/>
-      <c r="BN49" s="131"/>
-      <c r="BO49" s="131"/>
-      <c r="BP49" s="131"/>
-      <c r="BQ49" s="131"/>
-      <c r="BR49" s="132"/>
+      <c r="AN49" s="114"/>
+      <c r="AO49" s="114"/>
+      <c r="AP49" s="114"/>
+      <c r="AQ49" s="114"/>
+      <c r="AR49" s="114"/>
+      <c r="AS49" s="114"/>
+      <c r="AT49" s="114"/>
+      <c r="AU49" s="114"/>
+      <c r="AV49" s="114"/>
+      <c r="AW49" s="114"/>
+      <c r="AX49" s="114"/>
+      <c r="AY49" s="114"/>
+      <c r="AZ49" s="114"/>
+      <c r="BA49" s="114"/>
+      <c r="BB49" s="114"/>
+      <c r="BC49" s="114"/>
+      <c r="BD49" s="114"/>
+      <c r="BE49" s="114"/>
+      <c r="BF49" s="114"/>
+      <c r="BG49" s="114"/>
+      <c r="BH49" s="114"/>
+      <c r="BI49" s="114"/>
+      <c r="BJ49" s="114"/>
+      <c r="BK49" s="114"/>
+      <c r="BL49" s="114"/>
+      <c r="BM49" s="114"/>
+      <c r="BN49" s="114"/>
+      <c r="BO49" s="114"/>
+      <c r="BP49" s="114"/>
+      <c r="BQ49" s="114"/>
+      <c r="BR49" s="115"/>
     </row>
     <row r="50" spans="1:70">
-      <c r="A50" s="141"/>
-      <c r="E50" s="126" t="s">
+      <c r="A50" s="124"/>
+      <c r="E50" s="109" t="s">
         <v>1422</v>
       </c>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="129" t="s">
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="112" t="s">
         <v>1423</v>
       </c>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="128"/>
-      <c r="S50" s="162" t="s">
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="145" t="s">
         <v>1424</v>
       </c>
-      <c r="T50" s="127"/>
-      <c r="U50" s="127"/>
-      <c r="V50" s="127"/>
-      <c r="W50" s="127"/>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
-      <c r="AC50" s="127"/>
-      <c r="AD50" s="127"/>
-      <c r="AE50" s="127"/>
-      <c r="AF50" s="127"/>
-      <c r="AG50" s="127"/>
-      <c r="AH50" s="127"/>
-      <c r="AI50" s="127"/>
-      <c r="AJ50" s="127"/>
-      <c r="AK50" s="127"/>
-      <c r="AL50" s="127"/>
-      <c r="AM50" s="166" t="s">
+      <c r="T50" s="110"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="110"/>
+      <c r="X50" s="110"/>
+      <c r="Y50" s="110"/>
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
+      <c r="AC50" s="110"/>
+      <c r="AD50" s="110"/>
+      <c r="AE50" s="110"/>
+      <c r="AF50" s="110"/>
+      <c r="AG50" s="110"/>
+      <c r="AH50" s="110"/>
+      <c r="AI50" s="110"/>
+      <c r="AJ50" s="110"/>
+      <c r="AK50" s="110"/>
+      <c r="AL50" s="110"/>
+      <c r="AM50" s="149" t="s">
         <v>1425</v>
       </c>
-      <c r="AN50" s="127"/>
-      <c r="AO50" s="127"/>
-      <c r="AP50" s="127"/>
-      <c r="AQ50" s="127"/>
-      <c r="AR50" s="127"/>
-      <c r="AS50" s="127"/>
-      <c r="AT50" s="127"/>
-      <c r="AU50" s="127"/>
-      <c r="AV50" s="127"/>
-      <c r="AW50" s="127"/>
-      <c r="AX50" s="127"/>
-      <c r="AY50" s="127"/>
-      <c r="AZ50" s="127"/>
-      <c r="BA50" s="127"/>
-      <c r="BB50" s="127"/>
-      <c r="BC50" s="127"/>
-      <c r="BD50" s="127"/>
-      <c r="BE50" s="127"/>
-      <c r="BF50" s="127"/>
-      <c r="BG50" s="127"/>
-      <c r="BH50" s="127"/>
-      <c r="BI50" s="127"/>
-      <c r="BJ50" s="127"/>
-      <c r="BK50" s="127"/>
-      <c r="BL50" s="127"/>
-      <c r="BM50" s="127"/>
-      <c r="BN50" s="127"/>
-      <c r="BO50" s="127"/>
-      <c r="BP50" s="127"/>
-      <c r="BQ50" s="127"/>
-      <c r="BR50" s="128"/>
+      <c r="AN50" s="110"/>
+      <c r="AO50" s="110"/>
+      <c r="AP50" s="110"/>
+      <c r="AQ50" s="110"/>
+      <c r="AR50" s="110"/>
+      <c r="AS50" s="110"/>
+      <c r="AT50" s="110"/>
+      <c r="AU50" s="110"/>
+      <c r="AV50" s="110"/>
+      <c r="AW50" s="110"/>
+      <c r="AX50" s="110"/>
+      <c r="AY50" s="110"/>
+      <c r="AZ50" s="110"/>
+      <c r="BA50" s="110"/>
+      <c r="BB50" s="110"/>
+      <c r="BC50" s="110"/>
+      <c r="BD50" s="110"/>
+      <c r="BE50" s="110"/>
+      <c r="BF50" s="110"/>
+      <c r="BG50" s="110"/>
+      <c r="BH50" s="110"/>
+      <c r="BI50" s="110"/>
+      <c r="BJ50" s="110"/>
+      <c r="BK50" s="110"/>
+      <c r="BL50" s="110"/>
+      <c r="BM50" s="110"/>
+      <c r="BN50" s="110"/>
+      <c r="BO50" s="110"/>
+      <c r="BP50" s="110"/>
+      <c r="BQ50" s="110"/>
+      <c r="BR50" s="111"/>
     </row>
     <row r="51" spans="1:70">
-      <c r="A51" s="141"/>
-      <c r="E51" s="163" t="s">
+      <c r="A51" s="124"/>
+      <c r="E51" s="146" t="s">
         <v>1426</v>
       </c>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="133" t="s">
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="116" t="s">
         <v>1427</v>
       </c>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
-      <c r="P51" s="131"/>
-      <c r="Q51" s="131"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="164" t="s">
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="115"/>
+      <c r="S51" s="147" t="s">
         <v>1428</v>
       </c>
-      <c r="T51" s="131"/>
-      <c r="U51" s="131"/>
-      <c r="V51" s="131"/>
-      <c r="W51" s="131"/>
-      <c r="X51" s="131"/>
-      <c r="Y51" s="131"/>
-      <c r="Z51" s="131"/>
-      <c r="AA51" s="131"/>
-      <c r="AB51" s="131"/>
-      <c r="AC51" s="131"/>
-      <c r="AD51" s="131"/>
-      <c r="AE51" s="131"/>
-      <c r="AF51" s="131"/>
-      <c r="AG51" s="131"/>
-      <c r="AH51" s="131"/>
-      <c r="AI51" s="131"/>
-      <c r="AJ51" s="131"/>
-      <c r="AK51" s="131"/>
-      <c r="AL51" s="131"/>
-      <c r="AM51" s="165" t="s">
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="114"/>
+      <c r="AB51" s="114"/>
+      <c r="AC51" s="114"/>
+      <c r="AD51" s="114"/>
+      <c r="AE51" s="114"/>
+      <c r="AF51" s="114"/>
+      <c r="AG51" s="114"/>
+      <c r="AH51" s="114"/>
+      <c r="AI51" s="114"/>
+      <c r="AJ51" s="114"/>
+      <c r="AK51" s="114"/>
+      <c r="AL51" s="114"/>
+      <c r="AM51" s="148" t="s">
         <v>1429</v>
       </c>
-      <c r="AN51" s="131"/>
-      <c r="AO51" s="131"/>
-      <c r="AP51" s="131"/>
-      <c r="AQ51" s="131"/>
-      <c r="AR51" s="131"/>
-      <c r="AS51" s="131"/>
-      <c r="AT51" s="131"/>
-      <c r="AU51" s="131"/>
-      <c r="AV51" s="131"/>
-      <c r="AW51" s="131"/>
-      <c r="AX51" s="131"/>
-      <c r="AY51" s="131"/>
-      <c r="AZ51" s="131"/>
-      <c r="BA51" s="131"/>
-      <c r="BB51" s="131"/>
-      <c r="BC51" s="131"/>
-      <c r="BD51" s="131"/>
-      <c r="BE51" s="131"/>
-      <c r="BF51" s="131"/>
-      <c r="BG51" s="131"/>
-      <c r="BH51" s="131"/>
-      <c r="BI51" s="131"/>
-      <c r="BJ51" s="131"/>
-      <c r="BK51" s="131"/>
-      <c r="BL51" s="131"/>
-      <c r="BM51" s="131"/>
-      <c r="BN51" s="131"/>
-      <c r="BO51" s="131"/>
-      <c r="BP51" s="131"/>
-      <c r="BQ51" s="131"/>
-      <c r="BR51" s="132"/>
+      <c r="AN51" s="114"/>
+      <c r="AO51" s="114"/>
+      <c r="AP51" s="114"/>
+      <c r="AQ51" s="114"/>
+      <c r="AR51" s="114"/>
+      <c r="AS51" s="114"/>
+      <c r="AT51" s="114"/>
+      <c r="AU51" s="114"/>
+      <c r="AV51" s="114"/>
+      <c r="AW51" s="114"/>
+      <c r="AX51" s="114"/>
+      <c r="AY51" s="114"/>
+      <c r="AZ51" s="114"/>
+      <c r="BA51" s="114"/>
+      <c r="BB51" s="114"/>
+      <c r="BC51" s="114"/>
+      <c r="BD51" s="114"/>
+      <c r="BE51" s="114"/>
+      <c r="BF51" s="114"/>
+      <c r="BG51" s="114"/>
+      <c r="BH51" s="114"/>
+      <c r="BI51" s="114"/>
+      <c r="BJ51" s="114"/>
+      <c r="BK51" s="114"/>
+      <c r="BL51" s="114"/>
+      <c r="BM51" s="114"/>
+      <c r="BN51" s="114"/>
+      <c r="BO51" s="114"/>
+      <c r="BP51" s="114"/>
+      <c r="BQ51" s="114"/>
+      <c r="BR51" s="115"/>
     </row>
     <row r="53" spans="1:70">
-      <c r="E53" s="148" t="s">
+      <c r="E53" s="131" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -20299,13 +20299,13 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="116" t="s">
+      <c r="A156" s="165" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="116"/>
-      <c r="C156" s="116"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="116"/>
+      <c r="B156" s="165"/>
+      <c r="C156" s="165"/>
+      <c r="D156" s="165"/>
+      <c r="E156" s="165"/>
       <c r="F156" s="36"/>
     </row>
     <row r="157" spans="1:6">
@@ -20432,13 +20432,13 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="116" t="s">
+      <c r="A187" s="165" t="s">
         <v>642</v>
       </c>
-      <c r="B187" s="116"/>
-      <c r="C187" s="116"/>
-      <c r="D187" s="116"/>
-      <c r="E187" s="116"/>
+      <c r="B187" s="165"/>
+      <c r="C187" s="165"/>
+      <c r="D187" s="165"/>
+      <c r="E187" s="165"/>
       <c r="F187" s="36"/>
     </row>
     <row r="188" spans="1:6">

--- a/List_Tasks_Doing.xlsx
+++ b/List_Tasks_Doing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7995" tabRatio="666" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2Portlan" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1439">
   <si>
     <t>APIC_MailSendSetting</t>
   </si>
@@ -5717,6 +5717,30 @@
   </si>
   <si>
     <t>*1) Because NG cases can be out of example, so when you are in doubt as to apply which NG case, then distinguish by content of column [条件] (Condition).</t>
+  </si>
+  <si>
+    <t>Please, try to clear NVRAM.</t>
+  </si>
+  <si>
+    <t>1. rm -fr /Virtual_NVRAM/*</t>
+  </si>
+  <si>
+    <t>2. rm -fr /Virtual_SPI-Flash/*</t>
+  </si>
+  <si>
+    <t>3. mkfs.ext3 /dev/sdc10</t>
+  </si>
+  <si>
+    <t>新Sim環境(fedora)導入手順(開発者向け)(12)</t>
+  </si>
+  <si>
+    <t>sheet:【参考④】その他いろいろ</t>
+  </si>
+  <si>
+    <t>Line.37 - 45</t>
+  </si>
+  <si>
+    <t>Clear NVRAM</t>
   </si>
 </sst>
 </file>
@@ -7429,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9622,8 +9646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="L180" sqref="L180"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12448,8 +12472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14831,8 +14855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BR53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AM47" sqref="AM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="14.25"/>
@@ -16372,10 +16396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16422,6 +16446,49 @@
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="89" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
